--- a/BackTest/2019-10-14 BackTest TRX.xlsx
+++ b/BackTest/2019-10-14 BackTest TRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.6999999999999922</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-14.28571428571414</v>
+      </c>
       <c r="L12" t="n">
         <v>19.17</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.6999999999999922</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333373</v>
+      </c>
       <c r="L13" t="n">
         <v>19.16</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.6999999999999922</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>19.14</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.6999999999999922</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>19.14</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.6999999999999922</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>19.13</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.6999999999999922</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>19.12</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.7999999999999936</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>19.11</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.899999999999995</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333254</v>
+      </c>
       <c r="L19" t="n">
         <v>19.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.899999999999995</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>19.09</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.899999999999995</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>19.09</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.899999999999995</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>19.09</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.899999999999995</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>19.09</v>
@@ -1466,7 +1488,7 @@
         <v>0.9999999999999964</v>
       </c>
       <c r="K24" t="n">
-        <v>-33.3333333333336</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>19.08</v>
@@ -1515,7 +1537,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L25" t="n">
         <v>19.09</v>
@@ -1564,7 +1586,7 @@
         <v>1.299999999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>19.09</v>
@@ -1613,7 +1635,7 @@
         <v>1.399999999999991</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>19.1</v>
@@ -1711,7 +1733,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L29" t="n">
         <v>19.12</v>
@@ -1760,7 +1782,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L30" t="n">
         <v>19.13</v>
@@ -1809,7 +1831,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K31" t="n">
-        <v>11.11111111111093</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L31" t="n">
         <v>19.14</v>
@@ -1860,7 +1882,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K32" t="n">
-        <v>11.11111111111093</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L32" t="n">
         <v>19.15</v>
@@ -1911,7 +1933,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K33" t="n">
-        <v>11.11111111111093</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L33" t="n">
         <v>19.16</v>
@@ -1962,7 +1984,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K34" t="n">
-        <v>11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>19.18</v>
@@ -2013,7 +2035,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K35" t="n">
-        <v>11.11111111111093</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>19.18</v>
@@ -2064,7 +2086,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K36" t="n">
-        <v>11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>19.18999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K37" t="n">
-        <v>11.11111111111093</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
         <v>19.18999999999999</v>
@@ -2165,9 +2187,7 @@
       <c r="J38" t="n">
         <v>1.599999999999987</v>
       </c>
-      <c r="K38" t="n">
-        <v>25.00000000000011</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>19.2</v>
       </c>
@@ -2217,7 +2237,7 @@
         <v>1.699999999999985</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L39" t="n">
         <v>19.18999999999999</v>
@@ -2268,7 +2288,7 @@
         <v>1.699999999999985</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L40" t="n">
         <v>19.18</v>
@@ -2319,7 +2339,7 @@
         <v>1.799999999999983</v>
       </c>
       <c r="K41" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>19.18</v>
@@ -2370,7 +2390,7 @@
         <v>1.799999999999983</v>
       </c>
       <c r="K42" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>19.18</v>
@@ -2421,7 +2441,7 @@
         <v>1.899999999999984</v>
       </c>
       <c r="K43" t="n">
-        <v>20.00000000000014</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L43" t="n">
         <v>19.19</v>
@@ -2472,7 +2492,7 @@
         <v>1.899999999999984</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333386</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L44" t="n">
         <v>19.2</v>
@@ -2574,7 +2594,7 @@
         <v>1.999999999999986</v>
       </c>
       <c r="K46" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>19.2</v>
@@ -2676,7 +2696,7 @@
         <v>1.999999999999986</v>
       </c>
       <c r="K48" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L48" t="n">
         <v>19.2</v>
@@ -2727,7 +2747,7 @@
         <v>1.999999999999986</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L49" t="n">
         <v>19.21</v>
@@ -2880,7 +2900,7 @@
         <v>1.999999999999986</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L52" t="n">
         <v>19.22</v>
@@ -2931,7 +2951,7 @@
         <v>1.999999999999986</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L53" t="n">
         <v>19.21</v>
@@ -2981,9 +3001,7 @@
       <c r="J54" t="n">
         <v>1.999999999999986</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>19.2</v>
       </c>
@@ -3032,9 +3050,7 @@
       <c r="J55" t="n">
         <v>1.999999999999986</v>
       </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>19.2</v>
       </c>
@@ -3084,7 +3100,7 @@
         <v>2.099999999999987</v>
       </c>
       <c r="K56" t="n">
-        <v>20.00000000000028</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>19.21</v>
@@ -3186,7 +3202,7 @@
         <v>2.29999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>14.28571428571443</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>19.22</v>
@@ -3237,7 +3253,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K59" t="n">
-        <v>14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>19.22</v>
@@ -3288,7 +3304,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K60" t="n">
-        <v>14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>19.22</v>
@@ -3441,7 +3457,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K63" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>19.22</v>
@@ -3492,7 +3508,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K64" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>19.22</v>
@@ -3543,7 +3559,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>19.22</v>
@@ -3594,7 +3610,7 @@
         <v>2.499999999999989</v>
       </c>
       <c r="K66" t="n">
-        <v>-19.99999999999943</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L66" t="n">
         <v>19.2</v>
@@ -3645,7 +3661,7 @@
         <v>2.499999999999989</v>
       </c>
       <c r="K67" t="n">
-        <v>-19.99999999999943</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>19.19</v>
@@ -3696,7 +3712,7 @@
         <v>2.499999999999989</v>
       </c>
       <c r="K68" t="n">
-        <v>-19.99999999999943</v>
+        <v>-100</v>
       </c>
       <c r="L68" t="n">
         <v>19.16999999999999</v>
@@ -3747,7 +3763,7 @@
         <v>2.499999999999989</v>
       </c>
       <c r="K69" t="n">
-        <v>-19.99999999999943</v>
+        <v>-100</v>
       </c>
       <c r="L69" t="n">
         <v>19.16</v>
@@ -3900,7 +3916,7 @@
         <v>2.799999999999986</v>
       </c>
       <c r="K72" t="n">
-        <v>-24.99999999999989</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L72" t="n">
         <v>19.14</v>
@@ -4053,7 +4069,7 @@
         <v>3.099999999999987</v>
       </c>
       <c r="K75" t="n">
-        <v>9.090909090909207</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>19.15</v>
@@ -4104,7 +4120,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K76" t="n">
-        <v>-9.090909090909207</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L76" t="n">
         <v>19.16</v>
@@ -4155,7 +4171,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L77" t="n">
         <v>19.17</v>
@@ -4206,7 +4222,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K78" t="n">
-        <v>-11.11111111111129</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L78" t="n">
         <v>19.18</v>
@@ -4257,7 +4273,7 @@
         <v>3.299999999999986</v>
       </c>
       <c r="K79" t="n">
-        <v>-11.11111111111093</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L79" t="n">
         <v>19.18</v>
@@ -4308,7 +4324,7 @@
         <v>3.299999999999986</v>
       </c>
       <c r="K80" t="n">
-        <v>-11.11111111111093</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L80" t="n">
         <v>19.17</v>
@@ -4359,7 +4375,7 @@
         <v>3.399999999999984</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>19.17</v>
@@ -4512,7 +4528,7 @@
         <v>3.399999999999984</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L84" t="n">
         <v>19.19</v>
@@ -4563,7 +4579,7 @@
         <v>3.499999999999986</v>
       </c>
       <c r="K85" t="n">
-        <v>9.090909090909268</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L85" t="n">
         <v>19.19</v>
@@ -4614,7 +4630,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K86" t="n">
-        <v>9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>19.19</v>
@@ -4665,7 +4681,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K87" t="n">
-        <v>9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>19.19</v>
@@ -4716,7 +4732,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K88" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L88" t="n">
         <v>19.19</v>
@@ -4767,7 +4783,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K89" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L89" t="n">
         <v>19.2</v>
@@ -5022,7 +5038,7 @@
         <v>3.899999999999988</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.11111111111085</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L94" t="n">
         <v>19.21</v>
@@ -5073,7 +5089,7 @@
         <v>3.899999999999988</v>
       </c>
       <c r="K95" t="n">
-        <v>-24.99999999999989</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L95" t="n">
         <v>19.19</v>
@@ -5124,7 +5140,7 @@
         <v>3.899999999999988</v>
       </c>
       <c r="K96" t="n">
-        <v>-14.285714285714</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L96" t="n">
         <v>19.18</v>
@@ -5175,7 +5191,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K97" t="n">
-        <v>-24.99999999999989</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L97" t="n">
         <v>19.16</v>
@@ -5226,7 +5242,7 @@
         <v>4.099999999999991</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.11111111111085</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L98" t="n">
         <v>19.15</v>
@@ -5277,7 +5293,7 @@
         <v>4.199999999999992</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L99" t="n">
         <v>19.13</v>
@@ -5328,7 +5344,7 @@
         <v>4.199999999999992</v>
       </c>
       <c r="K100" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L100" t="n">
         <v>19.11</v>
@@ -5379,7 +5395,7 @@
         <v>4.199999999999992</v>
       </c>
       <c r="K101" t="n">
-        <v>-24.99999999999967</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L101" t="n">
         <v>19.09</v>
@@ -5430,7 +5446,7 @@
         <v>4.199999999999992</v>
       </c>
       <c r="K102" t="n">
-        <v>-24.99999999999967</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L102" t="n">
         <v>19.06</v>
@@ -5481,7 +5497,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.11111111111076</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>19.05</v>
@@ -5532,7 +5548,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.11111111111076</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>19.05</v>
@@ -5583,7 +5599,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K105" t="n">
-        <v>-24.99999999999967</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>19.05</v>
@@ -5634,7 +5650,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K106" t="n">
-        <v>-14.28571428571385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>19.05</v>
@@ -5685,7 +5701,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K107" t="n">
-        <v>-24.99999999999967</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>19.05</v>
@@ -5736,7 +5752,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K108" t="n">
-        <v>-11.11111111111076</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>19.05</v>
@@ -5787,7 +5803,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>19.05</v>
@@ -5838,7 +5854,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>19.05</v>
@@ -5889,7 +5905,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>19.05</v>
@@ -5940,7 +5956,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>-33.33333333333307</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>19.05</v>
@@ -5991,7 +6007,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>-33.33333333333307</v>
+        <v>-50</v>
       </c>
       <c r="L113" t="n">
         <v>19.03</v>
@@ -6042,7 +6058,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L114" t="n">
         <v>19.02</v>
@@ -6093,7 +6109,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>19.01000000000001</v>
@@ -6144,7 +6160,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>19.00000000000001</v>
@@ -6195,7 +6211,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>19.00000000000001</v>
@@ -6246,7 +6262,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>18.99000000000001</v>
@@ -6450,7 +6466,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
         <v>18.99000000000001</v>
@@ -6500,9 +6516,7 @@
       <c r="J123" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K123" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6551,9 +6565,7 @@
       <c r="J124" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K124" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6602,9 +6614,7 @@
       <c r="J125" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K125" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6653,9 +6663,7 @@
       <c r="J126" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K126" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6704,9 +6712,7 @@
       <c r="J127" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6755,9 +6761,7 @@
       <c r="J128" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K128" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6806,9 +6810,7 @@
       <c r="J129" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6857,9 +6859,7 @@
       <c r="J130" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6908,9 +6908,7 @@
       <c r="J131" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -6960,7 +6958,7 @@
         <v>4.900000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>19.01000000000001</v>
@@ -7011,7 +7009,7 @@
         <v>5.000000000000004</v>
       </c>
       <c r="K133" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>19.01000000000001</v>
@@ -7419,7 +7417,7 @@
         <v>5.500000000000011</v>
       </c>
       <c r="K141" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>19.00000000000001</v>
@@ -7521,7 +7519,7 @@
         <v>5.700000000000014</v>
       </c>
       <c r="K143" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>19.00000000000001</v>
@@ -7674,7 +7672,7 @@
         <v>5.900000000000016</v>
       </c>
       <c r="K146" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>19.01000000000001</v>
@@ -7725,7 +7723,7 @@
         <v>5.900000000000016</v>
       </c>
       <c r="K147" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>19.01000000000001</v>
@@ -7776,7 +7774,7 @@
         <v>5.900000000000016</v>
       </c>
       <c r="K148" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L148" t="n">
         <v>19.03</v>
@@ -7827,7 +7825,7 @@
         <v>5.900000000000016</v>
       </c>
       <c r="K149" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L149" t="n">
         <v>19.04</v>
@@ -7878,7 +7876,7 @@
         <v>5.900000000000016</v>
       </c>
       <c r="K150" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L150" t="n">
         <v>19.05</v>
@@ -7929,7 +7927,7 @@
         <v>5.900000000000016</v>
       </c>
       <c r="K151" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>19.07</v>
@@ -7980,7 +7978,7 @@
         <v>6.000000000000018</v>
       </c>
       <c r="K152" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>19.07</v>
@@ -8082,7 +8080,7 @@
         <v>6.100000000000019</v>
       </c>
       <c r="K154" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>19.07</v>
@@ -8133,7 +8131,7 @@
         <v>6.100000000000019</v>
       </c>
       <c r="K155" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>19.08</v>
@@ -8184,7 +8182,7 @@
         <v>6.100000000000019</v>
       </c>
       <c r="K156" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>19.08</v>
@@ -8286,7 +8284,7 @@
         <v>6.100000000000019</v>
       </c>
       <c r="K158" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>19.08</v>
@@ -8337,7 +8335,7 @@
         <v>6.200000000000021</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>19.07</v>
@@ -8388,7 +8386,7 @@
         <v>6.200000000000021</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>19.06</v>
@@ -8439,7 +8437,7 @@
         <v>6.200000000000021</v>
       </c>
       <c r="K161" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>19.05</v>
@@ -8541,7 +8539,7 @@
         <v>6.200000000000021</v>
       </c>
       <c r="K163" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L163" t="n">
         <v>19.05</v>
@@ -8592,7 +8590,7 @@
         <v>6.300000000000022</v>
       </c>
       <c r="K164" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L164" t="n">
         <v>19.03</v>
@@ -8643,7 +8641,7 @@
         <v>6.400000000000023</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>19.02</v>
@@ -8694,7 +8692,7 @@
         <v>6.400000000000023</v>
       </c>
       <c r="K166" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>19.01000000000001</v>
@@ -8745,7 +8743,7 @@
         <v>6.400000000000023</v>
       </c>
       <c r="K167" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>19.00000000000001</v>
@@ -8796,7 +8794,7 @@
         <v>6.500000000000025</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>19.00000000000001</v>
@@ -8847,7 +8845,7 @@
         <v>6.500000000000025</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L169" t="n">
         <v>19.01000000000001</v>
@@ -8898,7 +8896,7 @@
         <v>6.500000000000025</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>19.02</v>
@@ -8949,7 +8947,7 @@
         <v>6.500000000000025</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L171" t="n">
         <v>19.03</v>
@@ -9051,7 +9049,7 @@
         <v>6.700000000000028</v>
       </c>
       <c r="K173" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L173" t="n">
         <v>19.04</v>
@@ -9102,7 +9100,7 @@
         <v>6.800000000000029</v>
       </c>
       <c r="K174" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>19.05</v>
@@ -9153,7 +9151,7 @@
         <v>6.800000000000029</v>
       </c>
       <c r="K175" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>19.05</v>
@@ -9204,7 +9202,7 @@
         <v>6.800000000000029</v>
       </c>
       <c r="K176" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>19.05</v>
@@ -9255,7 +9253,7 @@
         <v>6.800000000000029</v>
       </c>
       <c r="K177" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>19.05</v>
@@ -9306,7 +9304,7 @@
         <v>6.800000000000029</v>
       </c>
       <c r="K178" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>19.04</v>
@@ -9357,7 +9355,7 @@
         <v>6.800000000000029</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>19.03</v>
@@ -9408,7 +9406,7 @@
         <v>6.800000000000029</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>19.02</v>
@@ -9510,7 +9508,7 @@
         <v>6.800000000000029</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L182" t="n">
         <v>19.01000000000001</v>
@@ -9560,9 +9558,7 @@
       <c r="J183" t="n">
         <v>6.800000000000029</v>
       </c>
-      <c r="K183" t="n">
-        <v>0</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -9611,9 +9607,7 @@
       <c r="J184" t="n">
         <v>6.800000000000029</v>
       </c>
-      <c r="K184" t="n">
-        <v>20</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>19.00000000000001</v>
       </c>
@@ -9663,7 +9657,7 @@
         <v>6.900000000000031</v>
       </c>
       <c r="K185" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L185" t="n">
         <v>19.01000000000001</v>
@@ -9816,7 +9810,7 @@
         <v>7.100000000000033</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>19.02</v>
@@ -9867,7 +9861,7 @@
         <v>7.300000000000036</v>
       </c>
       <c r="K189" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L189" t="n">
         <v>19.01000000000001</v>
@@ -9918,7 +9912,7 @@
         <v>7.300000000000036</v>
       </c>
       <c r="K190" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L190" t="n">
         <v>19.00000000000001</v>
@@ -9969,7 +9963,7 @@
         <v>7.400000000000038</v>
       </c>
       <c r="K191" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>19.00000000000001</v>
@@ -10071,7 +10065,7 @@
         <v>7.400000000000038</v>
       </c>
       <c r="K193" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>19.00000000000001</v>
@@ -10122,7 +10116,7 @@
         <v>7.500000000000039</v>
       </c>
       <c r="K194" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>18.99000000000001</v>
@@ -10224,7 +10218,7 @@
         <v>7.700000000000042</v>
       </c>
       <c r="K196" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L196" t="n">
         <v>18.97000000000001</v>
@@ -10275,7 +10269,7 @@
         <v>7.800000000000043</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L197" t="n">
         <v>18.97000000000001</v>
@@ -10326,7 +10320,7 @@
         <v>7.800000000000043</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>18.96000000000001</v>
@@ -10377,7 +10371,7 @@
         <v>7.900000000000045</v>
       </c>
       <c r="K199" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>18.98000000000001</v>
@@ -10428,7 +10422,7 @@
         <v>7.900000000000045</v>
       </c>
       <c r="K200" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>19.00000000000001</v>
@@ -10479,7 +10473,7 @@
         <v>7.900000000000045</v>
       </c>
       <c r="K201" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L201" t="n">
         <v>19.01000000000001</v>
@@ -10530,7 +10524,7 @@
         <v>7.900000000000045</v>
       </c>
       <c r="K202" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L202" t="n">
         <v>19.02</v>
@@ -10581,7 +10575,7 @@
         <v>7.900000000000045</v>
       </c>
       <c r="K203" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L203" t="n">
         <v>19.03</v>
@@ -10632,7 +10626,7 @@
         <v>7.900000000000045</v>
       </c>
       <c r="K204" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>19.05</v>
@@ -10683,7 +10677,7 @@
         <v>7.900000000000045</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>19.06</v>
@@ -10734,7 +10728,7 @@
         <v>8.000000000000043</v>
       </c>
       <c r="K206" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>19.09</v>
@@ -10785,7 +10779,7 @@
         <v>8.000000000000043</v>
       </c>
       <c r="K207" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L207" t="n">
         <v>19.11</v>
@@ -10836,7 +10830,7 @@
         <v>8.000000000000043</v>
       </c>
       <c r="K208" t="n">
-        <v>11.11111111111076</v>
+        <v>100</v>
       </c>
       <c r="L208" t="n">
         <v>19.13</v>
@@ -10887,7 +10881,7 @@
         <v>8.100000000000044</v>
       </c>
       <c r="K209" t="n">
-        <v>49.99999999999978</v>
+        <v>100</v>
       </c>
       <c r="L209" t="n">
         <v>19.15</v>
@@ -10938,7 +10932,7 @@
         <v>8.100000000000044</v>
       </c>
       <c r="K210" t="n">
-        <v>49.99999999999978</v>
+        <v>100</v>
       </c>
       <c r="L210" t="n">
         <v>19.17</v>
@@ -10989,7 +10983,7 @@
         <v>8.200000000000042</v>
       </c>
       <c r="K211" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L211" t="n">
         <v>19.2</v>
@@ -11040,7 +11034,7 @@
         <v>8.30000000000004</v>
       </c>
       <c r="K212" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L212" t="n">
         <v>19.22000000000001</v>
@@ -11091,7 +11085,7 @@
         <v>8.30000000000004</v>
       </c>
       <c r="K213" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L213" t="n">
         <v>19.24000000000001</v>
@@ -11142,7 +11136,7 @@
         <v>8.400000000000038</v>
       </c>
       <c r="K214" t="n">
-        <v>55.55555555555565</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L214" t="n">
         <v>19.27000000000001</v>
@@ -11193,7 +11187,7 @@
         <v>8.500000000000036</v>
       </c>
       <c r="K215" t="n">
-        <v>33.3333333333336</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L215" t="n">
         <v>19.29000000000001</v>
@@ -11244,7 +11238,7 @@
         <v>8.500000000000036</v>
       </c>
       <c r="K216" t="n">
-        <v>50.00000000000067</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L216" t="n">
         <v>19.30000000000001</v>
@@ -11295,7 +11289,7 @@
         <v>8.500000000000036</v>
       </c>
       <c r="K217" t="n">
-        <v>42.85714285714344</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L217" t="n">
         <v>19.31000000000001</v>
@@ -11346,7 +11340,7 @@
         <v>8.600000000000033</v>
       </c>
       <c r="K218" t="n">
-        <v>50.00000000000044</v>
+        <v>20</v>
       </c>
       <c r="L218" t="n">
         <v>19.33000000000002</v>
@@ -11397,7 +11391,7 @@
         <v>8.700000000000031</v>
       </c>
       <c r="K219" t="n">
-        <v>25.00000000000033</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>19.33000000000002</v>
@@ -11448,7 +11442,7 @@
         <v>8.800000000000029</v>
       </c>
       <c r="K220" t="n">
-        <v>33.3333333333336</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>19.34000000000001</v>
@@ -11499,7 +11493,7 @@
         <v>8.900000000000027</v>
       </c>
       <c r="K221" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>19.33000000000002</v>
@@ -11550,7 +11544,7 @@
         <v>9.000000000000025</v>
       </c>
       <c r="K222" t="n">
-        <v>27.27272727272751</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L222" t="n">
         <v>19.34000000000001</v>
@@ -11601,7 +11595,7 @@
         <v>9.000000000000025</v>
       </c>
       <c r="K223" t="n">
-        <v>27.27272727272751</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>19.35000000000002</v>
@@ -11754,7 +11748,7 @@
         <v>9.100000000000026</v>
       </c>
       <c r="K226" t="n">
-        <v>27.27272727272774</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L226" t="n">
         <v>19.40000000000001</v>
@@ -11805,7 +11799,7 @@
         <v>9.100000000000026</v>
       </c>
       <c r="K227" t="n">
-        <v>27.27272727272774</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L227" t="n">
         <v>19.42000000000001</v>
@@ -11856,7 +11850,7 @@
         <v>9.200000000000028</v>
       </c>
       <c r="K228" t="n">
-        <v>33.33333333333393</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L228" t="n">
         <v>19.44000000000001</v>
@@ -11907,7 +11901,7 @@
         <v>9.300000000000029</v>
       </c>
       <c r="K229" t="n">
-        <v>16.66666666666682</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L229" t="n">
         <v>19.46000000000001</v>
@@ -11958,7 +11952,7 @@
         <v>9.400000000000031</v>
       </c>
       <c r="K230" t="n">
-        <v>23.07692307692337</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L230" t="n">
         <v>19.48000000000001</v>
@@ -12009,7 +12003,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K231" t="n">
-        <v>23.07692307692337</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L231" t="n">
         <v>19.52</v>
@@ -12060,7 +12054,7 @@
         <v>9.600000000000026</v>
       </c>
       <c r="K232" t="n">
-        <v>23.07692307692337</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L232" t="n">
         <v>19.54</v>
@@ -12111,7 +12105,7 @@
         <v>9.700000000000028</v>
       </c>
       <c r="K233" t="n">
-        <v>14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>19.55</v>
@@ -12162,7 +12156,7 @@
         <v>9.800000000000029</v>
       </c>
       <c r="K234" t="n">
-        <v>14.28571428571458</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L234" t="n">
         <v>19.56</v>
@@ -12213,7 +12207,7 @@
         <v>9.800000000000029</v>
       </c>
       <c r="K235" t="n">
-        <v>23.07692307692324</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L235" t="n">
         <v>19.57</v>
@@ -12264,7 +12258,7 @@
         <v>9.800000000000029</v>
       </c>
       <c r="K236" t="n">
-        <v>23.07692307692324</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L236" t="n">
         <v>19.58</v>
@@ -12315,7 +12309,7 @@
         <v>9.800000000000029</v>
       </c>
       <c r="K237" t="n">
-        <v>23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>19.59</v>
@@ -12366,7 +12360,7 @@
         <v>9.900000000000027</v>
       </c>
       <c r="K238" t="n">
-        <v>23.07692307692324</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>19.6</v>
@@ -12417,7 +12411,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>19.61</v>
@@ -12468,7 +12462,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K240" t="n">
-        <v>23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>19.62</v>
@@ -12519,7 +12513,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>33.33333333333333</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L241" t="n">
         <v>19.62</v>
@@ -12570,7 +12564,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K242" t="n">
-        <v>27.27272727272739</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L242" t="n">
         <v>19.63</v>
@@ -12621,7 +12615,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>16.66666666666696</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>19.64</v>
@@ -12672,7 +12666,7 @@
         <v>10.30000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>16.66666666666671</v>
+        <v>20</v>
       </c>
       <c r="L244" t="n">
         <v>19.65</v>
@@ -12723,7 +12717,7 @@
         <v>10.30000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>16.66666666666671</v>
+        <v>20</v>
       </c>
       <c r="L245" t="n">
         <v>19.66</v>
@@ -12774,7 +12768,7 @@
         <v>10.30000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>16.66666666666671</v>
+        <v>20</v>
       </c>
       <c r="L246" t="n">
         <v>19.66999999999999</v>
@@ -12825,7 +12819,7 @@
         <v>10.30000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>16.66666666666671</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>19.68</v>
@@ -12876,7 +12870,7 @@
         <v>10.30000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>9.090909090908973</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L248" t="n">
         <v>19.68</v>
@@ -12927,7 +12921,7 @@
         <v>10.40000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>27.27272727272756</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L249" t="n">
         <v>19.7</v>
@@ -12978,7 +12972,7 @@
         <v>10.50000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>19.7</v>
@@ -13080,7 +13074,7 @@
         <v>10.50000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>11.11111111111093</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L252" t="n">
         <v>19.7</v>
@@ -13131,7 +13125,7 @@
         <v>10.50000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>19.71</v>
@@ -13182,7 +13176,7 @@
         <v>10.50000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>19.71</v>
@@ -13233,7 +13227,7 @@
         <v>10.50000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>19.71</v>
@@ -13284,7 +13278,7 @@
         <v>10.60000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L256" t="n">
         <v>19.7</v>
@@ -13335,7 +13329,7 @@
         <v>10.60000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L257" t="n">
         <v>19.69</v>
@@ -13386,7 +13380,7 @@
         <v>10.60000000000002</v>
       </c>
       <c r="K258" t="n">
-        <v>-14.28571428571414</v>
+        <v>-100</v>
       </c>
       <c r="L258" t="n">
         <v>19.68</v>
@@ -13437,7 +13431,7 @@
         <v>10.60000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L259" t="n">
         <v>19.66</v>
@@ -13539,7 +13533,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>19.65</v>
@@ -13590,7 +13584,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>-25.00000000000011</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L262" t="n">
         <v>19.63</v>
@@ -13641,7 +13635,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K263" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L263" t="n">
         <v>19.61</v>
@@ -13692,7 +13686,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>-14.285714285714</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L264" t="n">
         <v>19.6</v>
@@ -13743,7 +13737,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K265" t="n">
-        <v>-24.99999999999989</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L265" t="n">
         <v>19.58</v>
@@ -13794,7 +13788,7 @@
         <v>11.20000000000002</v>
       </c>
       <c r="K266" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>19.58</v>
@@ -13845,7 +13839,7 @@
         <v>11.30000000000002</v>
       </c>
       <c r="K267" t="n">
-        <v>-19.99999999999986</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L267" t="n">
         <v>19.57</v>
@@ -13896,7 +13890,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K268" t="n">
-        <v>-9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>19.57</v>
@@ -13947,7 +13941,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>-19.99999999999986</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L269" t="n">
         <v>19.57</v>
@@ -13998,7 +13992,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>19.56</v>
@@ -14049,7 +14043,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>-11.11111111111085</v>
+        <v>20</v>
       </c>
       <c r="L271" t="n">
         <v>19.56</v>
@@ -14100,7 +14094,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L272" t="n">
         <v>19.58</v>
@@ -14151,7 +14145,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K273" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>19.59</v>
@@ -14202,7 +14196,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K274" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>19.58</v>
@@ -14253,7 +14247,7 @@
         <v>11.80000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>-7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>19.59</v>
@@ -14304,7 +14298,7 @@
         <v>11.90000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>-7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>19.58</v>
@@ -14355,7 +14349,7 @@
         <v>11.90000000000002</v>
       </c>
       <c r="K277" t="n">
-        <v>-7.692307692307776</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L277" t="n">
         <v>19.58</v>
@@ -14406,7 +14400,7 @@
         <v>11.90000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>-7.692307692307776</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L278" t="n">
         <v>19.57</v>
@@ -14508,7 +14502,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K280" t="n">
-        <v>-14.28571428571414</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L280" t="n">
         <v>19.56</v>
@@ -14559,7 +14553,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K281" t="n">
-        <v>-7.692307692307734</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L281" t="n">
         <v>19.55</v>
@@ -14610,7 +14604,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L282" t="n">
         <v>19.53</v>
@@ -14814,7 +14808,7 @@
         <v>12.30000000000003</v>
       </c>
       <c r="K286" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>19.52</v>
@@ -14916,7 +14910,7 @@
         <v>12.30000000000003</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.1111111111112</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>19.52</v>
@@ -14967,7 +14961,7 @@
         <v>12.40000000000003</v>
       </c>
       <c r="K289" t="n">
-        <v>-20.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>19.50000000000001</v>
@@ -15018,7 +15012,7 @@
         <v>12.60000000000003</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L290" t="n">
         <v>19.51000000000001</v>
@@ -15069,7 +15063,7 @@
         <v>12.80000000000004</v>
       </c>
       <c r="K291" t="n">
-        <v>-14.28571428571436</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L291" t="n">
         <v>19.50000000000001</v>
@@ -15120,7 +15114,7 @@
         <v>13.00000000000004</v>
       </c>
       <c r="K292" t="n">
-        <v>-6.666666666666446</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L292" t="n">
         <v>19.51000000000001</v>
@@ -15171,7 +15165,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K293" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L293" t="n">
         <v>19.50000000000001</v>
@@ -15222,7 +15216,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K294" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L294" t="n">
         <v>19.48000000000001</v>
@@ -15273,7 +15267,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K295" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L295" t="n">
         <v>19.47000000000001</v>
@@ -15324,7 +15318,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K296" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L296" t="n">
         <v>19.46000000000001</v>
@@ -15375,7 +15369,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K297" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L297" t="n">
         <v>19.45000000000001</v>
@@ -15426,7 +15420,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K298" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>19.44000000000001</v>
@@ -15477,7 +15471,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K299" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L299" t="n">
         <v>19.44000000000001</v>
@@ -15528,7 +15522,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K300" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>19.42000000000001</v>
@@ -15579,7 +15573,7 @@
         <v>13.20000000000004</v>
       </c>
       <c r="K301" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L301" t="n">
         <v>19.42000000000001</v>
@@ -15629,9 +15623,7 @@
       <c r="J302" t="n">
         <v>13.20000000000004</v>
       </c>
-      <c r="K302" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>19.40000000000001</v>
       </c>
@@ -15680,9 +15672,7 @@
       <c r="J303" t="n">
         <v>13.20000000000004</v>
       </c>
-      <c r="K303" t="n">
-        <v>-9.090909090909092</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>19.40000000000001</v>
       </c>
@@ -15732,7 +15722,7 @@
         <v>13.30000000000004</v>
       </c>
       <c r="K304" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L304" t="n">
         <v>19.41000000000001</v>
@@ -15783,7 +15773,7 @@
         <v>13.30000000000004</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L305" t="n">
         <v>19.42000000000001</v>
@@ -15834,7 +15824,7 @@
         <v>13.30000000000004</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L306" t="n">
         <v>19.43000000000001</v>
@@ -15885,7 +15875,7 @@
         <v>13.30000000000004</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L307" t="n">
         <v>19.44000000000001</v>
@@ -15936,7 +15926,7 @@
         <v>13.30000000000004</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L308" t="n">
         <v>19.45000000000001</v>
@@ -15987,7 +15977,7 @@
         <v>13.30000000000004</v>
       </c>
       <c r="K309" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L309" t="n">
         <v>19.46000000000001</v>
@@ -16038,7 +16028,7 @@
         <v>13.30000000000004</v>
       </c>
       <c r="K310" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L310" t="n">
         <v>19.47000000000001</v>
@@ -16089,7 +16079,7 @@
         <v>13.40000000000004</v>
       </c>
       <c r="K311" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L311" t="n">
         <v>19.49000000000001</v>
@@ -16140,7 +16130,7 @@
         <v>13.50000000000005</v>
       </c>
       <c r="K312" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L312" t="n">
         <v>19.50000000000001</v>
@@ -16191,7 +16181,7 @@
         <v>13.60000000000005</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>19.50000000000001</v>
@@ -16242,7 +16232,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K314" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>19.50000000000001</v>
@@ -16293,7 +16283,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K315" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>19.50000000000001</v>
@@ -16344,7 +16334,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K316" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>19.50000000000001</v>
@@ -16395,7 +16385,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K317" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>19.50000000000001</v>
@@ -16446,7 +16436,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K318" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>19.50000000000001</v>
@@ -16497,7 +16487,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K319" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>19.50000000000001</v>
@@ -16548,7 +16538,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K320" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>19.50000000000001</v>
@@ -16599,7 +16589,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K321" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>19.49000000000001</v>
@@ -16650,7 +16640,7 @@
         <v>13.70000000000005</v>
       </c>
       <c r="K322" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L322" t="n">
         <v>19.49000000000001</v>
@@ -16700,9 +16690,7 @@
       <c r="J323" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K323" t="n">
-        <v>20</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -16751,9 +16739,7 @@
       <c r="J324" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K324" t="n">
-        <v>0</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -16802,9 +16788,7 @@
       <c r="J325" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K325" t="n">
-        <v>0</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -16853,9 +16837,7 @@
       <c r="J326" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K326" t="n">
-        <v>0</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -16904,9 +16886,7 @@
       <c r="J327" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K327" t="n">
-        <v>0</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -16955,9 +16935,7 @@
       <c r="J328" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K328" t="n">
-        <v>0</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -17006,9 +16984,7 @@
       <c r="J329" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K329" t="n">
-        <v>0</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -17057,9 +17033,7 @@
       <c r="J330" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K330" t="n">
-        <v>0</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -17108,9 +17082,7 @@
       <c r="J331" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K331" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -17159,9 +17131,7 @@
       <c r="J332" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K332" t="n">
-        <v>0</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -17210,9 +17180,7 @@
       <c r="J333" t="n">
         <v>13.70000000000005</v>
       </c>
-      <c r="K333" t="n">
-        <v>100</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>19.50000000000001</v>
       </c>
@@ -17819,7 +17787,7 @@
         <v>14.20000000000005</v>
       </c>
       <c r="K345" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>19.6</v>
@@ -17870,7 +17838,7 @@
         <v>14.20000000000005</v>
       </c>
       <c r="K346" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>19.6</v>
@@ -17921,7 +17889,7 @@
         <v>14.20000000000005</v>
       </c>
       <c r="K347" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>19.6</v>
@@ -17972,7 +17940,7 @@
         <v>14.20000000000005</v>
       </c>
       <c r="K348" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>19.6</v>
@@ -18023,7 +17991,7 @@
         <v>14.20000000000005</v>
       </c>
       <c r="K349" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>19.6</v>
@@ -18074,7 +18042,7 @@
         <v>14.20000000000005</v>
       </c>
       <c r="K350" t="n">
-        <v>20.00000000000028</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L350" t="n">
         <v>19.6</v>
@@ -18125,7 +18093,7 @@
         <v>14.20000000000005</v>
       </c>
       <c r="K351" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>19.59</v>
@@ -18176,7 +18144,7 @@
         <v>14.30000000000005</v>
       </c>
       <c r="K352" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L352" t="n">
         <v>19.6</v>
@@ -18227,7 +18195,7 @@
         <v>14.30000000000005</v>
       </c>
       <c r="K353" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L353" t="n">
         <v>19.61</v>
@@ -18278,7 +18246,7 @@
         <v>14.30000000000005</v>
       </c>
       <c r="K354" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L354" t="n">
         <v>19.63</v>
@@ -18329,7 +18297,7 @@
         <v>14.30000000000005</v>
       </c>
       <c r="K355" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L355" t="n">
         <v>19.64</v>
@@ -18380,7 +18348,7 @@
         <v>14.30000000000005</v>
       </c>
       <c r="K356" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L356" t="n">
         <v>19.65</v>
@@ -18431,7 +18399,7 @@
         <v>14.30000000000005</v>
       </c>
       <c r="K357" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L357" t="n">
         <v>19.66</v>
@@ -18482,7 +18450,7 @@
         <v>14.30000000000005</v>
       </c>
       <c r="K358" t="n">
-        <v>19.99999999999972</v>
+        <v>100</v>
       </c>
       <c r="L358" t="n">
         <v>19.66999999999999</v>
@@ -18584,7 +18552,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K360" t="n">
-        <v>14.28571428571414</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>19.68</v>
@@ -18686,7 +18654,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K362" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>19.68999999999999</v>
@@ -18737,7 +18705,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K363" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>19.68999999999999</v>
@@ -18788,7 +18756,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K364" t="n">
-        <v>20.00000000000057</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>19.68</v>
@@ -18839,7 +18807,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>19.66999999999999</v>
@@ -18890,7 +18858,7 @@
         <v>14.60000000000004</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>19.66</v>
@@ -18941,7 +18909,7 @@
         <v>14.70000000000004</v>
       </c>
       <c r="K367" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>19.66</v>
@@ -18992,7 +18960,7 @@
         <v>14.70000000000004</v>
       </c>
       <c r="K368" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L368" t="n">
         <v>19.66</v>
@@ -19043,7 +19011,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L369" t="n">
         <v>19.66</v>
@@ -19094,7 +19062,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L370" t="n">
         <v>19.65</v>
@@ -19145,7 +19113,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L371" t="n">
         <v>19.64</v>
@@ -19196,7 +19164,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K372" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L372" t="n">
         <v>19.63</v>
@@ -19247,7 +19215,7 @@
         <v>14.80000000000004</v>
       </c>
       <c r="K373" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>19.62</v>
@@ -19298,7 +19266,7 @@
         <v>14.90000000000003</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L374" t="n">
         <v>19.63</v>
@@ -19349,7 +19317,7 @@
         <v>14.90000000000003</v>
       </c>
       <c r="K375" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L375" t="n">
         <v>19.64</v>
@@ -19400,7 +19368,7 @@
         <v>15.00000000000003</v>
       </c>
       <c r="K376" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L376" t="n">
         <v>19.64</v>
@@ -19451,7 +19419,7 @@
         <v>15.00000000000003</v>
       </c>
       <c r="K377" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>19.63</v>
@@ -19502,7 +19470,7 @@
         <v>15.10000000000003</v>
       </c>
       <c r="K378" t="n">
-        <v>-25.00000000000033</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L378" t="n">
         <v>19.61</v>
@@ -19604,7 +19572,7 @@
         <v>15.30000000000004</v>
       </c>
       <c r="K380" t="n">
-        <v>-25.00000000000011</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L380" t="n">
         <v>19.6</v>
@@ -19655,7 +19623,7 @@
         <v>15.40000000000004</v>
       </c>
       <c r="K381" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>19.6</v>
@@ -19706,7 +19674,7 @@
         <v>15.40000000000004</v>
       </c>
       <c r="K382" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>19.6</v>
@@ -19757,7 +19725,7 @@
         <v>15.40000000000004</v>
       </c>
       <c r="K383" t="n">
-        <v>-11.11111111111093</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L383" t="n">
         <v>19.6</v>
@@ -19808,7 +19776,7 @@
         <v>15.40000000000004</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L384" t="n">
         <v>19.59</v>
@@ -19961,7 +19929,7 @@
         <v>15.40000000000004</v>
       </c>
       <c r="K387" t="n">
-        <v>-14.285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L387" t="n">
         <v>19.58</v>
@@ -20012,7 +19980,7 @@
         <v>15.40000000000004</v>
       </c>
       <c r="K388" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>19.59</v>
@@ -20063,7 +20031,7 @@
         <v>15.40000000000004</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L389" t="n">
         <v>19.59</v>
@@ -20114,7 +20082,7 @@
         <v>15.50000000000004</v>
       </c>
       <c r="K390" t="n">
-        <v>-14.28571428571443</v>
+        <v>-100</v>
       </c>
       <c r="L390" t="n">
         <v>19.59</v>
@@ -20165,7 +20133,7 @@
         <v>15.50000000000004</v>
       </c>
       <c r="K391" t="n">
-        <v>-14.28571428571443</v>
+        <v>-100</v>
       </c>
       <c r="L391" t="n">
         <v>19.58</v>
@@ -20216,7 +20184,7 @@
         <v>15.50000000000004</v>
       </c>
       <c r="K392" t="n">
-        <v>-14.28571428571443</v>
+        <v>-100</v>
       </c>
       <c r="L392" t="n">
         <v>19.57</v>
@@ -20318,7 +20286,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K394" t="n">
-        <v>-14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L394" t="n">
         <v>19.57</v>
@@ -20369,7 +20337,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K395" t="n">
-        <v>-14.28571428571385</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>19.57</v>
@@ -20522,7 +20490,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K398" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>19.57</v>
@@ -20573,7 +20541,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K399" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L399" t="n">
         <v>19.57</v>
@@ -20624,7 +20592,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K400" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L400" t="n">
         <v>19.58</v>
@@ -20675,7 +20643,7 @@
         <v>15.60000000000004</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L401" t="n">
         <v>19.59</v>
@@ -20726,7 +20694,7 @@
         <v>15.70000000000004</v>
       </c>
       <c r="K402" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L402" t="n">
         <v>19.61</v>
@@ -20777,7 +20745,7 @@
         <v>15.70000000000004</v>
       </c>
       <c r="K403" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L403" t="n">
         <v>19.62</v>
@@ -21134,7 +21102,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K410" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L410" t="n">
         <v>19.63</v>
@@ -21185,7 +21153,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K411" t="n">
-        <v>50.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>19.64</v>
@@ -21236,7 +21204,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K412" t="n">
-        <v>50.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>19.64</v>
@@ -21287,7 +21255,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K413" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L413" t="n">
         <v>19.64</v>
@@ -21338,7 +21306,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K414" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L414" t="n">
         <v>19.65</v>
@@ -21389,7 +21357,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K415" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L415" t="n">
         <v>19.66</v>
@@ -21440,7 +21408,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K416" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L416" t="n">
         <v>19.66999999999999</v>
@@ -21593,7 +21561,7 @@
         <v>16.10000000000003</v>
       </c>
       <c r="K419" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>19.68</v>
@@ -21644,7 +21612,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K420" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>19.66999999999999</v>
@@ -21695,7 +21663,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L421" t="n">
         <v>19.66</v>
@@ -21746,7 +21714,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K422" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L422" t="n">
         <v>19.65</v>
@@ -21797,7 +21765,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K423" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L423" t="n">
         <v>19.64</v>
@@ -21848,7 +21816,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K424" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>19.64</v>
@@ -21899,7 +21867,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L425" t="n">
         <v>19.63</v>
@@ -22052,7 +22020,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L428" t="n">
         <v>19.62</v>
@@ -22103,7 +22071,7 @@
         <v>16.50000000000002</v>
       </c>
       <c r="K429" t="n">
-        <v>-14.28571428571472</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L429" t="n">
         <v>19.6</v>
@@ -22154,7 +22122,7 @@
         <v>16.50000000000002</v>
       </c>
       <c r="K430" t="n">
-        <v>-33.33333333333373</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L430" t="n">
         <v>19.59</v>
@@ -22205,7 +22173,7 @@
         <v>16.60000000000003</v>
       </c>
       <c r="K431" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
         <v>19.59</v>
@@ -22256,7 +22224,7 @@
         <v>16.60000000000003</v>
       </c>
       <c r="K432" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>19.59</v>
@@ -22307,7 +22275,7 @@
         <v>16.60000000000003</v>
       </c>
       <c r="K433" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L433" t="n">
         <v>19.59</v>
@@ -22358,7 +22326,7 @@
         <v>16.60000000000003</v>
       </c>
       <c r="K434" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>19.58</v>
@@ -22409,7 +22377,7 @@
         <v>16.60000000000003</v>
       </c>
       <c r="K435" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>19.58</v>
@@ -22460,7 +22428,7 @@
         <v>16.70000000000003</v>
       </c>
       <c r="K436" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>19.57</v>
@@ -22511,7 +22479,7 @@
         <v>16.70000000000003</v>
       </c>
       <c r="K437" t="n">
-        <v>-14.28571428571458</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>19.56</v>
@@ -22562,7 +22530,7 @@
         <v>16.80000000000003</v>
       </c>
       <c r="K438" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>19.56</v>
@@ -22613,7 +22581,7 @@
         <v>16.80000000000003</v>
       </c>
       <c r="K439" t="n">
-        <v>-14.285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L439" t="n">
         <v>19.57</v>

--- a/BackTest/2019-10-14 BackTest TRX.xlsx
+++ b/BackTest/2019-10-14 BackTest TRX.xlsx
@@ -4406,17 +4406,13 @@
         <v>19.13500000000003</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>19</v>
-      </c>
-      <c r="K115" t="n">
-        <v>19</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4445,354 +4441,306 @@
         <v>19.13000000000003</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>19</v>
-      </c>
-      <c r="K116" t="n">
-        <v>19</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>19</v>
+      </c>
+      <c r="C117" t="n">
+        <v>19</v>
+      </c>
+      <c r="D117" t="n">
+        <v>19</v>
+      </c>
+      <c r="E117" t="n">
+        <v>19</v>
+      </c>
+      <c r="F117" t="n">
+        <v>30449.5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>19.1266666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>19</v>
+      </c>
+      <c r="C118" t="n">
+        <v>19</v>
+      </c>
+      <c r="D118" t="n">
+        <v>19</v>
+      </c>
+      <c r="E118" t="n">
+        <v>19</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7396.2962</v>
+      </c>
+      <c r="G118" t="n">
+        <v>19.12166666666669</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>19</v>
+      </c>
+      <c r="C119" t="n">
+        <v>19</v>
+      </c>
+      <c r="D119" t="n">
+        <v>19</v>
+      </c>
+      <c r="E119" t="n">
+        <v>19</v>
+      </c>
+      <c r="F119" t="n">
+        <v>843608.795</v>
+      </c>
+      <c r="G119" t="n">
+        <v>19.11833333333336</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>19</v>
+      </c>
+      <c r="C120" t="n">
+        <v>19</v>
+      </c>
+      <c r="D120" t="n">
+        <v>19</v>
+      </c>
+      <c r="E120" t="n">
+        <v>19</v>
+      </c>
+      <c r="F120" t="n">
+        <v>37832.8908</v>
+      </c>
+      <c r="G120" t="n">
+        <v>19.11500000000003</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>19</v>
+      </c>
+      <c r="C121" t="n">
+        <v>19</v>
+      </c>
+      <c r="D121" t="n">
+        <v>19</v>
+      </c>
+      <c r="E121" t="n">
+        <v>19</v>
+      </c>
+      <c r="F121" t="n">
+        <v>29768.3608</v>
+      </c>
+      <c r="G121" t="n">
+        <v>19.11166666666669</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>19</v>
+      </c>
+      <c r="C122" t="n">
+        <v>19</v>
+      </c>
+      <c r="D122" t="n">
+        <v>19</v>
+      </c>
+      <c r="E122" t="n">
+        <v>19</v>
+      </c>
+      <c r="F122" t="n">
+        <v>37233.8794</v>
+      </c>
+      <c r="G122" t="n">
+        <v>19.10833333333336</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>19</v>
+      </c>
+      <c r="C123" t="n">
+        <v>19</v>
+      </c>
+      <c r="D123" t="n">
+        <v>19</v>
+      </c>
+      <c r="E123" t="n">
+        <v>19</v>
+      </c>
+      <c r="F123" t="n">
+        <v>47853.9175</v>
+      </c>
+      <c r="G123" t="n">
+        <v>19.10500000000003</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>19</v>
+      </c>
+      <c r="K123" t="n">
+        <v>19</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>19</v>
+      </c>
+      <c r="C124" t="n">
+        <v>19</v>
+      </c>
+      <c r="D124" t="n">
+        <v>19</v>
+      </c>
+      <c r="E124" t="n">
+        <v>19</v>
+      </c>
+      <c r="F124" t="n">
+        <v>123477.7001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>19.10166666666669</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>19</v>
+      </c>
+      <c r="K124" t="n">
+        <v>19</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>19</v>
-      </c>
-      <c r="C117" t="n">
-        <v>19</v>
-      </c>
-      <c r="D117" t="n">
-        <v>19</v>
-      </c>
-      <c r="E117" t="n">
-        <v>19</v>
-      </c>
-      <c r="F117" t="n">
-        <v>30449.5</v>
-      </c>
-      <c r="G117" t="n">
-        <v>19.1266666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>19</v>
-      </c>
-      <c r="K117" t="n">
-        <v>19</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>19</v>
-      </c>
-      <c r="C118" t="n">
-        <v>19</v>
-      </c>
-      <c r="D118" t="n">
-        <v>19</v>
-      </c>
-      <c r="E118" t="n">
-        <v>19</v>
-      </c>
-      <c r="F118" t="n">
-        <v>7396.2962</v>
-      </c>
-      <c r="G118" t="n">
-        <v>19.12166666666669</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>19</v>
-      </c>
-      <c r="K118" t="n">
-        <v>19</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>19</v>
-      </c>
-      <c r="C119" t="n">
-        <v>19</v>
-      </c>
-      <c r="D119" t="n">
-        <v>19</v>
-      </c>
-      <c r="E119" t="n">
-        <v>19</v>
-      </c>
-      <c r="F119" t="n">
-        <v>843608.795</v>
-      </c>
-      <c r="G119" t="n">
-        <v>19.11833333333336</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>19</v>
-      </c>
-      <c r="K119" t="n">
-        <v>19</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>19</v>
-      </c>
-      <c r="C120" t="n">
-        <v>19</v>
-      </c>
-      <c r="D120" t="n">
-        <v>19</v>
-      </c>
-      <c r="E120" t="n">
-        <v>19</v>
-      </c>
-      <c r="F120" t="n">
-        <v>37832.8908</v>
-      </c>
-      <c r="G120" t="n">
-        <v>19.11500000000003</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>19</v>
-      </c>
-      <c r="K120" t="n">
-        <v>19</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>19</v>
-      </c>
-      <c r="C121" t="n">
-        <v>19</v>
-      </c>
-      <c r="D121" t="n">
-        <v>19</v>
-      </c>
-      <c r="E121" t="n">
-        <v>19</v>
-      </c>
-      <c r="F121" t="n">
-        <v>29768.3608</v>
-      </c>
-      <c r="G121" t="n">
-        <v>19.11166666666669</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>19</v>
-      </c>
-      <c r="K121" t="n">
-        <v>19</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>19</v>
-      </c>
-      <c r="C122" t="n">
-        <v>19</v>
-      </c>
-      <c r="D122" t="n">
-        <v>19</v>
-      </c>
-      <c r="E122" t="n">
-        <v>19</v>
-      </c>
-      <c r="F122" t="n">
-        <v>37233.8794</v>
-      </c>
-      <c r="G122" t="n">
-        <v>19.10833333333336</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>19</v>
-      </c>
-      <c r="K122" t="n">
-        <v>19</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>19</v>
-      </c>
-      <c r="C123" t="n">
-        <v>19</v>
-      </c>
-      <c r="D123" t="n">
-        <v>19</v>
-      </c>
-      <c r="E123" t="n">
-        <v>19</v>
-      </c>
-      <c r="F123" t="n">
-        <v>47853.9175</v>
-      </c>
-      <c r="G123" t="n">
-        <v>19.10500000000003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>19</v>
-      </c>
-      <c r="K123" t="n">
-        <v>19</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>19</v>
-      </c>
-      <c r="C124" t="n">
-        <v>19</v>
-      </c>
-      <c r="D124" t="n">
-        <v>19</v>
-      </c>
-      <c r="E124" t="n">
-        <v>19</v>
-      </c>
-      <c r="F124" t="n">
-        <v>123477.7001</v>
-      </c>
-      <c r="G124" t="n">
-        <v>19.10166666666669</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>19</v>
-      </c>
-      <c r="K124" t="n">
-        <v>19</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4874,50 +4822,48 @@
       <c r="K126" t="n">
         <v>19</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>19</v>
+      </c>
+      <c r="C127" t="n">
+        <v>19</v>
+      </c>
+      <c r="D127" t="n">
+        <v>19</v>
+      </c>
+      <c r="E127" t="n">
+        <v>19</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100420</v>
+      </c>
+      <c r="G127" t="n">
+        <v>19.09500000000003</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>19</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>19</v>
-      </c>
-      <c r="C127" t="n">
-        <v>19</v>
-      </c>
-      <c r="D127" t="n">
-        <v>19</v>
-      </c>
-      <c r="E127" t="n">
-        <v>19</v>
-      </c>
-      <c r="F127" t="n">
-        <v>100420</v>
-      </c>
-      <c r="G127" t="n">
-        <v>19.09500000000003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>19</v>
-      </c>
-      <c r="K127" t="n">
-        <v>19</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4891,12 @@
         <v>19.09333333333336</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>19</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
         <v>19</v>
       </c>
@@ -4988,22 +4932,14 @@
         <v>19.0916666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>19</v>
-      </c>
-      <c r="K129" t="n">
-        <v>19</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5031,17 +4967,13 @@
         <v>19.08833333333336</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>19</v>
-      </c>
-      <c r="K130" t="n">
-        <v>19</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
@@ -5070,22 +5002,14 @@
         <v>19.08500000000003</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>19</v>
-      </c>
-      <c r="K131" t="n">
-        <v>19</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5113,22 +5037,14 @@
         <v>19.08666666666669</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K132" t="n">
-        <v>19</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5156,17 +5072,13 @@
         <v>19.08333333333336</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>19</v>
-      </c>
-      <c r="K133" t="n">
-        <v>19</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
@@ -5195,22 +5107,14 @@
         <v>19.08000000000003</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>19</v>
-      </c>
-      <c r="K134" t="n">
-        <v>19</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5238,22 +5142,14 @@
         <v>19.07500000000003</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>19</v>
-      </c>
-      <c r="K135" t="n">
-        <v>19</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5281,17 +5177,13 @@
         <v>19.07166666666669</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>19</v>
-      </c>
-      <c r="K136" t="n">
-        <v>19</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
@@ -5320,22 +5212,14 @@
         <v>19.07000000000003</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K137" t="n">
-        <v>19</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5363,22 +5247,14 @@
         <v>19.06500000000002</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K138" t="n">
-        <v>19</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5406,17 +5282,13 @@
         <v>19.06333333333336</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>19</v>
-      </c>
-      <c r="K139" t="n">
-        <v>19</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
@@ -5445,22 +5317,14 @@
         <v>19.06166666666669</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>19</v>
-      </c>
-      <c r="K140" t="n">
-        <v>19</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5488,22 +5352,14 @@
         <v>19.05666666666669</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>19</v>
-      </c>
-      <c r="K141" t="n">
-        <v>19</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5531,22 +5387,14 @@
         <v>19.05333333333336</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>19</v>
-      </c>
-      <c r="K142" t="n">
-        <v>19</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5574,22 +5422,14 @@
         <v>19.05166666666669</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>19</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5617,22 +5457,14 @@
         <v>19.04833333333336</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>19</v>
-      </c>
-      <c r="K144" t="n">
-        <v>19</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5660,22 +5492,14 @@
         <v>19.04333333333336</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>19</v>
-      </c>
-      <c r="K145" t="n">
-        <v>19</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5703,22 +5527,14 @@
         <v>19.04166666666669</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K146" t="n">
-        <v>19</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5746,22 +5562,14 @@
         <v>19.04000000000002</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K147" t="n">
-        <v>19</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5789,22 +5597,14 @@
         <v>19.03833333333335</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K148" t="n">
-        <v>19</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5838,14 +5638,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>19</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5879,14 +5673,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>19</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +5708,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>19</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5961,14 +5743,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>19</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6002,14 +5778,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>19</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6043,14 +5813,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>19</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6078,22 +5842,14 @@
         <v>19.02500000000001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K155" t="n">
-        <v>19</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6127,14 +5883,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>19</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6168,14 +5918,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>19</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +5953,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>19</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6250,14 +5988,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>19</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6291,14 +6023,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>19</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6332,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>19</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6373,14 +6093,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>19</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6408,22 +6122,14 @@
         <v>19.02500000000001</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>19</v>
-      </c>
-      <c r="K163" t="n">
-        <v>19</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6457,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>19</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6492,22 +6192,14 @@
         <v>19.02000000000002</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>19</v>
-      </c>
-      <c r="K165" t="n">
-        <v>19</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6535,22 +6227,14 @@
         <v>19.01833333333335</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>19</v>
-      </c>
-      <c r="K166" t="n">
-        <v>19</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6578,22 +6262,14 @@
         <v>19.01833333333335</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>19</v>
-      </c>
-      <c r="K167" t="n">
-        <v>19</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6621,22 +6297,14 @@
         <v>19.01833333333335</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>19</v>
-      </c>
-      <c r="K168" t="n">
-        <v>19</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6664,22 +6332,14 @@
         <v>19.02000000000002</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K169" t="n">
-        <v>19</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6707,22 +6367,14 @@
         <v>19.02166666666668</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K170" t="n">
-        <v>19</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6750,22 +6402,14 @@
         <v>19.02333333333335</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K171" t="n">
-        <v>19</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6799,14 +6443,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>19</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6840,14 +6478,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>19</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6875,22 +6507,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>19</v>
-      </c>
-      <c r="K174" t="n">
-        <v>19</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6924,14 +6548,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>19</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6959,22 +6577,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>19</v>
-      </c>
-      <c r="K176" t="n">
-        <v>19</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7002,22 +6612,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>19</v>
-      </c>
-      <c r="K177" t="n">
-        <v>19</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7045,22 +6647,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>19</v>
-      </c>
-      <c r="K178" t="n">
-        <v>19</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7088,22 +6682,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>19</v>
-      </c>
-      <c r="K179" t="n">
-        <v>19</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7131,22 +6717,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>19</v>
-      </c>
-      <c r="K180" t="n">
-        <v>19</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7174,22 +6752,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K181" t="n">
-        <v>19</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7217,22 +6787,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>19</v>
-      </c>
-      <c r="K182" t="n">
-        <v>19</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7260,22 +6822,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>19</v>
-      </c>
-      <c r="K183" t="n">
-        <v>19</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7303,22 +6857,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>19</v>
-      </c>
-      <c r="K184" t="n">
-        <v>19</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7346,22 +6892,14 @@
         <v>19.02833333333334</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K185" t="n">
-        <v>19</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7389,22 +6927,14 @@
         <v>19.02833333333334</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>19</v>
-      </c>
-      <c r="K186" t="n">
-        <v>19</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7432,22 +6962,14 @@
         <v>19.02833333333334</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>19</v>
-      </c>
-      <c r="K187" t="n">
-        <v>19</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7475,22 +6997,14 @@
         <v>19.03000000000001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K188" t="n">
-        <v>19</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7518,22 +7032,14 @@
         <v>19.02833333333334</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K189" t="n">
-        <v>19</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7561,22 +7067,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>19</v>
-      </c>
-      <c r="K190" t="n">
-        <v>19</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7604,22 +7102,14 @@
         <v>19.02666666666668</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>19</v>
-      </c>
-      <c r="K191" t="n">
-        <v>19</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7647,22 +7137,14 @@
         <v>19.02500000000001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>19</v>
-      </c>
-      <c r="K192" t="n">
-        <v>19</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7690,22 +7172,14 @@
         <v>19.02500000000001</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>19</v>
-      </c>
-      <c r="K193" t="n">
-        <v>19</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7733,22 +7207,14 @@
         <v>19.02333333333335</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>19</v>
-      </c>
-      <c r="K194" t="n">
-        <v>19</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7776,22 +7242,14 @@
         <v>19.02333333333335</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>19</v>
-      </c>
-      <c r="K195" t="n">
-        <v>19</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7819,22 +7277,14 @@
         <v>19.02166666666668</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K196" t="n">
-        <v>19</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7862,22 +7312,14 @@
         <v>19.02000000000002</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>19</v>
-      </c>
-      <c r="K197" t="n">
-        <v>19</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7905,22 +7347,14 @@
         <v>19.02166666666668</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>19</v>
-      </c>
-      <c r="K198" t="n">
-        <v>19</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7948,22 +7382,14 @@
         <v>19.02333333333335</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K199" t="n">
-        <v>19</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7991,22 +7417,14 @@
         <v>19.02500000000001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K200" t="n">
-        <v>19</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8034,22 +7452,14 @@
         <v>19.02833333333334</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K201" t="n">
-        <v>19</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8077,22 +7487,14 @@
         <v>19.03000000000001</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K202" t="n">
-        <v>19</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8120,22 +7522,14 @@
         <v>19.03000000000001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K203" t="n">
-        <v>19</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8169,14 +7563,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>19</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8210,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>19</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8251,14 +7633,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>19</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8292,14 +7668,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>19</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8333,14 +7703,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>19</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8374,14 +7738,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>19</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8415,14 +7773,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>19</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8456,14 +7808,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>19</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8494,17 +7840,11 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>19</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8535,17 +7875,11 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>19</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8576,17 +7910,11 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>19</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8620,14 +7948,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>19</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8661,14 +7983,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>19</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8702,14 +8018,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>19</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8743,14 +8053,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>19</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8784,14 +8088,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>19</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8825,14 +8123,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>19</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8866,14 +8158,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>19</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8907,14 +8193,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>19</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8948,14 +8228,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>19</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8989,14 +8263,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>19</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9030,14 +8298,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>19</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9071,14 +8333,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>19</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9112,14 +8368,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>19</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9153,14 +8403,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>19</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9194,14 +8438,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>19</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9235,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>19</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9276,14 +8508,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>19</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9317,14 +8543,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>19</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9355,19 +8575,13 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>19</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
-        <v>1.021315789473684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -9396,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
@@ -9431,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
@@ -9466,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -9501,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
@@ -9536,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
@@ -9606,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
@@ -9641,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
@@ -9676,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
@@ -9711,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>

--- a/BackTest/2019-10-14 BackTest TRX.xlsx
+++ b/BackTest/2019-10-14 BackTest TRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M421"/>
+  <dimension ref="A1:M422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F2" t="n">
-        <v>156.25</v>
+        <v>25906.7357</v>
       </c>
       <c r="G2" t="n">
-        <v>19.2266666666667</v>
+        <v>19.22500000000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>19.2</v>
       </c>
       <c r="F3" t="n">
-        <v>74099.2187</v>
+        <v>156.25</v>
       </c>
       <c r="G3" t="n">
-        <v>19.22833333333337</v>
+        <v>19.2266666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C4" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E4" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F4" t="n">
-        <v>110.98445595</v>
+        <v>74099.2187</v>
       </c>
       <c r="G4" t="n">
-        <v>19.23000000000004</v>
+        <v>19.22833333333337</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="C5" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="D5" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="E5" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="F5" t="n">
-        <v>23704.5851</v>
+        <v>110.98445595</v>
       </c>
       <c r="G5" t="n">
-        <v>19.22833333333337</v>
+        <v>19.23000000000004</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F6" t="n">
-        <v>104176.66666666</v>
+        <v>23704.5851</v>
       </c>
       <c r="G6" t="n">
         <v>19.22833333333337</v>
@@ -620,7 +620,7 @@
         <v>19.2</v>
       </c>
       <c r="F7" t="n">
-        <v>38.4375</v>
+        <v>104176.66666666</v>
       </c>
       <c r="G7" t="n">
         <v>19.22833333333337</v>
@@ -643,19 +643,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D8" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E8" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F8" t="n">
-        <v>2664.49</v>
+        <v>38.4375</v>
       </c>
       <c r="G8" t="n">
         <v>19.22833333333337</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F9" t="n">
-        <v>41.6145</v>
+        <v>2664.49</v>
       </c>
       <c r="G9" t="n">
-        <v>19.2266666666667</v>
+        <v>19.22833333333337</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>19.2</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>41.6145</v>
       </c>
       <c r="G10" t="n">
-        <v>19.22500000000004</v>
+        <v>19.2266666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D11" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E11" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F11" t="n">
-        <v>2897.81</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>19.22333333333337</v>
+        <v>19.22500000000004</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>19.1</v>
       </c>
       <c r="F12" t="n">
-        <v>1798.4862</v>
+        <v>2897.81</v>
       </c>
       <c r="G12" t="n">
-        <v>19.2216666666667</v>
+        <v>19.22333333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>19.1</v>
       </c>
       <c r="F13" t="n">
-        <v>1105986.9225</v>
+        <v>1798.4862</v>
       </c>
       <c r="G13" t="n">
-        <v>19.21833333333337</v>
+        <v>19.2216666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>19.1</v>
       </c>
       <c r="F14" t="n">
-        <v>110.99476439</v>
+        <v>1105986.9225</v>
       </c>
       <c r="G14" t="n">
-        <v>19.2166666666667</v>
+        <v>19.21833333333337</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C15" t="n">
         <v>19.1</v>
@@ -897,13 +897,13 @@
         <v>19.1</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F15" t="n">
-        <v>1733.83582879</v>
+        <v>110.99476439</v>
       </c>
       <c r="G15" t="n">
-        <v>19.21500000000003</v>
+        <v>19.2166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
         <v>19.1</v>
@@ -932,13 +932,13 @@
         <v>19.1</v>
       </c>
       <c r="E16" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>660947.4181</v>
+        <v>1733.83582879</v>
       </c>
       <c r="G16" t="n">
-        <v>19.21166666666669</v>
+        <v>19.21500000000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>19.1</v>
       </c>
       <c r="F17" t="n">
-        <v>1303095.4692</v>
+        <v>660947.4181</v>
       </c>
       <c r="G17" t="n">
-        <v>19.20833333333336</v>
+        <v>19.21166666666669</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>19.1</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D18" t="n">
         <v>19.1</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F18" t="n">
-        <v>209074.5758</v>
+        <v>1303095.4692</v>
       </c>
       <c r="G18" t="n">
-        <v>19.20500000000003</v>
+        <v>19.20833333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>19.1</v>
       </c>
       <c r="C19" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
         <v>19.1</v>
       </c>
       <c r="E19" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>29402.6701</v>
+        <v>209074.5758</v>
       </c>
       <c r="G19" t="n">
-        <v>19.20166666666669</v>
+        <v>19.20500000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>19.1</v>
       </c>
       <c r="F20" t="n">
-        <v>47667.5788</v>
+        <v>29402.6701</v>
       </c>
       <c r="G20" t="n">
-        <v>19.19833333333336</v>
+        <v>19.20166666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>19.1</v>
       </c>
       <c r="F21" t="n">
-        <v>86028.5254</v>
+        <v>47667.5788</v>
       </c>
       <c r="G21" t="n">
-        <v>19.19500000000003</v>
+        <v>19.19833333333336</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>19.1</v>
       </c>
       <c r="F22" t="n">
-        <v>7853.4031</v>
+        <v>86028.5254</v>
       </c>
       <c r="G22" t="n">
-        <v>19.19166666666669</v>
+        <v>19.19500000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>19.1</v>
       </c>
       <c r="F23" t="n">
-        <v>18183.0889</v>
+        <v>7853.4031</v>
       </c>
       <c r="G23" t="n">
-        <v>19.18666666666669</v>
+        <v>19.19166666666669</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F24" t="n">
-        <v>29462.785</v>
+        <v>18183.0889</v>
       </c>
       <c r="G24" t="n">
-        <v>19.18166666666669</v>
+        <v>19.18666666666669</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F25" t="n">
-        <v>233.02083333</v>
+        <v>29462.785</v>
       </c>
       <c r="G25" t="n">
-        <v>19.18000000000002</v>
+        <v>19.18166666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F26" t="n">
-        <v>424.944</v>
+        <v>233.02083333</v>
       </c>
       <c r="G26" t="n">
-        <v>19.17666666666669</v>
+        <v>19.18000000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F27" t="n">
-        <v>171.4062</v>
+        <v>424.944</v>
       </c>
       <c r="G27" t="n">
-        <v>19.17500000000002</v>
+        <v>19.17666666666669</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F28" t="n">
-        <v>2879.5199</v>
+        <v>171.4062</v>
       </c>
       <c r="G28" t="n">
-        <v>19.17333333333335</v>
+        <v>19.17500000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C29" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D29" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E29" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>2879.5199</v>
       </c>
       <c r="G29" t="n">
         <v>19.17333333333335</v>
@@ -1425,7 +1425,7 @@
         <v>19.2</v>
       </c>
       <c r="F30" t="n">
-        <v>1020.5729</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
         <v>19.17333333333335</v>
@@ -1460,7 +1460,7 @@
         <v>19.2</v>
       </c>
       <c r="F31" t="n">
-        <v>60670.9114</v>
+        <v>1020.5729</v>
       </c>
       <c r="G31" t="n">
         <v>19.17333333333335</v>
@@ -1495,7 +1495,7 @@
         <v>19.2</v>
       </c>
       <c r="F32" t="n">
-        <v>108032.6562</v>
+        <v>60670.9114</v>
       </c>
       <c r="G32" t="n">
         <v>19.17333333333335</v>
@@ -1530,7 +1530,7 @@
         <v>19.2</v>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>108032.6562</v>
       </c>
       <c r="G33" t="n">
         <v>19.17333333333335</v>
@@ -1565,7 +1565,7 @@
         <v>19.2</v>
       </c>
       <c r="F34" t="n">
-        <v>530392.7604</v>
+        <v>50</v>
       </c>
       <c r="G34" t="n">
         <v>19.17333333333335</v>
@@ -1600,7 +1600,7 @@
         <v>19.2</v>
       </c>
       <c r="F35" t="n">
-        <v>12</v>
+        <v>530392.7604</v>
       </c>
       <c r="G35" t="n">
         <v>19.17333333333335</v>
@@ -1635,7 +1635,7 @@
         <v>19.2</v>
       </c>
       <c r="F36" t="n">
-        <v>156.4583</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
         <v>19.17333333333335</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C37" t="n">
         <v>19.2</v>
@@ -1667,10 +1667,10 @@
         <v>19.2</v>
       </c>
       <c r="E37" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F37" t="n">
-        <v>6641.0846</v>
+        <v>156.4583</v>
       </c>
       <c r="G37" t="n">
         <v>19.17333333333335</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C38" t="n">
         <v>19.2</v>
@@ -1702,10 +1702,10 @@
         <v>19.2</v>
       </c>
       <c r="E38" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F38" t="n">
-        <v>593266.30200001</v>
+        <v>6641.0846</v>
       </c>
       <c r="G38" t="n">
         <v>19.17333333333335</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C39" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D39" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E39" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>593266.30200001</v>
       </c>
       <c r="G39" t="n">
-        <v>19.17000000000002</v>
+        <v>19.17333333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>19.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1173.5293</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>19.16666666666669</v>
+        <v>19.17000000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C41" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D41" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E41" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F41" t="n">
-        <v>3332.552</v>
+        <v>1173.5293</v>
       </c>
       <c r="G41" t="n">
-        <v>19.16833333333335</v>
+        <v>19.16666666666669</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>19.2</v>
       </c>
       <c r="F42" t="n">
-        <v>100500</v>
+        <v>3332.552</v>
       </c>
       <c r="G42" t="n">
-        <v>19.17000000000002</v>
+        <v>19.16833333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>19.2</v>
       </c>
       <c r="C43" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D43" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E43" t="n">
         <v>19.2</v>
       </c>
       <c r="F43" t="n">
-        <v>357474.7685</v>
+        <v>100500</v>
       </c>
       <c r="G43" t="n">
-        <v>19.17333333333336</v>
+        <v>19.17000000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>19.2</v>
       </c>
       <c r="F44" t="n">
-        <v>186811</v>
+        <v>357474.7685</v>
       </c>
       <c r="G44" t="n">
-        <v>19.17666666666669</v>
+        <v>19.17333333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>19.2</v>
       </c>
       <c r="C45" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D45" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E45" t="n">
         <v>19.2</v>
       </c>
       <c r="F45" t="n">
-        <v>263052</v>
+        <v>186811</v>
       </c>
       <c r="G45" t="n">
         <v>19.17666666666669</v>
@@ -1985,7 +1985,7 @@
         <v>19.2</v>
       </c>
       <c r="F46" t="n">
-        <v>86455</v>
+        <v>263052</v>
       </c>
       <c r="G46" t="n">
         <v>19.17666666666669</v>
@@ -2020,7 +2020,7 @@
         <v>19.2</v>
       </c>
       <c r="F47" t="n">
-        <v>169633</v>
+        <v>86455</v>
       </c>
       <c r="G47" t="n">
         <v>19.17666666666669</v>
@@ -2055,7 +2055,7 @@
         <v>19.2</v>
       </c>
       <c r="F48" t="n">
-        <v>170886.7722</v>
+        <v>169633</v>
       </c>
       <c r="G48" t="n">
         <v>19.17666666666669</v>
@@ -2090,10 +2090,10 @@
         <v>19.2</v>
       </c>
       <c r="F49" t="n">
-        <v>184716.3649</v>
+        <v>170886.7722</v>
       </c>
       <c r="G49" t="n">
-        <v>19.17500000000003</v>
+        <v>19.17666666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>19.2</v>
       </c>
       <c r="F50" t="n">
-        <v>48036.6351</v>
+        <v>184716.3649</v>
       </c>
       <c r="G50" t="n">
         <v>19.17500000000003</v>
@@ -2160,7 +2160,7 @@
         <v>19.2</v>
       </c>
       <c r="F51" t="n">
-        <v>23658.5534</v>
+        <v>48036.6351</v>
       </c>
       <c r="G51" t="n">
         <v>19.17500000000003</v>
@@ -2195,7 +2195,7 @@
         <v>19.2</v>
       </c>
       <c r="F52" t="n">
-        <v>2420.2924</v>
+        <v>23658.5534</v>
       </c>
       <c r="G52" t="n">
         <v>19.17500000000003</v>
@@ -2230,7 +2230,7 @@
         <v>19.2</v>
       </c>
       <c r="F53" t="n">
-        <v>19220</v>
+        <v>2420.2924</v>
       </c>
       <c r="G53" t="n">
         <v>19.17500000000003</v>
@@ -2265,10 +2265,10 @@
         <v>19.2</v>
       </c>
       <c r="F54" t="n">
-        <v>39606</v>
+        <v>19220</v>
       </c>
       <c r="G54" t="n">
-        <v>19.17333333333336</v>
+        <v>19.17500000000003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>19.2</v>
       </c>
       <c r="F55" t="n">
-        <v>3960</v>
+        <v>39606</v>
       </c>
       <c r="G55" t="n">
-        <v>19.1716666666667</v>
+        <v>19.17333333333336</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C56" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D56" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E56" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F56" t="n">
-        <v>1103</v>
+        <v>3960</v>
       </c>
       <c r="G56" t="n">
-        <v>19.17333333333336</v>
+        <v>19.1716666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,19 +2358,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C57" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D57" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E57" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F57" t="n">
-        <v>23878.3305</v>
+        <v>1103</v>
       </c>
       <c r="G57" t="n">
         <v>19.17333333333336</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C58" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D58" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E58" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F58" t="n">
-        <v>115.9585</v>
+        <v>23878.3305</v>
       </c>
       <c r="G58" t="n">
-        <v>19.17500000000003</v>
+        <v>19.17333333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,19 +2428,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C59" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D59" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E59" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F59" t="n">
-        <v>814034.3568</v>
+        <v>115.9585</v>
       </c>
       <c r="G59" t="n">
         <v>19.17500000000003</v>
@@ -2475,10 +2475,10 @@
         <v>19.2</v>
       </c>
       <c r="F60" t="n">
-        <v>581208.0077</v>
+        <v>814034.3568</v>
       </c>
       <c r="G60" t="n">
-        <v>19.17333333333336</v>
+        <v>19.17500000000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>19.2</v>
       </c>
       <c r="F61" t="n">
-        <v>128159.4948</v>
+        <v>581208.0077</v>
       </c>
       <c r="G61" t="n">
-        <v>19.1716666666667</v>
+        <v>19.17333333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>19.2</v>
       </c>
       <c r="F62" t="n">
-        <v>81431.1945</v>
+        <v>128159.4948</v>
       </c>
       <c r="G62" t="n">
         <v>19.1716666666667</v>
@@ -2580,7 +2580,7 @@
         <v>19.2</v>
       </c>
       <c r="F63" t="n">
-        <v>46721.61</v>
+        <v>81431.1945</v>
       </c>
       <c r="G63" t="n">
         <v>19.1716666666667</v>
@@ -2615,10 +2615,10 @@
         <v>19.2</v>
       </c>
       <c r="F64" t="n">
-        <v>58946.8167</v>
+        <v>46721.61</v>
       </c>
       <c r="G64" t="n">
-        <v>19.17000000000003</v>
+        <v>19.1716666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>19.2</v>
       </c>
       <c r="F65" t="n">
-        <v>2549.6876</v>
+        <v>58946.8167</v>
       </c>
       <c r="G65" t="n">
-        <v>19.1716666666667</v>
+        <v>19.17000000000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C66" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D66" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E66" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F66" t="n">
-        <v>145736.8199</v>
+        <v>2549.6876</v>
       </c>
       <c r="G66" t="n">
-        <v>19.17000000000003</v>
+        <v>19.1716666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>19.1</v>
       </c>
       <c r="F67" t="n">
-        <v>59530.8291</v>
+        <v>145736.8199</v>
       </c>
       <c r="G67" t="n">
-        <v>19.16833333333336</v>
+        <v>19.17000000000003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>19.1</v>
       </c>
       <c r="F68" t="n">
-        <v>11192.6203</v>
+        <v>59530.8291</v>
       </c>
       <c r="G68" t="n">
         <v>19.16833333333336</v>
@@ -2790,10 +2790,10 @@
         <v>19.1</v>
       </c>
       <c r="F69" t="n">
-        <v>2263.9267</v>
+        <v>11192.6203</v>
       </c>
       <c r="G69" t="n">
-        <v>19.16666666666669</v>
+        <v>19.16833333333336</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,19 +2813,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C70" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D70" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E70" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F70" t="n">
-        <v>173.75</v>
+        <v>2263.9267</v>
       </c>
       <c r="G70" t="n">
         <v>19.16666666666669</v>
@@ -2860,10 +2860,10 @@
         <v>19.2</v>
       </c>
       <c r="F71" t="n">
-        <v>520.83333333</v>
+        <v>173.75</v>
       </c>
       <c r="G71" t="n">
-        <v>19.16833333333336</v>
+        <v>19.16666666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="D72" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="E72" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F72" t="n">
-        <v>5894.53</v>
+        <v>520.83333333</v>
       </c>
       <c r="G72" t="n">
-        <v>19.1666666666667</v>
+        <v>19.16833333333336</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="C73" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="F73" t="n">
-        <v>244000</v>
+        <v>5894.53</v>
       </c>
       <c r="G73" t="n">
-        <v>19.16833333333336</v>
+        <v>19.1666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>19.2</v>
       </c>
       <c r="F74" t="n">
-        <v>132178</v>
+        <v>244000</v>
       </c>
       <c r="G74" t="n">
-        <v>19.17000000000003</v>
+        <v>19.16833333333336</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C75" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D75" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E75" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F75" t="n">
-        <v>1000000</v>
+        <v>132178</v>
       </c>
       <c r="G75" t="n">
-        <v>19.17333333333337</v>
+        <v>19.17000000000003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C76" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D76" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E76" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F76" t="n">
-        <v>104520.6228</v>
+        <v>1000000</v>
       </c>
       <c r="G76" t="n">
-        <v>19.17500000000004</v>
+        <v>19.17333333333337</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>19.2</v>
       </c>
       <c r="F77" t="n">
-        <v>3572.9166</v>
+        <v>104520.6228</v>
       </c>
       <c r="G77" t="n">
-        <v>19.17666666666671</v>
+        <v>19.17500000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>19.2</v>
       </c>
       <c r="F78" t="n">
-        <v>171.7708</v>
+        <v>3572.9166</v>
       </c>
       <c r="G78" t="n">
-        <v>19.18000000000004</v>
+        <v>19.17666666666671</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,19 +3128,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C79" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D79" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E79" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F79" t="n">
-        <v>3563.9843</v>
+        <v>171.7708</v>
       </c>
       <c r="G79" t="n">
         <v>19.18000000000004</v>
@@ -3175,7 +3175,7 @@
         <v>19.1</v>
       </c>
       <c r="F80" t="n">
-        <v>57260.1231</v>
+        <v>3563.9843</v>
       </c>
       <c r="G80" t="n">
         <v>19.18000000000004</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C81" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D81" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E81" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F81" t="n">
-        <v>2263.9062</v>
+        <v>57260.1231</v>
       </c>
       <c r="G81" t="n">
-        <v>19.18166666666671</v>
+        <v>19.18000000000004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>19.2</v>
       </c>
       <c r="F82" t="n">
-        <v>31717.7653</v>
+        <v>2263.9062</v>
       </c>
       <c r="G82" t="n">
-        <v>19.18333333333338</v>
+        <v>19.18166666666671</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>19.2</v>
       </c>
       <c r="F83" t="n">
-        <v>23810.9925</v>
+        <v>31717.7653</v>
       </c>
       <c r="G83" t="n">
-        <v>19.18500000000005</v>
+        <v>19.18333333333338</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>19.2</v>
       </c>
       <c r="F84" t="n">
-        <v>29555.67708333</v>
+        <v>23810.9925</v>
       </c>
       <c r="G84" t="n">
-        <v>19.18833333333338</v>
+        <v>19.18500000000005</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>19.2</v>
       </c>
       <c r="C85" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D85" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E85" t="n">
         <v>19.2</v>
       </c>
       <c r="F85" t="n">
-        <v>744154.21111667</v>
+        <v>29555.67708333</v>
       </c>
       <c r="G85" t="n">
-        <v>19.19000000000005</v>
+        <v>19.18833333333338</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>19.2</v>
       </c>
       <c r="C86" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D86" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E86" t="n">
         <v>19.2</v>
       </c>
       <c r="F86" t="n">
-        <v>83179.5</v>
+        <v>744154.21111667</v>
       </c>
       <c r="G86" t="n">
-        <v>19.19166666666672</v>
+        <v>19.19000000000005</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>19.2</v>
       </c>
       <c r="F87" t="n">
-        <v>155.677</v>
+        <v>83179.5</v>
       </c>
       <c r="G87" t="n">
         <v>19.19166666666672</v>
@@ -3455,10 +3455,10 @@
         <v>19.2</v>
       </c>
       <c r="F88" t="n">
-        <v>218788.7098</v>
+        <v>155.677</v>
       </c>
       <c r="G88" t="n">
-        <v>19.19333333333338</v>
+        <v>19.19166666666672</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>19.2</v>
       </c>
       <c r="F89" t="n">
-        <v>99.75</v>
+        <v>218788.7098</v>
       </c>
       <c r="G89" t="n">
         <v>19.19333333333338</v>
@@ -3525,7 +3525,7 @@
         <v>19.2</v>
       </c>
       <c r="F90" t="n">
-        <v>58673.3222</v>
+        <v>99.75</v>
       </c>
       <c r="G90" t="n">
         <v>19.19333333333338</v>
@@ -3560,7 +3560,7 @@
         <v>19.2</v>
       </c>
       <c r="F91" t="n">
-        <v>38654.7771</v>
+        <v>58673.3222</v>
       </c>
       <c r="G91" t="n">
         <v>19.19333333333338</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C92" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D92" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E92" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F92" t="n">
-        <v>36269.43005181</v>
+        <v>38654.7771</v>
       </c>
       <c r="G92" t="n">
-        <v>19.19500000000005</v>
+        <v>19.19333333333338</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,19 +3618,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="C93" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="D93" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E93" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="F93" t="n">
-        <v>183563.1113</v>
+        <v>36269.43005181</v>
       </c>
       <c r="G93" t="n">
         <v>19.19500000000005</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C94" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D94" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="E94" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F94" t="n">
-        <v>303437.3598</v>
+        <v>183563.1113</v>
       </c>
       <c r="G94" t="n">
-        <v>19.19333333333338</v>
+        <v>19.19500000000005</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>19.1</v>
       </c>
       <c r="F95" t="n">
-        <v>15211.4356</v>
+        <v>303437.3598</v>
       </c>
       <c r="G95" t="n">
-        <v>19.19166666666671</v>
+        <v>19.19333333333338</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>19.1</v>
       </c>
       <c r="F96" t="n">
-        <v>115.0261</v>
+        <v>15211.4356</v>
       </c>
       <c r="G96" t="n">
-        <v>19.19000000000004</v>
+        <v>19.19166666666671</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>19.1</v>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D97" t="n">
         <v>19.1</v>
       </c>
       <c r="E97" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F97" t="n">
-        <v>248037.3115</v>
+        <v>115.0261</v>
       </c>
       <c r="G97" t="n">
-        <v>19.18666666666671</v>
+        <v>19.19000000000004</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>19.1</v>
       </c>
       <c r="C98" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D98" t="n">
         <v>19.1</v>
       </c>
       <c r="E98" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F98" t="n">
-        <v>157792.1817</v>
+        <v>248037.3115</v>
       </c>
       <c r="G98" t="n">
-        <v>19.18500000000004</v>
+        <v>19.18666666666671</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C99" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D99" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E99" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F99" t="n">
-        <v>84934</v>
+        <v>157792.1817</v>
       </c>
       <c r="G99" t="n">
-        <v>19.18333333333338</v>
+        <v>19.18500000000004</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>1143475.752</v>
+        <v>84934</v>
       </c>
       <c r="G100" t="n">
-        <v>19.18166666666671</v>
+        <v>19.18333333333338</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>19</v>
       </c>
       <c r="D101" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E101" t="n">
         <v>19</v>
       </c>
       <c r="F101" t="n">
-        <v>390556.6752</v>
+        <v>1143475.752</v>
       </c>
       <c r="G101" t="n">
-        <v>19.17833333333338</v>
+        <v>19.18166666666671</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3939,16 +3939,16 @@
         <v>19</v>
       </c>
       <c r="D102" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E102" t="n">
         <v>19</v>
       </c>
       <c r="F102" t="n">
-        <v>4989.7926</v>
+        <v>390556.6752</v>
       </c>
       <c r="G102" t="n">
-        <v>19.17500000000004</v>
+        <v>19.17833333333338</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C103" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E103" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F103" t="n">
-        <v>135015.9613</v>
+        <v>4989.7926</v>
       </c>
       <c r="G103" t="n">
-        <v>19.17166666666671</v>
+        <v>19.17500000000004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>19.1</v>
       </c>
       <c r="F104" t="n">
-        <v>4927.1727</v>
+        <v>135015.9613</v>
       </c>
       <c r="G104" t="n">
-        <v>19.16833333333337</v>
+        <v>19.17166666666671</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>19.1</v>
       </c>
       <c r="F105" t="n">
-        <v>3271.8711</v>
+        <v>4927.1727</v>
       </c>
       <c r="G105" t="n">
-        <v>19.1666666666667</v>
+        <v>19.16833333333337</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>19.1</v>
       </c>
       <c r="F106" t="n">
-        <v>3994.3624</v>
+        <v>3271.8711</v>
       </c>
       <c r="G106" t="n">
-        <v>19.16500000000003</v>
+        <v>19.1666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C107" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D107" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E107" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F107" t="n">
-        <v>913242</v>
+        <v>3994.3624</v>
       </c>
       <c r="G107" t="n">
-        <v>19.1616666666667</v>
+        <v>19.16500000000003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C108" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D108" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E108" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F108" t="n">
-        <v>212108</v>
+        <v>913242</v>
       </c>
       <c r="G108" t="n">
-        <v>19.16000000000003</v>
+        <v>19.1616666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C109" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D109" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F109" t="n">
-        <v>158400</v>
+        <v>212108</v>
       </c>
       <c r="G109" t="n">
-        <v>19.1566666666667</v>
+        <v>19.16000000000003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>19</v>
       </c>
       <c r="F110" t="n">
-        <v>88300</v>
+        <v>158400</v>
       </c>
       <c r="G110" t="n">
-        <v>19.15333333333336</v>
+        <v>19.1566666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>19</v>
       </c>
       <c r="F111" t="n">
-        <v>86636.45909999999</v>
+        <v>88300</v>
       </c>
       <c r="G111" t="n">
-        <v>19.15000000000003</v>
+        <v>19.15333333333336</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>19</v>
       </c>
       <c r="F112" t="n">
-        <v>77647.78939999999</v>
+        <v>86636.45909999999</v>
       </c>
       <c r="G112" t="n">
-        <v>19.1466666666667</v>
+        <v>19.15000000000003</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C113" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="D113" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F113" t="n">
-        <v>2062.487</v>
+        <v>77647.78939999999</v>
       </c>
       <c r="G113" t="n">
-        <v>19.1416666666667</v>
+        <v>19.1466666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C114" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D114" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E114" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F114" t="n">
-        <v>7720.5263</v>
+        <v>2062.487</v>
       </c>
       <c r="G114" t="n">
-        <v>19.13833333333336</v>
+        <v>19.1416666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,19 +4400,23 @@
         <v>19</v>
       </c>
       <c r="F115" t="n">
-        <v>2930</v>
+        <v>7720.5263</v>
       </c>
       <c r="G115" t="n">
-        <v>19.13500000000003</v>
+        <v>19.13833333333336</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>18.9</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4435,10 +4439,10 @@
         <v>19</v>
       </c>
       <c r="F116" t="n">
-        <v>54948</v>
+        <v>2930</v>
       </c>
       <c r="G116" t="n">
-        <v>19.13000000000003</v>
+        <v>19.13500000000003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4451,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4470,10 +4480,10 @@
         <v>19</v>
       </c>
       <c r="F117" t="n">
-        <v>30449.5</v>
+        <v>54948</v>
       </c>
       <c r="G117" t="n">
-        <v>19.1266666666667</v>
+        <v>19.13000000000003</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4492,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4505,19 +4521,23 @@
         <v>19</v>
       </c>
       <c r="F118" t="n">
-        <v>7396.2962</v>
+        <v>30449.5</v>
       </c>
       <c r="G118" t="n">
-        <v>19.12166666666669</v>
+        <v>19.1266666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>19</v>
+      </c>
+      <c r="K118" t="n">
+        <v>19</v>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4540,20 +4560,28 @@
         <v>19</v>
       </c>
       <c r="F119" t="n">
-        <v>843608.795</v>
+        <v>7396.2962</v>
       </c>
       <c r="G119" t="n">
-        <v>19.11833333333336</v>
+        <v>19.12166666666669</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>19</v>
+      </c>
+      <c r="K119" t="n">
+        <v>19</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4575,10 +4603,10 @@
         <v>19</v>
       </c>
       <c r="F120" t="n">
-        <v>37832.8908</v>
+        <v>843608.795</v>
       </c>
       <c r="G120" t="n">
-        <v>19.11500000000003</v>
+        <v>19.11833333333336</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>19</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4610,19 +4644,23 @@
         <v>19</v>
       </c>
       <c r="F121" t="n">
-        <v>29768.3608</v>
+        <v>37832.8908</v>
       </c>
       <c r="G121" t="n">
-        <v>19.11166666666669</v>
+        <v>19.11500000000003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>19</v>
+      </c>
+      <c r="K121" t="n">
+        <v>19</v>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
@@ -4645,10 +4683,10 @@
         <v>19</v>
       </c>
       <c r="F122" t="n">
-        <v>37233.8794</v>
+        <v>29768.3608</v>
       </c>
       <c r="G122" t="n">
-        <v>19.10833333333336</v>
+        <v>19.11166666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +4695,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>19</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4680,10 +4724,10 @@
         <v>19</v>
       </c>
       <c r="F123" t="n">
-        <v>47853.9175</v>
+        <v>37233.8794</v>
       </c>
       <c r="G123" t="n">
-        <v>19.10500000000003</v>
+        <v>19.10833333333336</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -4697,7 +4741,11 @@
       <c r="K123" t="n">
         <v>19</v>
       </c>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4719,28 +4767,20 @@
         <v>19</v>
       </c>
       <c r="F124" t="n">
-        <v>123477.7001</v>
+        <v>47853.9175</v>
       </c>
       <c r="G124" t="n">
-        <v>19.10166666666669</v>
+        <v>19.10500000000003</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>19</v>
-      </c>
-      <c r="K124" t="n">
-        <v>19</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4762,28 +4802,20 @@
         <v>19</v>
       </c>
       <c r="F125" t="n">
-        <v>68592.2308</v>
+        <v>123477.7001</v>
       </c>
       <c r="G125" t="n">
-        <v>19.09833333333336</v>
+        <v>19.10166666666669</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>19</v>
-      </c>
-      <c r="K125" t="n">
-        <v>19</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4805,23 +4837,19 @@
         <v>19</v>
       </c>
       <c r="F126" t="n">
-        <v>28131.421</v>
+        <v>68592.2308</v>
       </c>
       <c r="G126" t="n">
-        <v>19.09666666666669</v>
+        <v>19.09833333333336</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>19</v>
-      </c>
-      <c r="K126" t="n">
-        <v>19</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
@@ -4844,10 +4872,10 @@
         <v>19</v>
       </c>
       <c r="F127" t="n">
-        <v>100420</v>
+        <v>28131.421</v>
       </c>
       <c r="G127" t="n">
-        <v>19.09500000000003</v>
+        <v>19.09666666666669</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4856,14 +4884,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>19</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4885,10 +4907,10 @@
         <v>19</v>
       </c>
       <c r="F128" t="n">
-        <v>210370.9999</v>
+        <v>100420</v>
       </c>
       <c r="G128" t="n">
-        <v>19.09333333333336</v>
+        <v>19.09500000000003</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4897,14 +4919,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>19</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4926,10 +4942,10 @@
         <v>19</v>
       </c>
       <c r="F129" t="n">
-        <v>54676.4921</v>
+        <v>210370.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>19.0916666666667</v>
+        <v>19.09333333333336</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4961,10 +4977,10 @@
         <v>19</v>
       </c>
       <c r="F130" t="n">
-        <v>147519.1361</v>
+        <v>54676.4921</v>
       </c>
       <c r="G130" t="n">
-        <v>19.08833333333336</v>
+        <v>19.0916666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4996,10 +5012,10 @@
         <v>19</v>
       </c>
       <c r="F131" t="n">
-        <v>111258.1526</v>
+        <v>147519.1361</v>
       </c>
       <c r="G131" t="n">
-        <v>19.08500000000003</v>
+        <v>19.08833333333336</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5019,22 +5035,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C132" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D132" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E132" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F132" t="n">
-        <v>75</v>
+        <v>111258.1526</v>
       </c>
       <c r="G132" t="n">
-        <v>19.08666666666669</v>
+        <v>19.08500000000003</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5054,22 +5070,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C133" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D133" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E133" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F133" t="n">
-        <v>121695.7764</v>
+        <v>75</v>
       </c>
       <c r="G133" t="n">
-        <v>19.08333333333336</v>
+        <v>19.08666666666669</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5101,10 +5117,10 @@
         <v>19</v>
       </c>
       <c r="F134" t="n">
-        <v>38064.0701</v>
+        <v>121695.7764</v>
       </c>
       <c r="G134" t="n">
-        <v>19.08000000000003</v>
+        <v>19.08333333333336</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5136,10 +5152,10 @@
         <v>19</v>
       </c>
       <c r="F135" t="n">
-        <v>5380.3615</v>
+        <v>38064.0701</v>
       </c>
       <c r="G135" t="n">
-        <v>19.07500000000003</v>
+        <v>19.08000000000003</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5171,19 +5187,23 @@
         <v>19</v>
       </c>
       <c r="F136" t="n">
-        <v>49352.8381</v>
+        <v>5380.3615</v>
       </c>
       <c r="G136" t="n">
-        <v>19.07166666666669</v>
+        <v>19.07500000000003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>19</v>
+      </c>
+      <c r="K136" t="n">
+        <v>19</v>
+      </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
@@ -5194,22 +5214,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C137" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D137" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E137" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F137" t="n">
-        <v>192323.61256544</v>
+        <v>49352.8381</v>
       </c>
       <c r="G137" t="n">
-        <v>19.07000000000003</v>
+        <v>19.07166666666669</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5218,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>19</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5229,32 +5255,40 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="C138" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="D138" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="E138" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="F138" t="n">
-        <v>30000</v>
+        <v>192323.61256544</v>
       </c>
       <c r="G138" t="n">
-        <v>19.06500000000002</v>
+        <v>19.07000000000003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>19</v>
+      </c>
+      <c r="K138" t="n">
+        <v>19</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5264,22 +5298,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C139" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E139" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F139" t="n">
-        <v>41810.2631</v>
+        <v>30000</v>
       </c>
       <c r="G139" t="n">
-        <v>19.06333333333336</v>
+        <v>19.06500000000002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5311,19 +5345,23 @@
         <v>19</v>
       </c>
       <c r="F140" t="n">
-        <v>62400</v>
+        <v>41810.2631</v>
       </c>
       <c r="G140" t="n">
-        <v>19.06166666666669</v>
+        <v>19.06333333333336</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K140" t="n">
+        <v>18.9</v>
+      </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
@@ -5337,29 +5375,37 @@
         <v>19</v>
       </c>
       <c r="C141" t="n">
+        <v>19</v>
+      </c>
+      <c r="D141" t="n">
+        <v>19</v>
+      </c>
+      <c r="E141" t="n">
+        <v>19</v>
+      </c>
+      <c r="F141" t="n">
+        <v>62400</v>
+      </c>
+      <c r="G141" t="n">
+        <v>19.06166666666669</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>19</v>
+      </c>
+      <c r="K141" t="n">
         <v>18.9</v>
       </c>
-      <c r="D141" t="n">
-        <v>19</v>
-      </c>
-      <c r="E141" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>167822.1905</v>
-      </c>
-      <c r="G141" t="n">
-        <v>19.05666666666669</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5372,19 +5418,19 @@
         <v>19</v>
       </c>
       <c r="C142" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D142" t="n">
         <v>19</v>
       </c>
       <c r="E142" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F142" t="n">
-        <v>36850</v>
+        <v>167822.1905</v>
       </c>
       <c r="G142" t="n">
-        <v>19.05333333333336</v>
+        <v>19.05666666666669</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5393,8 +5439,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5404,32 +5456,40 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C143" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D143" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E143" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F143" t="n">
-        <v>84900</v>
+        <v>36850</v>
       </c>
       <c r="G143" t="n">
-        <v>19.05166666666669</v>
+        <v>19.05333333333336</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K143" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5439,22 +5499,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C144" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D144" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E144" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F144" t="n">
-        <v>4914.8548</v>
+        <v>84900</v>
       </c>
       <c r="G144" t="n">
-        <v>19.04833333333336</v>
+        <v>19.05166666666669</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5463,8 +5523,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5486,10 +5552,10 @@
         <v>19</v>
       </c>
       <c r="F145" t="n">
-        <v>13333</v>
+        <v>4914.8548</v>
       </c>
       <c r="G145" t="n">
-        <v>19.04333333333336</v>
+        <v>19.04833333333336</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5498,8 +5564,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5509,22 +5581,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C146" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D146" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E146" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F146" t="n">
-        <v>67292.10718272001</v>
+        <v>13333</v>
       </c>
       <c r="G146" t="n">
-        <v>19.04166666666669</v>
+        <v>19.04333333333336</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5533,8 +5605,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5556,10 +5634,10 @@
         <v>19.1</v>
       </c>
       <c r="F147" t="n">
-        <v>3480</v>
+        <v>67292.10718272001</v>
       </c>
       <c r="G147" t="n">
-        <v>19.04000000000002</v>
+        <v>19.04166666666669</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5568,8 +5646,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5591,10 +5675,10 @@
         <v>19.1</v>
       </c>
       <c r="F148" t="n">
-        <v>81466</v>
+        <v>3480</v>
       </c>
       <c r="G148" t="n">
-        <v>19.03833333333335</v>
+        <v>19.04000000000002</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5603,8 +5687,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5626,10 +5716,10 @@
         <v>19.1</v>
       </c>
       <c r="F149" t="n">
-        <v>174705.1097</v>
+        <v>81466</v>
       </c>
       <c r="G149" t="n">
-        <v>19.03666666666668</v>
+        <v>19.03833333333335</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5638,8 +5728,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5661,10 +5757,10 @@
         <v>19.1</v>
       </c>
       <c r="F150" t="n">
-        <v>19.5811</v>
+        <v>174705.1097</v>
       </c>
       <c r="G150" t="n">
-        <v>19.03500000000001</v>
+        <v>19.03666666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5673,8 +5769,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5696,10 +5798,10 @@
         <v>19.1</v>
       </c>
       <c r="F151" t="n">
-        <v>14.3455</v>
+        <v>19.5811</v>
       </c>
       <c r="G151" t="n">
-        <v>19.03333333333335</v>
+        <v>19.03500000000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5708,8 +5810,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5719,22 +5827,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C152" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D152" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E152" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F152" t="n">
-        <v>45480.1742</v>
+        <v>14.3455</v>
       </c>
       <c r="G152" t="n">
-        <v>19.02833333333335</v>
+        <v>19.03333333333335</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5743,8 +5851,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5766,10 +5880,10 @@
         <v>19</v>
       </c>
       <c r="F153" t="n">
-        <v>2000</v>
+        <v>45480.1742</v>
       </c>
       <c r="G153" t="n">
-        <v>19.02500000000001</v>
+        <v>19.02833333333335</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5778,8 +5892,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5789,19 +5909,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C154" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D154" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E154" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F154" t="n">
-        <v>137332.9488</v>
+        <v>2000</v>
       </c>
       <c r="G154" t="n">
         <v>19.02500000000001</v>
@@ -5813,8 +5933,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5836,7 +5962,7 @@
         <v>19.1</v>
       </c>
       <c r="F155" t="n">
-        <v>6557.8176</v>
+        <v>137332.9488</v>
       </c>
       <c r="G155" t="n">
         <v>19.02500000000001</v>
@@ -5848,8 +5974,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5871,7 +6003,7 @@
         <v>19.1</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>6557.8176</v>
       </c>
       <c r="G156" t="n">
         <v>19.02500000000001</v>
@@ -5883,8 +6015,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5906,10 +6044,10 @@
         <v>19.1</v>
       </c>
       <c r="F157" t="n">
-        <v>179546.03</v>
+        <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>19.02666666666668</v>
+        <v>19.02500000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5918,8 +6056,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5941,7 +6085,7 @@
         <v>19.1</v>
       </c>
       <c r="F158" t="n">
-        <v>28833.8398</v>
+        <v>179546.03</v>
       </c>
       <c r="G158" t="n">
         <v>19.02666666666668</v>
@@ -5953,8 +6097,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5964,19 +6114,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C159" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D159" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E159" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F159" t="n">
-        <v>137724.8735</v>
+        <v>28833.8398</v>
       </c>
       <c r="G159" t="n">
         <v>19.02666666666668</v>
@@ -5988,8 +6138,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6011,7 +6167,7 @@
         <v>19</v>
       </c>
       <c r="F160" t="n">
-        <v>57646.1128</v>
+        <v>137724.8735</v>
       </c>
       <c r="G160" t="n">
         <v>19.02666666666668</v>
@@ -6023,8 +6179,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6046,7 +6208,7 @@
         <v>19</v>
       </c>
       <c r="F161" t="n">
-        <v>71851.7</v>
+        <v>57646.1128</v>
       </c>
       <c r="G161" t="n">
         <v>19.02666666666668</v>
@@ -6058,8 +6220,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6069,19 +6237,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C162" t="n">
         <v>19</v>
       </c>
       <c r="D162" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E162" t="n">
         <v>19</v>
       </c>
       <c r="F162" t="n">
-        <v>10157.06806282</v>
+        <v>71851.7</v>
       </c>
       <c r="G162" t="n">
         <v>19.02666666666668</v>
@@ -6093,8 +6261,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6104,22 +6278,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C163" t="n">
         <v>19</v>
       </c>
       <c r="D163" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E163" t="n">
         <v>19</v>
       </c>
       <c r="F163" t="n">
-        <v>179018.6752</v>
+        <v>10157.06806282</v>
       </c>
       <c r="G163" t="n">
-        <v>19.02500000000001</v>
+        <v>19.02666666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6128,8 +6302,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6139,32 +6319,38 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>19</v>
+      </c>
+      <c r="C164" t="n">
+        <v>19</v>
+      </c>
+      <c r="D164" t="n">
+        <v>19</v>
+      </c>
+      <c r="E164" t="n">
+        <v>19</v>
+      </c>
+      <c r="F164" t="n">
+        <v>179018.6752</v>
+      </c>
+      <c r="G164" t="n">
+        <v>19.02500000000001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
         <v>18.9</v>
       </c>
-      <c r="C164" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D164" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E164" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F164" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>19.02166666666668</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6174,22 +6360,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C165" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D165" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E165" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F165" t="n">
-        <v>109183.2631</v>
+        <v>5000</v>
       </c>
       <c r="G165" t="n">
-        <v>19.02000000000002</v>
+        <v>19.02166666666668</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6198,8 +6384,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6221,10 +6413,10 @@
         <v>19</v>
       </c>
       <c r="F166" t="n">
-        <v>11217.3538</v>
+        <v>109183.2631</v>
       </c>
       <c r="G166" t="n">
-        <v>19.01833333333335</v>
+        <v>19.02000000000002</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6233,8 +6425,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6256,7 +6454,7 @@
         <v>19</v>
       </c>
       <c r="F167" t="n">
-        <v>77795.6842</v>
+        <v>11217.3538</v>
       </c>
       <c r="G167" t="n">
         <v>19.01833333333335</v>
@@ -6268,8 +6466,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6282,16 +6486,16 @@
         <v>19</v>
       </c>
       <c r="C168" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D168" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E168" t="n">
         <v>19</v>
       </c>
       <c r="F168" t="n">
-        <v>432650.7627</v>
+        <v>77795.6842</v>
       </c>
       <c r="G168" t="n">
         <v>19.01833333333335</v>
@@ -6303,8 +6507,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6314,7 +6524,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C169" t="n">
         <v>19.1</v>
@@ -6323,13 +6533,13 @@
         <v>19.1</v>
       </c>
       <c r="E169" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F169" t="n">
-        <v>1545.2879</v>
+        <v>432650.7627</v>
       </c>
       <c r="G169" t="n">
-        <v>19.02000000000002</v>
+        <v>19.01833333333335</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6338,8 +6548,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6361,10 +6577,10 @@
         <v>19.1</v>
       </c>
       <c r="F170" t="n">
-        <v>10232.6178</v>
+        <v>1545.2879</v>
       </c>
       <c r="G170" t="n">
-        <v>19.02166666666668</v>
+        <v>19.02000000000002</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6373,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6396,10 +6618,10 @@
         <v>19.1</v>
       </c>
       <c r="F171" t="n">
-        <v>54141.5102</v>
+        <v>10232.6178</v>
       </c>
       <c r="G171" t="n">
-        <v>19.02333333333335</v>
+        <v>19.02166666666668</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6408,8 +6630,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6419,19 +6647,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C172" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D172" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E172" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F172" t="n">
-        <v>105565.5832</v>
+        <v>54141.5102</v>
       </c>
       <c r="G172" t="n">
         <v>19.02333333333335</v>
@@ -6443,8 +6671,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6454,22 +6688,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C173" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D173" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E173" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F173" t="n">
-        <v>515.4639</v>
+        <v>105565.5832</v>
       </c>
       <c r="G173" t="n">
-        <v>19.02666666666668</v>
+        <v>19.02333333333335</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6478,8 +6712,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6489,19 +6729,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C174" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D174" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E174" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F174" t="n">
-        <v>240631.8353</v>
+        <v>515.4639</v>
       </c>
       <c r="G174" t="n">
         <v>19.02666666666668</v>
@@ -6513,8 +6753,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6536,7 +6782,7 @@
         <v>19</v>
       </c>
       <c r="F175" t="n">
-        <v>56.8849</v>
+        <v>240631.8353</v>
       </c>
       <c r="G175" t="n">
         <v>19.02666666666668</v>
@@ -6548,8 +6794,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6571,7 +6823,7 @@
         <v>19</v>
       </c>
       <c r="F176" t="n">
-        <v>2676.5119</v>
+        <v>56.8849</v>
       </c>
       <c r="G176" t="n">
         <v>19.02666666666668</v>
@@ -6583,8 +6835,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6606,7 +6864,7 @@
         <v>19</v>
       </c>
       <c r="F177" t="n">
-        <v>520</v>
+        <v>2676.5119</v>
       </c>
       <c r="G177" t="n">
         <v>19.02666666666668</v>
@@ -6618,8 +6876,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6641,7 +6905,7 @@
         <v>19</v>
       </c>
       <c r="F178" t="n">
-        <v>71.9473</v>
+        <v>520</v>
       </c>
       <c r="G178" t="n">
         <v>19.02666666666668</v>
@@ -6653,8 +6917,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6673,10 +6943,10 @@
         <v>19</v>
       </c>
       <c r="E179" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F179" t="n">
-        <v>272434.94733684</v>
+        <v>71.9473</v>
       </c>
       <c r="G179" t="n">
         <v>19.02666666666668</v>
@@ -6688,8 +6958,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6708,10 +6984,10 @@
         <v>19</v>
       </c>
       <c r="E180" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F180" t="n">
-        <v>16452.7485</v>
+        <v>272434.94733684</v>
       </c>
       <c r="G180" t="n">
         <v>19.02666666666668</v>
@@ -6723,8 +6999,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6734,7 +7016,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="C181" t="n">
         <v>19</v>
@@ -6743,10 +7025,10 @@
         <v>19</v>
       </c>
       <c r="E181" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="F181" t="n">
-        <v>115222.69</v>
+        <v>16452.7485</v>
       </c>
       <c r="G181" t="n">
         <v>19.02666666666668</v>
@@ -6758,8 +7040,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6769,7 +7057,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C182" t="n">
         <v>19</v>
@@ -6778,10 +7066,10 @@
         <v>19</v>
       </c>
       <c r="E182" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F182" t="n">
-        <v>100</v>
+        <v>115222.69</v>
       </c>
       <c r="G182" t="n">
         <v>19.02666666666668</v>
@@ -6793,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6816,7 +7110,7 @@
         <v>19</v>
       </c>
       <c r="F183" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G183" t="n">
         <v>19.02666666666668</v>
@@ -6828,8 +7122,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6851,7 +7151,7 @@
         <v>19</v>
       </c>
       <c r="F184" t="n">
-        <v>109103.508</v>
+        <v>300</v>
       </c>
       <c r="G184" t="n">
         <v>19.02666666666668</v>
@@ -6863,8 +7163,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6874,22 +7180,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C185" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D185" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E185" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F185" t="n">
-        <v>1295.1895</v>
+        <v>109103.508</v>
       </c>
       <c r="G185" t="n">
-        <v>19.02833333333334</v>
+        <v>19.02666666666668</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6898,8 +7204,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6909,19 +7221,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="C186" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="D186" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="E186" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="F186" t="n">
-        <v>470476.1578</v>
+        <v>1295.1895</v>
       </c>
       <c r="G186" t="n">
         <v>19.02833333333334</v>
@@ -6933,8 +7245,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7274,7 @@
         <v>19</v>
       </c>
       <c r="F187" t="n">
-        <v>82448.7684</v>
+        <v>470476.1578</v>
       </c>
       <c r="G187" t="n">
         <v>19.02833333333334</v>
@@ -6968,8 +7286,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6979,22 +7303,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C188" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D188" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E188" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F188" t="n">
-        <v>15405.4973</v>
+        <v>82448.7684</v>
       </c>
       <c r="G188" t="n">
-        <v>19.03000000000001</v>
+        <v>19.02833333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7003,8 +7327,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7014,32 +7344,38 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>15405.4973</v>
+      </c>
+      <c r="G189" t="n">
+        <v>19.03000000000001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
         <v>18.9</v>
       </c>
-      <c r="C189" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D189" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E189" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3679.4022</v>
-      </c>
-      <c r="G189" t="n">
-        <v>19.02833333333334</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7049,22 +7385,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C190" t="n">
         <v>18.9</v>
       </c>
       <c r="D190" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E190" t="n">
         <v>18.9</v>
       </c>
       <c r="F190" t="n">
-        <v>177413</v>
+        <v>3679.4022</v>
       </c>
       <c r="G190" t="n">
-        <v>19.02666666666668</v>
+        <v>19.02833333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7073,8 +7409,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7087,16 +7429,16 @@
         <v>19</v>
       </c>
       <c r="C191" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D191" t="n">
         <v>19</v>
       </c>
       <c r="E191" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F191" t="n">
-        <v>53585.5394</v>
+        <v>177413</v>
       </c>
       <c r="G191" t="n">
         <v>19.02666666666668</v>
@@ -7108,8 +7450,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7131,10 +7479,10 @@
         <v>19</v>
       </c>
       <c r="F192" t="n">
-        <v>1909.2</v>
+        <v>53585.5394</v>
       </c>
       <c r="G192" t="n">
-        <v>19.02500000000001</v>
+        <v>19.02666666666668</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7143,8 +7491,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7166,7 +7520,7 @@
         <v>19</v>
       </c>
       <c r="F193" t="n">
-        <v>221011.9055</v>
+        <v>1909.2</v>
       </c>
       <c r="G193" t="n">
         <v>19.02500000000001</v>
@@ -7178,8 +7532,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7192,29 +7552,35 @@
         <v>19</v>
       </c>
       <c r="C194" t="n">
+        <v>19</v>
+      </c>
+      <c r="D194" t="n">
+        <v>19</v>
+      </c>
+      <c r="E194" t="n">
+        <v>19</v>
+      </c>
+      <c r="F194" t="n">
+        <v>221011.9055</v>
+      </c>
+      <c r="G194" t="n">
+        <v>19.02500000000001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
         <v>18.9</v>
       </c>
-      <c r="D194" t="n">
-        <v>19</v>
-      </c>
-      <c r="E194" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F194" t="n">
-        <v>5789.919</v>
-      </c>
-      <c r="G194" t="n">
-        <v>19.02333333333335</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7227,16 +7593,16 @@
         <v>19</v>
       </c>
       <c r="C195" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D195" t="n">
         <v>19</v>
       </c>
       <c r="E195" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F195" t="n">
-        <v>292.36842105</v>
+        <v>5789.919</v>
       </c>
       <c r="G195" t="n">
         <v>19.02333333333335</v>
@@ -7248,8 +7614,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7259,32 +7631,38 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>19</v>
+      </c>
+      <c r="C196" t="n">
+        <v>19</v>
+      </c>
+      <c r="D196" t="n">
+        <v>19</v>
+      </c>
+      <c r="E196" t="n">
+        <v>19</v>
+      </c>
+      <c r="F196" t="n">
+        <v>292.36842105</v>
+      </c>
+      <c r="G196" t="n">
+        <v>19.02333333333335</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
         <v>18.9</v>
       </c>
-      <c r="C196" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D196" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E196" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F196" t="n">
-        <v>8032.3179</v>
-      </c>
-      <c r="G196" t="n">
-        <v>19.02166666666668</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7294,22 +7672,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="C197" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="D197" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="E197" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="F197" t="n">
-        <v>42105.2631</v>
+        <v>8032.3179</v>
       </c>
       <c r="G197" t="n">
-        <v>19.02000000000002</v>
+        <v>19.02166666666668</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7318,8 +7696,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7341,10 +7725,10 @@
         <v>19</v>
       </c>
       <c r="F198" t="n">
-        <v>51848.8947</v>
+        <v>42105.2631</v>
       </c>
       <c r="G198" t="n">
-        <v>19.02166666666668</v>
+        <v>19.02000000000002</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7353,8 +7737,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7364,22 +7754,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C199" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="D199" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="E199" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="F199" t="n">
-        <v>523.56020942</v>
+        <v>51848.8947</v>
       </c>
       <c r="G199" t="n">
-        <v>19.02333333333335</v>
+        <v>19.02166666666668</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7388,8 +7778,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7411,10 +7807,10 @@
         <v>19.1</v>
       </c>
       <c r="F200" t="n">
-        <v>157.06806282</v>
+        <v>523.56020942</v>
       </c>
       <c r="G200" t="n">
-        <v>19.02500000000001</v>
+        <v>19.02333333333335</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7423,8 +7819,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7446,10 +7848,10 @@
         <v>19.1</v>
       </c>
       <c r="F201" t="n">
-        <v>86200</v>
+        <v>157.06806282</v>
       </c>
       <c r="G201" t="n">
-        <v>19.02833333333334</v>
+        <v>19.02500000000001</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7458,8 +7860,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7481,10 +7889,10 @@
         <v>19.1</v>
       </c>
       <c r="F202" t="n">
-        <v>407518.0822</v>
+        <v>86200</v>
       </c>
       <c r="G202" t="n">
-        <v>19.03000000000001</v>
+        <v>19.02833333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7493,8 +7901,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7516,7 +7930,7 @@
         <v>19.1</v>
       </c>
       <c r="F203" t="n">
-        <v>158072.4545</v>
+        <v>407518.0822</v>
       </c>
       <c r="G203" t="n">
         <v>19.03000000000001</v>
@@ -7528,8 +7942,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7551,10 +7971,10 @@
         <v>19.1</v>
       </c>
       <c r="F204" t="n">
-        <v>308695.8498</v>
+        <v>158072.4545</v>
       </c>
       <c r="G204" t="n">
-        <v>19.03166666666667</v>
+        <v>19.03000000000001</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7563,8 +7983,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7586,10 +8012,10 @@
         <v>19.1</v>
       </c>
       <c r="F205" t="n">
-        <v>835.8782</v>
+        <v>308695.8498</v>
       </c>
       <c r="G205" t="n">
-        <v>19.03333333333334</v>
+        <v>19.03166666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7598,8 +8024,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7609,22 +8041,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C206" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="D206" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="E206" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>835.8782</v>
       </c>
       <c r="G206" t="n">
-        <v>19.03500000000001</v>
+        <v>19.03333333333334</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7633,8 +8065,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +8082,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="C207" t="n">
         <v>19.2</v>
@@ -7653,13 +8091,13 @@
         <v>19.2</v>
       </c>
       <c r="E207" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="F207" t="n">
-        <v>105046.302</v>
+        <v>10</v>
       </c>
       <c r="G207" t="n">
-        <v>19.03666666666668</v>
+        <v>19.03500000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7668,8 +8106,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7679,7 +8123,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="C208" t="n">
         <v>19.2</v>
@@ -7688,13 +8132,13 @@
         <v>19.2</v>
       </c>
       <c r="E208" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="F208" t="n">
-        <v>578863.3725000001</v>
+        <v>105046.302</v>
       </c>
       <c r="G208" t="n">
-        <v>19.03833333333334</v>
+        <v>19.03666666666668</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7703,8 +8147,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7714,22 +8164,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="C209" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="D209" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="E209" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F209" t="n">
-        <v>516811.0383</v>
+        <v>578863.3725000001</v>
       </c>
       <c r="G209" t="n">
-        <v>19.04166666666668</v>
+        <v>19.03833333333334</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7738,8 +8188,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7749,22 +8205,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C210" t="n">
         <v>19.3</v>
       </c>
       <c r="D210" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E210" t="n">
         <v>19.3</v>
       </c>
       <c r="F210" t="n">
-        <v>2814.8843</v>
+        <v>516811.0383</v>
       </c>
       <c r="G210" t="n">
-        <v>19.04500000000001</v>
+        <v>19.04166666666668</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7773,8 +8229,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7787,19 +8249,19 @@
         <v>19.4</v>
       </c>
       <c r="C211" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D211" t="n">
         <v>19.4</v>
       </c>
       <c r="E211" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F211" t="n">
-        <v>12887.8608</v>
+        <v>2814.8843</v>
       </c>
       <c r="G211" t="n">
-        <v>19.05000000000001</v>
+        <v>19.04500000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7808,8 +8270,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7822,29 +8290,35 @@
         <v>19.4</v>
       </c>
       <c r="C212" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D212" t="n">
         <v>19.4</v>
       </c>
       <c r="E212" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F212" t="n">
-        <v>840126.4272</v>
+        <v>12887.8608</v>
       </c>
       <c r="G212" t="n">
-        <v>19.05500000000001</v>
+        <v>19.05000000000001</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7854,32 +8328,38 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C213" t="n">
         <v>19.3</v>
       </c>
       <c r="D213" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E213" t="n">
         <v>19.3</v>
       </c>
       <c r="F213" t="n">
-        <v>119217.9456</v>
+        <v>840126.4272</v>
       </c>
       <c r="G213" t="n">
-        <v>19.06000000000001</v>
+        <v>19.05500000000001</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7889,22 +8369,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C214" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D214" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E214" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F214" t="n">
-        <v>378348.7556</v>
+        <v>119217.9456</v>
       </c>
       <c r="G214" t="n">
-        <v>19.06500000000002</v>
+        <v>19.06000000000001</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7913,10 +8393,16 @@
         <v>1</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M214" t="n">
-        <v>1</v>
+        <v>1.016164021164021</v>
       </c>
     </row>
     <row r="215">
@@ -7927,25 +8413,25 @@
         <v>19.4</v>
       </c>
       <c r="C215" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D215" t="n">
         <v>19.4</v>
       </c>
       <c r="E215" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="F215" t="n">
-        <v>446161.4459</v>
+        <v>378348.7556</v>
       </c>
       <c r="G215" t="n">
-        <v>19.06833333333335</v>
+        <v>19.06500000000002</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -7968,19 +8454,19 @@
         <v>19.4</v>
       </c>
       <c r="E216" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="F216" t="n">
-        <v>23764.2877</v>
+        <v>446161.4459</v>
       </c>
       <c r="G216" t="n">
-        <v>19.07166666666668</v>
+        <v>19.06833333333335</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -7994,28 +8480,28 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C217" t="n">
         <v>19.3</v>
       </c>
       <c r="D217" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E217" t="n">
         <v>19.3</v>
       </c>
       <c r="F217" t="n">
-        <v>33.915</v>
+        <v>23764.2877</v>
       </c>
       <c r="G217" t="n">
-        <v>19.07500000000002</v>
+        <v>19.07166666666668</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -8029,22 +8515,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C218" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D218" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E218" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F218" t="n">
-        <v>21758.0927</v>
+        <v>33.915</v>
       </c>
       <c r="G218" t="n">
-        <v>19.08000000000002</v>
+        <v>19.07500000000002</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8064,22 +8550,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="C219" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D219" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="E219" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F219" t="n">
-        <v>3411.7324</v>
+        <v>21758.0927</v>
       </c>
       <c r="G219" t="n">
-        <v>19.08500000000002</v>
+        <v>19.08000000000002</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8099,22 +8585,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C220" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D220" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="E220" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F220" t="n">
-        <v>62400</v>
+        <v>3411.7324</v>
       </c>
       <c r="G220" t="n">
-        <v>19.09166666666669</v>
+        <v>19.08500000000002</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8137,19 +8623,19 @@
         <v>19.4</v>
       </c>
       <c r="C221" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="D221" t="n">
         <v>19.4</v>
       </c>
       <c r="E221" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="F221" t="n">
-        <v>221181.2286</v>
+        <v>62400</v>
       </c>
       <c r="G221" t="n">
-        <v>19.09666666666669</v>
+        <v>19.09166666666669</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8172,19 +8658,19 @@
         <v>19.4</v>
       </c>
       <c r="C222" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D222" t="n">
         <v>19.4</v>
       </c>
       <c r="E222" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="F222" t="n">
-        <v>109872.9999</v>
+        <v>221181.2286</v>
       </c>
       <c r="G222" t="n">
-        <v>19.10333333333336</v>
+        <v>19.09666666666669</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8216,10 +8702,10 @@
         <v>19.4</v>
       </c>
       <c r="F223" t="n">
-        <v>1657025.0755</v>
+        <v>109872.9999</v>
       </c>
       <c r="G223" t="n">
-        <v>19.11000000000002</v>
+        <v>19.10333333333336</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8242,19 +8728,19 @@
         <v>19.4</v>
       </c>
       <c r="C224" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D224" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E224" t="n">
         <v>19.4</v>
       </c>
       <c r="F224" t="n">
-        <v>6916.1971</v>
+        <v>1657025.0755</v>
       </c>
       <c r="G224" t="n">
-        <v>19.12000000000002</v>
+        <v>19.11000000000002</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8274,7 +8760,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C225" t="n">
         <v>19.5</v>
@@ -8283,13 +8769,13 @@
         <v>19.5</v>
       </c>
       <c r="E225" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F225" t="n">
-        <v>23767.2307</v>
+        <v>6916.1971</v>
       </c>
       <c r="G225" t="n">
-        <v>19.12833333333336</v>
+        <v>19.12000000000002</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8321,10 +8807,10 @@
         <v>19.5</v>
       </c>
       <c r="F226" t="n">
-        <v>10</v>
+        <v>23767.2307</v>
       </c>
       <c r="G226" t="n">
-        <v>19.13666666666669</v>
+        <v>19.12833333333336</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8356,10 +8842,10 @@
         <v>19.5</v>
       </c>
       <c r="F227" t="n">
-        <v>44800</v>
+        <v>10</v>
       </c>
       <c r="G227" t="n">
-        <v>19.14500000000002</v>
+        <v>19.13666666666669</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8382,19 +8868,19 @@
         <v>19.5</v>
       </c>
       <c r="C228" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D228" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E228" t="n">
         <v>19.5</v>
       </c>
       <c r="F228" t="n">
-        <v>300985.8013</v>
+        <v>44800</v>
       </c>
       <c r="G228" t="n">
-        <v>19.15333333333336</v>
+        <v>19.14500000000002</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8417,19 +8903,19 @@
         <v>19.5</v>
       </c>
       <c r="C229" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D229" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E229" t="n">
         <v>19.5</v>
       </c>
       <c r="F229" t="n">
-        <v>1531.1625</v>
+        <v>300985.8013</v>
       </c>
       <c r="G229" t="n">
-        <v>19.16000000000003</v>
+        <v>19.15333333333336</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8449,22 +8935,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C230" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D230" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E230" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F230" t="n">
-        <v>373.7755</v>
+        <v>1531.1625</v>
       </c>
       <c r="G230" t="n">
-        <v>19.16833333333336</v>
+        <v>19.16000000000003</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8487,19 +8973,19 @@
         <v>19.6</v>
       </c>
       <c r="C231" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D231" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E231" t="n">
         <v>19.6</v>
       </c>
       <c r="F231" t="n">
-        <v>486213.7668</v>
+        <v>373.7755</v>
       </c>
       <c r="G231" t="n">
-        <v>19.17833333333336</v>
+        <v>19.16833333333336</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8522,19 +9008,19 @@
         <v>19.6</v>
       </c>
       <c r="C232" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D232" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E232" t="n">
         <v>19.6</v>
       </c>
       <c r="F232" t="n">
-        <v>258747.7345</v>
+        <v>486213.7668</v>
       </c>
       <c r="G232" t="n">
-        <v>19.18833333333336</v>
+        <v>19.17833333333336</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8557,19 +9043,19 @@
         <v>19.6</v>
       </c>
       <c r="C233" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D233" t="n">
         <v>19.6</v>
       </c>
       <c r="E233" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F233" t="n">
-        <v>18697.1095</v>
+        <v>258747.7345</v>
       </c>
       <c r="G233" t="n">
-        <v>19.19500000000003</v>
+        <v>19.18833333333336</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8592,19 +9078,19 @@
         <v>19.6</v>
       </c>
       <c r="C234" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D234" t="n">
         <v>19.6</v>
       </c>
       <c r="E234" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F234" t="n">
-        <v>16.2244</v>
+        <v>18697.1095</v>
       </c>
       <c r="G234" t="n">
-        <v>19.20500000000003</v>
+        <v>19.19500000000003</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8636,10 +9122,10 @@
         <v>19.6</v>
       </c>
       <c r="F235" t="n">
-        <v>281742.3315</v>
+        <v>16.2244</v>
       </c>
       <c r="G235" t="n">
-        <v>19.21500000000002</v>
+        <v>19.20500000000003</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8671,10 +9157,10 @@
         <v>19.6</v>
       </c>
       <c r="F236" t="n">
-        <v>110816.6629</v>
+        <v>281742.3315</v>
       </c>
       <c r="G236" t="n">
-        <v>19.22500000000002</v>
+        <v>19.21500000000002</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8694,7 +9180,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C237" t="n">
         <v>19.6</v>
@@ -8703,13 +9189,13 @@
         <v>19.6</v>
       </c>
       <c r="E237" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F237" t="n">
-        <v>230712.5276</v>
+        <v>110816.6629</v>
       </c>
       <c r="G237" t="n">
-        <v>19.23500000000002</v>
+        <v>19.22500000000002</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8729,22 +9215,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="C238" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D238" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E238" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="F238" t="n">
-        <v>100000</v>
+        <v>230712.5276</v>
       </c>
       <c r="G238" t="n">
-        <v>19.24666666666669</v>
+        <v>19.23500000000002</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8764,22 +9250,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C239" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D239" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E239" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F239" t="n">
-        <v>394008.51</v>
+        <v>100000</v>
       </c>
       <c r="G239" t="n">
-        <v>19.25666666666669</v>
+        <v>19.24666666666669</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8799,22 +9285,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C240" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D240" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E240" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>394008.51</v>
       </c>
       <c r="G240" t="n">
-        <v>19.26833333333336</v>
+        <v>19.25666666666669</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8846,10 +9332,10 @@
         <v>19.7</v>
       </c>
       <c r="F241" t="n">
-        <v>1233393.4464</v>
+        <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>19.28000000000002</v>
+        <v>19.26833333333336</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8869,22 +9355,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="C242" t="n">
         <v>19.7</v>
       </c>
       <c r="D242" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="E242" t="n">
         <v>19.7</v>
       </c>
       <c r="F242" t="n">
-        <v>325303.5116</v>
+        <v>1233393.4464</v>
       </c>
       <c r="G242" t="n">
-        <v>19.29166666666669</v>
+        <v>19.28000000000002</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8904,22 +9390,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="C243" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D243" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="E243" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F243" t="n">
-        <v>645476.3561</v>
+        <v>325303.5116</v>
       </c>
       <c r="G243" t="n">
-        <v>19.30166666666669</v>
+        <v>19.29166666666669</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8942,7 +9428,7 @@
         <v>19.6</v>
       </c>
       <c r="C244" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D244" t="n">
         <v>19.7</v>
@@ -8951,10 +9437,10 @@
         <v>19.6</v>
       </c>
       <c r="F244" t="n">
-        <v>197849.6412</v>
+        <v>645476.3561</v>
       </c>
       <c r="G244" t="n">
-        <v>19.31333333333335</v>
+        <v>19.30166666666669</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8974,7 +9460,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C245" t="n">
         <v>19.7</v>
@@ -8983,13 +9469,13 @@
         <v>19.7</v>
       </c>
       <c r="E245" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F245" t="n">
-        <v>10</v>
+        <v>197849.6412</v>
       </c>
       <c r="G245" t="n">
-        <v>19.32333333333336</v>
+        <v>19.31333333333335</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9009,7 +9495,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C246" t="n">
         <v>19.7</v>
@@ -9018,13 +9504,13 @@
         <v>19.7</v>
       </c>
       <c r="E246" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F246" t="n">
-        <v>861540.6369</v>
+        <v>10</v>
       </c>
       <c r="G246" t="n">
-        <v>19.33500000000003</v>
+        <v>19.32333333333336</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9044,7 +9530,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C247" t="n">
         <v>19.7</v>
@@ -9053,13 +9539,13 @@
         <v>19.7</v>
       </c>
       <c r="E247" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F247" t="n">
-        <v>464230.9111</v>
+        <v>861540.6369</v>
       </c>
       <c r="G247" t="n">
-        <v>19.34666666666669</v>
+        <v>19.33500000000003</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9091,10 +9577,10 @@
         <v>19.7</v>
       </c>
       <c r="F248" t="n">
-        <v>653032.8543</v>
+        <v>464230.9111</v>
       </c>
       <c r="G248" t="n">
-        <v>19.35666666666669</v>
+        <v>19.34666666666669</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9117,19 +9603,19 @@
         <v>19.7</v>
       </c>
       <c r="C249" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="D249" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="E249" t="n">
         <v>19.7</v>
       </c>
       <c r="F249" t="n">
-        <v>624149.9223</v>
+        <v>653032.8543</v>
       </c>
       <c r="G249" t="n">
-        <v>19.37166666666669</v>
+        <v>19.35666666666669</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9152,7 +9638,7 @@
         <v>19.7</v>
       </c>
       <c r="C250" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="D250" t="n">
         <v>19.8</v>
@@ -9161,10 +9647,10 @@
         <v>19.7</v>
       </c>
       <c r="F250" t="n">
-        <v>451523.9454</v>
+        <v>624149.9223</v>
       </c>
       <c r="G250" t="n">
-        <v>19.38500000000003</v>
+        <v>19.37166666666669</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9190,16 +9676,16 @@
         <v>19.7</v>
       </c>
       <c r="D251" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="E251" t="n">
         <v>19.7</v>
       </c>
       <c r="F251" t="n">
-        <v>466744.8028</v>
+        <v>451523.9454</v>
       </c>
       <c r="G251" t="n">
-        <v>19.39666666666669</v>
+        <v>19.38500000000003</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9231,10 +9717,10 @@
         <v>19.7</v>
       </c>
       <c r="F252" t="n">
-        <v>418253.5615</v>
+        <v>466744.8028</v>
       </c>
       <c r="G252" t="n">
-        <v>19.40833333333336</v>
+        <v>19.39666666666669</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9260,16 +9746,16 @@
         <v>19.7</v>
       </c>
       <c r="D253" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="E253" t="n">
         <v>19.7</v>
       </c>
       <c r="F253" t="n">
-        <v>967515.9895</v>
+        <v>418253.5615</v>
       </c>
       <c r="G253" t="n">
-        <v>19.42000000000003</v>
+        <v>19.40833333333336</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9295,16 +9781,16 @@
         <v>19.7</v>
       </c>
       <c r="D254" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="E254" t="n">
         <v>19.7</v>
       </c>
       <c r="F254" t="n">
-        <v>140635.1269</v>
+        <v>967515.9895</v>
       </c>
       <c r="G254" t="n">
-        <v>19.43333333333336</v>
+        <v>19.42000000000003</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9324,7 +9810,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C255" t="n">
         <v>19.7</v>
@@ -9333,13 +9819,13 @@
         <v>19.7</v>
       </c>
       <c r="E255" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F255" t="n">
-        <v>216695.4314</v>
+        <v>140635.1269</v>
       </c>
       <c r="G255" t="n">
-        <v>19.44500000000003</v>
+        <v>19.43333333333336</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9362,19 +9848,19 @@
         <v>19.6</v>
       </c>
       <c r="C256" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D256" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E256" t="n">
         <v>19.6</v>
       </c>
       <c r="F256" t="n">
-        <v>36262.0907</v>
+        <v>216695.4314</v>
       </c>
       <c r="G256" t="n">
-        <v>19.45666666666669</v>
+        <v>19.44500000000003</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9406,10 +9892,10 @@
         <v>19.6</v>
       </c>
       <c r="F257" t="n">
-        <v>112415.6092</v>
+        <v>36262.0907</v>
       </c>
       <c r="G257" t="n">
-        <v>19.46666666666669</v>
+        <v>19.45666666666669</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9429,22 +9915,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C258" t="n">
         <v>19.6</v>
       </c>
       <c r="D258" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E258" t="n">
         <v>19.6</v>
       </c>
       <c r="F258" t="n">
-        <v>41416.6567</v>
+        <v>112415.6092</v>
       </c>
       <c r="G258" t="n">
-        <v>19.47666666666669</v>
+        <v>19.46666666666669</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9464,7 +9950,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C259" t="n">
         <v>19.6</v>
@@ -9476,10 +9962,10 @@
         <v>19.6</v>
       </c>
       <c r="F259" t="n">
-        <v>300854.8709</v>
+        <v>41416.6567</v>
       </c>
       <c r="G259" t="n">
-        <v>19.48500000000002</v>
+        <v>19.47666666666669</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9499,22 +9985,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C260" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D260" t="n">
         <v>19.7</v>
       </c>
       <c r="E260" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F260" t="n">
-        <v>10</v>
+        <v>300854.8709</v>
       </c>
       <c r="G260" t="n">
-        <v>19.49500000000002</v>
+        <v>19.48500000000002</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9534,22 +10020,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C261" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D261" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E261" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F261" t="n">
-        <v>184857.3586</v>
+        <v>10</v>
       </c>
       <c r="G261" t="n">
-        <v>19.50333333333336</v>
+        <v>19.49500000000002</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9569,22 +10055,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C262" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D262" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E262" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F262" t="n">
-        <v>481.1309</v>
+        <v>184857.3586</v>
       </c>
       <c r="G262" t="n">
-        <v>19.51000000000003</v>
+        <v>19.50333333333336</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9616,10 +10102,10 @@
         <v>19.5</v>
       </c>
       <c r="F263" t="n">
-        <v>5287.7575</v>
+        <v>481.1309</v>
       </c>
       <c r="G263" t="n">
-        <v>19.51666666666669</v>
+        <v>19.51000000000003</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9639,22 +10125,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C264" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D264" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E264" t="n">
         <v>19.5</v>
       </c>
       <c r="F264" t="n">
-        <v>874804.8235000001</v>
+        <v>5287.7575</v>
       </c>
       <c r="G264" t="n">
-        <v>19.52500000000003</v>
+        <v>19.51666666666669</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9677,7 +10163,7 @@
         <v>19.6</v>
       </c>
       <c r="C265" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D265" t="n">
         <v>19.6</v>
@@ -9686,10 +10172,10 @@
         <v>19.5</v>
       </c>
       <c r="F265" t="n">
-        <v>101136.9405</v>
+        <v>874804.8235000001</v>
       </c>
       <c r="G265" t="n">
-        <v>19.53166666666669</v>
+        <v>19.52500000000003</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9712,19 +10198,19 @@
         <v>19.6</v>
       </c>
       <c r="C266" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D266" t="n">
         <v>19.6</v>
       </c>
       <c r="E266" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F266" t="n">
-        <v>20000</v>
+        <v>101136.9405</v>
       </c>
       <c r="G266" t="n">
-        <v>19.53833333333336</v>
+        <v>19.53166666666669</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9744,22 +10230,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C267" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D267" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E267" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F267" t="n">
-        <v>35646.4931</v>
+        <v>20000</v>
       </c>
       <c r="G267" t="n">
-        <v>19.54333333333336</v>
+        <v>19.53833333333336</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9779,22 +10265,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C268" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D268" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E268" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F268" t="n">
-        <v>209.18367346</v>
+        <v>35646.4931</v>
       </c>
       <c r="G268" t="n">
-        <v>19.55000000000002</v>
+        <v>19.54333333333336</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9826,10 +10312,10 @@
         <v>19.6</v>
       </c>
       <c r="F269" t="n">
-        <v>43600</v>
+        <v>209.18367346</v>
       </c>
       <c r="G269" t="n">
-        <v>19.55500000000002</v>
+        <v>19.55000000000002</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9861,10 +10347,10 @@
         <v>19.6</v>
       </c>
       <c r="F270" t="n">
-        <v>239411.5445</v>
+        <v>43600</v>
       </c>
       <c r="G270" t="n">
-        <v>19.56000000000002</v>
+        <v>19.55500000000002</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9896,10 +10382,10 @@
         <v>19.6</v>
       </c>
       <c r="F271" t="n">
-        <v>11029.1722</v>
+        <v>239411.5445</v>
       </c>
       <c r="G271" t="n">
-        <v>19.56333333333335</v>
+        <v>19.56000000000002</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9919,22 +10405,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C272" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D272" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E272" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F272" t="n">
-        <v>509499.1417</v>
+        <v>11029.1722</v>
       </c>
       <c r="G272" t="n">
-        <v>19.57000000000002</v>
+        <v>19.56333333333335</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9954,22 +10440,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C273" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D273" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E273" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F273" t="n">
-        <v>78472.7326</v>
+        <v>509499.1417</v>
       </c>
       <c r="G273" t="n">
-        <v>19.57500000000002</v>
+        <v>19.57000000000002</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9992,19 +10478,19 @@
         <v>19.6</v>
       </c>
       <c r="C274" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D274" t="n">
         <v>19.6</v>
       </c>
       <c r="E274" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F274" t="n">
-        <v>278481.8263</v>
+        <v>78472.7326</v>
       </c>
       <c r="G274" t="n">
-        <v>19.57666666666669</v>
+        <v>19.57500000000002</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10027,19 +10513,19 @@
         <v>19.6</v>
       </c>
       <c r="C275" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D275" t="n">
         <v>19.6</v>
       </c>
       <c r="E275" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F275" t="n">
-        <v>20079.3661</v>
+        <v>278481.8263</v>
       </c>
       <c r="G275" t="n">
-        <v>19.58166666666668</v>
+        <v>19.57666666666669</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10062,19 +10548,19 @@
         <v>19.6</v>
       </c>
       <c r="C276" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D276" t="n">
         <v>19.6</v>
       </c>
       <c r="E276" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F276" t="n">
-        <v>676727.4741</v>
+        <v>20079.3661</v>
       </c>
       <c r="G276" t="n">
-        <v>19.58500000000002</v>
+        <v>19.58166666666668</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10094,22 +10580,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C277" t="n">
         <v>19.5</v>
       </c>
       <c r="D277" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E277" t="n">
         <v>19.5</v>
       </c>
       <c r="F277" t="n">
-        <v>171164.74</v>
+        <v>676727.4741</v>
       </c>
       <c r="G277" t="n">
-        <v>19.58833333333335</v>
+        <v>19.58500000000002</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10141,10 +10627,10 @@
         <v>19.5</v>
       </c>
       <c r="F278" t="n">
-        <v>462.923</v>
+        <v>171164.74</v>
       </c>
       <c r="G278" t="n">
-        <v>19.59000000000002</v>
+        <v>19.58833333333335</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10167,19 +10653,19 @@
         <v>19.5</v>
       </c>
       <c r="C279" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D279" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E279" t="n">
         <v>19.5</v>
       </c>
       <c r="F279" t="n">
-        <v>124937.077</v>
+        <v>462.923</v>
       </c>
       <c r="G279" t="n">
-        <v>19.59500000000002</v>
+        <v>19.59000000000002</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10202,19 +10688,19 @@
         <v>19.5</v>
       </c>
       <c r="C280" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D280" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E280" t="n">
         <v>19.5</v>
       </c>
       <c r="F280" t="n">
-        <v>141566.25</v>
+        <v>124937.077</v>
       </c>
       <c r="G280" t="n">
-        <v>19.59666666666668</v>
+        <v>19.59500000000002</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10246,10 +10732,10 @@
         <v>19.5</v>
       </c>
       <c r="F281" t="n">
-        <v>21310</v>
+        <v>141566.25</v>
       </c>
       <c r="G281" t="n">
-        <v>19.60000000000002</v>
+        <v>19.59666666666668</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10269,22 +10755,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C282" t="n">
         <v>19.5</v>
       </c>
       <c r="D282" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E282" t="n">
         <v>19.5</v>
       </c>
       <c r="F282" t="n">
-        <v>113191.3413</v>
+        <v>21310</v>
       </c>
       <c r="G282" t="n">
-        <v>19.60166666666668</v>
+        <v>19.60000000000002</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10304,7 +10790,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C283" t="n">
         <v>19.5</v>
@@ -10316,10 +10802,10 @@
         <v>19.5</v>
       </c>
       <c r="F283" t="n">
-        <v>84806</v>
+        <v>113191.3413</v>
       </c>
       <c r="G283" t="n">
-        <v>19.60333333333335</v>
+        <v>19.60166666666668</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10339,22 +10825,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C284" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D284" t="n">
         <v>19.6</v>
       </c>
       <c r="E284" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F284" t="n">
-        <v>10</v>
+        <v>84806</v>
       </c>
       <c r="G284" t="n">
-        <v>19.60500000000001</v>
+        <v>19.60333333333335</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10374,19 +10860,19 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C285" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D285" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E285" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F285" t="n">
-        <v>32612.8205</v>
+        <v>10</v>
       </c>
       <c r="G285" t="n">
         <v>19.60500000000001</v>
@@ -10421,7 +10907,7 @@
         <v>19.5</v>
       </c>
       <c r="F286" t="n">
-        <v>66950</v>
+        <v>32612.8205</v>
       </c>
       <c r="G286" t="n">
         <v>19.60500000000001</v>
@@ -10456,7 +10942,7 @@
         <v>19.5</v>
       </c>
       <c r="F287" t="n">
-        <v>8820</v>
+        <v>66950</v>
       </c>
       <c r="G287" t="n">
         <v>19.60500000000001</v>
@@ -10491,10 +10977,10 @@
         <v>19.5</v>
       </c>
       <c r="F288" t="n">
-        <v>124811</v>
+        <v>8820</v>
       </c>
       <c r="G288" t="n">
-        <v>19.60333333333335</v>
+        <v>19.60500000000001</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10514,22 +11000,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C289" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D289" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E289" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F289" t="n">
-        <v>4360.4402</v>
+        <v>124811</v>
       </c>
       <c r="G289" t="n">
-        <v>19.60166666666668</v>
+        <v>19.60333333333335</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10549,19 +11035,19 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="C290" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="D290" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="E290" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="F290" t="n">
-        <v>51.9387</v>
+        <v>4360.4402</v>
       </c>
       <c r="G290" t="n">
         <v>19.60166666666668</v>
@@ -10587,19 +11073,19 @@
         <v>19.6</v>
       </c>
       <c r="C291" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="D291" t="n">
         <v>19.6</v>
       </c>
       <c r="E291" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="F291" t="n">
-        <v>626.4747</v>
+        <v>51.9387</v>
       </c>
       <c r="G291" t="n">
-        <v>19.59666666666668</v>
+        <v>19.60166666666668</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10619,10 +11105,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C292" t="n">
         <v>19.4</v>
-      </c>
-      <c r="C292" t="n">
-        <v>19.6</v>
       </c>
       <c r="D292" t="n">
         <v>19.6</v>
@@ -10631,7 +11117,7 @@
         <v>19.4</v>
       </c>
       <c r="F292" t="n">
-        <v>31665.01518163</v>
+        <v>626.4747</v>
       </c>
       <c r="G292" t="n">
         <v>19.59666666666668</v>
@@ -10657,19 +11143,19 @@
         <v>19.4</v>
       </c>
       <c r="C293" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="D293" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="E293" t="n">
         <v>19.4</v>
       </c>
       <c r="F293" t="n">
-        <v>15281.5024</v>
+        <v>31665.01518163</v>
       </c>
       <c r="G293" t="n">
-        <v>19.59500000000002</v>
+        <v>19.59666666666668</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10701,10 +11187,10 @@
         <v>19.4</v>
       </c>
       <c r="F294" t="n">
-        <v>6564.5319</v>
+        <v>15281.5024</v>
       </c>
       <c r="G294" t="n">
-        <v>19.59166666666669</v>
+        <v>19.59500000000002</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10736,10 +11222,10 @@
         <v>19.4</v>
       </c>
       <c r="F295" t="n">
-        <v>8188.9499</v>
+        <v>6564.5319</v>
       </c>
       <c r="G295" t="n">
-        <v>19.58833333333336</v>
+        <v>19.59166666666669</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10771,10 +11257,10 @@
         <v>19.4</v>
       </c>
       <c r="F296" t="n">
-        <v>10000</v>
+        <v>8188.9499</v>
       </c>
       <c r="G296" t="n">
-        <v>19.58500000000003</v>
+        <v>19.58833333333336</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10806,10 +11292,10 @@
         <v>19.4</v>
       </c>
       <c r="F297" t="n">
-        <v>378.4939</v>
+        <v>10000</v>
       </c>
       <c r="G297" t="n">
-        <v>19.5816666666667</v>
+        <v>19.58500000000003</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10841,10 +11327,10 @@
         <v>19.4</v>
       </c>
       <c r="F298" t="n">
-        <v>15658.7297</v>
+        <v>378.4939</v>
       </c>
       <c r="G298" t="n">
-        <v>19.5766666666667</v>
+        <v>19.5816666666667</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10876,10 +11362,10 @@
         <v>19.4</v>
       </c>
       <c r="F299" t="n">
-        <v>30000</v>
+        <v>15658.7297</v>
       </c>
       <c r="G299" t="n">
-        <v>19.57333333333337</v>
+        <v>19.5766666666667</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10911,10 +11397,10 @@
         <v>19.4</v>
       </c>
       <c r="F300" t="n">
-        <v>19701.4908</v>
+        <v>30000</v>
       </c>
       <c r="G300" t="n">
-        <v>19.56833333333337</v>
+        <v>19.57333333333337</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10946,10 +11432,10 @@
         <v>19.4</v>
       </c>
       <c r="F301" t="n">
-        <v>23995.5348</v>
+        <v>19701.4908</v>
       </c>
       <c r="G301" t="n">
-        <v>19.56333333333337</v>
+        <v>19.56833333333337</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10981,10 +11467,10 @@
         <v>19.4</v>
       </c>
       <c r="F302" t="n">
-        <v>460.1172</v>
+        <v>23995.5348</v>
       </c>
       <c r="G302" t="n">
-        <v>19.55833333333337</v>
+        <v>19.56333333333337</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11016,10 +11502,10 @@
         <v>19.4</v>
       </c>
       <c r="F303" t="n">
-        <v>3169.2406</v>
+        <v>460.1172</v>
       </c>
       <c r="G303" t="n">
-        <v>19.55500000000004</v>
+        <v>19.55833333333337</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11039,22 +11525,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C304" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D304" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E304" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F304" t="n">
-        <v>15000</v>
+        <v>3169.2406</v>
       </c>
       <c r="G304" t="n">
-        <v>19.5516666666667</v>
+        <v>19.55500000000004</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11086,10 +11572,10 @@
         <v>19.5</v>
       </c>
       <c r="F305" t="n">
-        <v>448.2564</v>
+        <v>15000</v>
       </c>
       <c r="G305" t="n">
-        <v>19.54833333333337</v>
+        <v>19.5516666666667</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11121,10 +11607,10 @@
         <v>19.5</v>
       </c>
       <c r="F306" t="n">
-        <v>733408.0665</v>
+        <v>448.2564</v>
       </c>
       <c r="G306" t="n">
-        <v>19.54500000000003</v>
+        <v>19.54833333333337</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11156,10 +11642,10 @@
         <v>19.5</v>
       </c>
       <c r="F307" t="n">
-        <v>1562.5636</v>
+        <v>733408.0665</v>
       </c>
       <c r="G307" t="n">
-        <v>19.5416666666667</v>
+        <v>19.54500000000003</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11191,10 +11677,10 @@
         <v>19.5</v>
       </c>
       <c r="F308" t="n">
-        <v>92502.2441</v>
+        <v>1562.5636</v>
       </c>
       <c r="G308" t="n">
-        <v>19.53833333333337</v>
+        <v>19.5416666666667</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11226,10 +11712,10 @@
         <v>19.5</v>
       </c>
       <c r="F309" t="n">
-        <v>69422.07490000001</v>
+        <v>92502.2441</v>
       </c>
       <c r="G309" t="n">
-        <v>19.53333333333337</v>
+        <v>19.53833333333337</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11261,10 +11747,10 @@
         <v>19.5</v>
       </c>
       <c r="F310" t="n">
-        <v>748378.0337</v>
+        <v>69422.07490000001</v>
       </c>
       <c r="G310" t="n">
-        <v>19.53000000000003</v>
+        <v>19.53333333333337</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11284,22 +11770,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C311" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D311" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E311" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F311" t="n">
-        <v>4500</v>
+        <v>748378.0337</v>
       </c>
       <c r="G311" t="n">
-        <v>19.52833333333336</v>
+        <v>19.53000000000003</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11319,22 +11805,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C312" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D312" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E312" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F312" t="n">
-        <v>322774.3386</v>
+        <v>4500</v>
       </c>
       <c r="G312" t="n">
-        <v>19.52500000000003</v>
+        <v>19.52833333333336</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11354,22 +11840,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="C313" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="D313" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="E313" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="F313" t="n">
-        <v>12430.1233</v>
+        <v>322774.3386</v>
       </c>
       <c r="G313" t="n">
-        <v>19.52000000000003</v>
+        <v>19.52500000000003</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11389,22 +11875,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="C314" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="D314" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="E314" t="n">
         <v>19.4</v>
       </c>
       <c r="F314" t="n">
-        <v>477912.0089</v>
+        <v>12430.1233</v>
       </c>
       <c r="G314" t="n">
-        <v>19.5166666666667</v>
+        <v>19.52000000000003</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11433,13 +11919,13 @@
         <v>19.5</v>
       </c>
       <c r="E315" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="F315" t="n">
-        <v>358383.3157</v>
+        <v>477912.0089</v>
       </c>
       <c r="G315" t="n">
-        <v>19.51333333333336</v>
+        <v>19.5166666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11471,10 +11957,10 @@
         <v>19.5</v>
       </c>
       <c r="F316" t="n">
-        <v>497630.7229</v>
+        <v>358383.3157</v>
       </c>
       <c r="G316" t="n">
-        <v>19.5116666666667</v>
+        <v>19.51333333333336</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11506,10 +11992,10 @@
         <v>19.5</v>
       </c>
       <c r="F317" t="n">
-        <v>20570</v>
+        <v>497630.7229</v>
       </c>
       <c r="G317" t="n">
-        <v>19.51000000000003</v>
+        <v>19.5116666666667</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11541,10 +12027,10 @@
         <v>19.5</v>
       </c>
       <c r="F318" t="n">
-        <v>250871.9626</v>
+        <v>20570</v>
       </c>
       <c r="G318" t="n">
-        <v>19.50833333333337</v>
+        <v>19.51000000000003</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11576,10 +12062,10 @@
         <v>19.5</v>
       </c>
       <c r="F319" t="n">
-        <v>1877.5</v>
+        <v>250871.9626</v>
       </c>
       <c r="G319" t="n">
-        <v>19.5066666666667</v>
+        <v>19.50833333333337</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11611,10 +12097,10 @@
         <v>19.5</v>
       </c>
       <c r="F320" t="n">
-        <v>36305.6417</v>
+        <v>1877.5</v>
       </c>
       <c r="G320" t="n">
-        <v>19.50333333333337</v>
+        <v>19.5066666666667</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11646,10 +12132,10 @@
         <v>19.5</v>
       </c>
       <c r="F321" t="n">
-        <v>448581.6585</v>
+        <v>36305.6417</v>
       </c>
       <c r="G321" t="n">
-        <v>19.5016666666667</v>
+        <v>19.50333333333337</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11681,7 +12167,7 @@
         <v>19.5</v>
       </c>
       <c r="F322" t="n">
-        <v>55623.0429</v>
+        <v>448581.6585</v>
       </c>
       <c r="G322" t="n">
         <v>19.5016666666667</v>
@@ -11716,7 +12202,7 @@
         <v>19.5</v>
       </c>
       <c r="F323" t="n">
-        <v>26446.1591</v>
+        <v>55623.0429</v>
       </c>
       <c r="G323" t="n">
         <v>19.5016666666667</v>
@@ -11751,10 +12237,10 @@
         <v>19.5</v>
       </c>
       <c r="F324" t="n">
-        <v>137291.2791</v>
+        <v>26446.1591</v>
       </c>
       <c r="G324" t="n">
-        <v>19.50000000000004</v>
+        <v>19.5016666666667</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11786,7 +12272,7 @@
         <v>19.5</v>
       </c>
       <c r="F325" t="n">
-        <v>111717.531</v>
+        <v>137291.2791</v>
       </c>
       <c r="G325" t="n">
         <v>19.50000000000004</v>
@@ -11821,10 +12307,10 @@
         <v>19.5</v>
       </c>
       <c r="F326" t="n">
-        <v>406126.7363</v>
+        <v>111717.531</v>
       </c>
       <c r="G326" t="n">
-        <v>19.49833333333337</v>
+        <v>19.50000000000004</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11856,7 +12342,7 @@
         <v>19.5</v>
       </c>
       <c r="F327" t="n">
-        <v>3090</v>
+        <v>406126.7363</v>
       </c>
       <c r="G327" t="n">
         <v>19.49833333333337</v>
@@ -11891,10 +12377,10 @@
         <v>19.5</v>
       </c>
       <c r="F328" t="n">
-        <v>102946.644</v>
+        <v>3090</v>
       </c>
       <c r="G328" t="n">
-        <v>19.49666666666671</v>
+        <v>19.49833333333337</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -11926,10 +12412,10 @@
         <v>19.5</v>
       </c>
       <c r="F329" t="n">
-        <v>62298.2073</v>
+        <v>102946.644</v>
       </c>
       <c r="G329" t="n">
-        <v>19.49500000000004</v>
+        <v>19.49666666666671</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11961,10 +12447,10 @@
         <v>19.5</v>
       </c>
       <c r="F330" t="n">
-        <v>35045.5197</v>
+        <v>62298.2073</v>
       </c>
       <c r="G330" t="n">
-        <v>19.49333333333338</v>
+        <v>19.49500000000004</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -11996,10 +12482,10 @@
         <v>19.5</v>
       </c>
       <c r="F331" t="n">
-        <v>2580</v>
+        <v>35045.5197</v>
       </c>
       <c r="G331" t="n">
-        <v>19.49166666666671</v>
+        <v>19.49333333333338</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -12031,10 +12517,10 @@
         <v>19.5</v>
       </c>
       <c r="F332" t="n">
-        <v>69806.2819</v>
+        <v>2580</v>
       </c>
       <c r="G332" t="n">
-        <v>19.48833333333338</v>
+        <v>19.49166666666671</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12066,10 +12552,10 @@
         <v>19.5</v>
       </c>
       <c r="F333" t="n">
-        <v>138337.2539</v>
+        <v>69806.2819</v>
       </c>
       <c r="G333" t="n">
-        <v>19.48666666666671</v>
+        <v>19.48833333333338</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12101,7 +12587,7 @@
         <v>19.5</v>
       </c>
       <c r="F334" t="n">
-        <v>225077.6184</v>
+        <v>138337.2539</v>
       </c>
       <c r="G334" t="n">
         <v>19.48666666666671</v>
@@ -12136,10 +12622,10 @@
         <v>19.5</v>
       </c>
       <c r="F335" t="n">
-        <v>266.5426</v>
+        <v>225077.6184</v>
       </c>
       <c r="G335" t="n">
-        <v>19.48500000000005</v>
+        <v>19.48666666666671</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12162,19 +12648,19 @@
         <v>19.5</v>
       </c>
       <c r="C336" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D336" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E336" t="n">
         <v>19.5</v>
       </c>
       <c r="F336" t="n">
-        <v>268400</v>
+        <v>266.5426</v>
       </c>
       <c r="G336" t="n">
-        <v>19.48666666666671</v>
+        <v>19.48500000000005</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12194,7 +12680,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C337" t="n">
         <v>19.6</v>
@@ -12203,13 +12689,13 @@
         <v>19.6</v>
       </c>
       <c r="E337" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F337" t="n">
-        <v>150525.1688</v>
+        <v>268400</v>
       </c>
       <c r="G337" t="n">
-        <v>19.48833333333338</v>
+        <v>19.48666666666671</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12241,10 +12727,10 @@
         <v>19.6</v>
       </c>
       <c r="F338" t="n">
-        <v>4943.9692</v>
+        <v>150525.1688</v>
       </c>
       <c r="G338" t="n">
-        <v>19.49000000000004</v>
+        <v>19.48833333333338</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12276,7 +12762,7 @@
         <v>19.6</v>
       </c>
       <c r="F339" t="n">
-        <v>200</v>
+        <v>4943.9692</v>
       </c>
       <c r="G339" t="n">
         <v>19.49000000000004</v>
@@ -12311,10 +12797,10 @@
         <v>19.6</v>
       </c>
       <c r="F340" t="n">
-        <v>11700</v>
+        <v>200</v>
       </c>
       <c r="G340" t="n">
-        <v>19.49166666666671</v>
+        <v>19.49000000000004</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12337,19 +12823,19 @@
         <v>19.6</v>
       </c>
       <c r="C341" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D341" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E341" t="n">
         <v>19.6</v>
       </c>
       <c r="F341" t="n">
-        <v>760.99842699</v>
+        <v>11700</v>
       </c>
       <c r="G341" t="n">
-        <v>19.49500000000004</v>
+        <v>19.49166666666671</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12369,22 +12855,22 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C342" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D342" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E342" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F342" t="n">
-        <v>44243.5352</v>
+        <v>760.99842699</v>
       </c>
       <c r="G342" t="n">
-        <v>19.49666666666671</v>
+        <v>19.49500000000004</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12404,7 +12890,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C343" t="n">
         <v>19.6</v>
@@ -12413,13 +12899,13 @@
         <v>19.6</v>
       </c>
       <c r="E343" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F343" t="n">
-        <v>81329.42999999999</v>
+        <v>44243.5352</v>
       </c>
       <c r="G343" t="n">
-        <v>19.49833333333337</v>
+        <v>19.49666666666671</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12439,22 +12925,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C344" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D344" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E344" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F344" t="n">
-        <v>100000</v>
+        <v>81329.42999999999</v>
       </c>
       <c r="G344" t="n">
-        <v>19.49666666666671</v>
+        <v>19.49833333333337</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12474,22 +12960,22 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C345" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D345" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E345" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F345" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="G345" t="n">
-        <v>19.49833333333337</v>
+        <v>19.49666666666671</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12521,10 +13007,10 @@
         <v>19.6</v>
       </c>
       <c r="F346" t="n">
-        <v>13617.6358</v>
+        <v>10</v>
       </c>
       <c r="G346" t="n">
-        <v>19.50000000000004</v>
+        <v>19.49833333333337</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12556,10 +13042,10 @@
         <v>19.6</v>
       </c>
       <c r="F347" t="n">
-        <v>16215.6727</v>
+        <v>13617.6358</v>
       </c>
       <c r="G347" t="n">
-        <v>19.5016666666667</v>
+        <v>19.50000000000004</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12591,10 +13077,10 @@
         <v>19.6</v>
       </c>
       <c r="F348" t="n">
-        <v>10682.29591836</v>
+        <v>16215.6727</v>
       </c>
       <c r="G348" t="n">
-        <v>19.50333333333337</v>
+        <v>19.5016666666667</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -12626,10 +13112,10 @@
         <v>19.6</v>
       </c>
       <c r="F349" t="n">
-        <v>168868.39758164</v>
+        <v>10682.29591836</v>
       </c>
       <c r="G349" t="n">
-        <v>19.5066666666667</v>
+        <v>19.50333333333337</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12661,7 +13147,7 @@
         <v>19.6</v>
       </c>
       <c r="F350" t="n">
-        <v>3840</v>
+        <v>168868.39758164</v>
       </c>
       <c r="G350" t="n">
         <v>19.5066666666667</v>
@@ -12696,10 +13182,10 @@
         <v>19.6</v>
       </c>
       <c r="F351" t="n">
-        <v>54397.1887</v>
+        <v>3840</v>
       </c>
       <c r="G351" t="n">
-        <v>19.51000000000003</v>
+        <v>19.5066666666667</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -12719,22 +13205,22 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C352" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D352" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E352" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F352" t="n">
-        <v>10</v>
+        <v>54397.1887</v>
       </c>
       <c r="G352" t="n">
-        <v>19.5116666666667</v>
+        <v>19.51000000000003</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -12766,10 +13252,10 @@
         <v>19.7</v>
       </c>
       <c r="F353" t="n">
-        <v>111400</v>
+        <v>10</v>
       </c>
       <c r="G353" t="n">
-        <v>19.5166666666667</v>
+        <v>19.5116666666667</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -12801,10 +13287,10 @@
         <v>19.7</v>
       </c>
       <c r="F354" t="n">
-        <v>244738.0681</v>
+        <v>111400</v>
       </c>
       <c r="G354" t="n">
-        <v>19.5216666666667</v>
+        <v>19.5166666666667</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -12836,10 +13322,10 @@
         <v>19.7</v>
       </c>
       <c r="F355" t="n">
-        <v>202245.9115</v>
+        <v>244738.0681</v>
       </c>
       <c r="G355" t="n">
-        <v>19.5266666666667</v>
+        <v>19.5216666666667</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -12871,10 +13357,10 @@
         <v>19.7</v>
       </c>
       <c r="F356" t="n">
-        <v>47485.2157</v>
+        <v>202245.9115</v>
       </c>
       <c r="G356" t="n">
-        <v>19.53166666666669</v>
+        <v>19.5266666666667</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -12906,10 +13392,10 @@
         <v>19.7</v>
       </c>
       <c r="F357" t="n">
-        <v>115745.2029</v>
+        <v>47485.2157</v>
       </c>
       <c r="G357" t="n">
-        <v>19.53666666666669</v>
+        <v>19.53166666666669</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -12941,10 +13427,10 @@
         <v>19.7</v>
       </c>
       <c r="F358" t="n">
-        <v>13355.2284</v>
+        <v>115745.2029</v>
       </c>
       <c r="G358" t="n">
-        <v>19.54166666666669</v>
+        <v>19.53666666666669</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -12964,22 +13450,22 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C359" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D359" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E359" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F359" t="n">
-        <v>667547.0727</v>
+        <v>13355.2284</v>
       </c>
       <c r="G359" t="n">
-        <v>19.54500000000002</v>
+        <v>19.54166666666669</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -12999,22 +13485,22 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C360" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D360" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E360" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F360" t="n">
-        <v>17.2081</v>
+        <v>667547.0727</v>
       </c>
       <c r="G360" t="n">
-        <v>19.55000000000002</v>
+        <v>19.54500000000002</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -13046,10 +13532,10 @@
         <v>19.7</v>
       </c>
       <c r="F361" t="n">
-        <v>19591.6745</v>
+        <v>17.2081</v>
       </c>
       <c r="G361" t="n">
-        <v>19.55500000000002</v>
+        <v>19.55000000000002</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -13081,10 +13567,10 @@
         <v>19.7</v>
       </c>
       <c r="F362" t="n">
-        <v>393483.6503</v>
+        <v>19591.6745</v>
       </c>
       <c r="G362" t="n">
-        <v>19.56000000000002</v>
+        <v>19.55500000000002</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -13116,10 +13602,10 @@
         <v>19.7</v>
       </c>
       <c r="F363" t="n">
-        <v>232991.7849</v>
+        <v>393483.6503</v>
       </c>
       <c r="G363" t="n">
-        <v>19.56500000000002</v>
+        <v>19.56000000000002</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -13142,19 +13628,19 @@
         <v>19.7</v>
       </c>
       <c r="C364" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D364" t="n">
         <v>19.7</v>
       </c>
       <c r="E364" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F364" t="n">
-        <v>566509.537</v>
+        <v>232991.7849</v>
       </c>
       <c r="G364" t="n">
-        <v>19.56666666666668</v>
+        <v>19.56500000000002</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -13174,22 +13660,22 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C365" t="n">
         <v>19.6</v>
       </c>
       <c r="D365" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E365" t="n">
         <v>19.6</v>
       </c>
       <c r="F365" t="n">
-        <v>67621.5</v>
+        <v>566509.537</v>
       </c>
       <c r="G365" t="n">
-        <v>19.56833333333335</v>
+        <v>19.56666666666668</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -13221,10 +13707,10 @@
         <v>19.6</v>
       </c>
       <c r="F366" t="n">
-        <v>6040.875</v>
+        <v>67621.5</v>
       </c>
       <c r="G366" t="n">
-        <v>19.57000000000001</v>
+        <v>19.56833333333335</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -13244,22 +13730,22 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C367" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D367" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E367" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F367" t="n">
-        <v>64280.1269</v>
+        <v>6040.875</v>
       </c>
       <c r="G367" t="n">
-        <v>19.57333333333335</v>
+        <v>19.57000000000001</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -13291,10 +13777,10 @@
         <v>19.7</v>
       </c>
       <c r="F368" t="n">
-        <v>3807.1065</v>
+        <v>64280.1269</v>
       </c>
       <c r="G368" t="n">
-        <v>19.57666666666669</v>
+        <v>19.57333333333335</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -13314,22 +13800,22 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C369" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D369" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E369" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F369" t="n">
-        <v>10988.6318</v>
+        <v>3807.1065</v>
       </c>
       <c r="G369" t="n">
-        <v>19.57833333333335</v>
+        <v>19.57666666666669</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -13361,10 +13847,10 @@
         <v>19.6</v>
       </c>
       <c r="F370" t="n">
-        <v>176144.1829</v>
+        <v>10988.6318</v>
       </c>
       <c r="G370" t="n">
-        <v>19.58000000000002</v>
+        <v>19.57833333333335</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -13396,7 +13882,7 @@
         <v>19.6</v>
       </c>
       <c r="F371" t="n">
-        <v>50000</v>
+        <v>176144.1829</v>
       </c>
       <c r="G371" t="n">
         <v>19.58000000000002</v>
@@ -13425,16 +13911,16 @@
         <v>19.6</v>
       </c>
       <c r="D372" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E372" t="n">
         <v>19.6</v>
       </c>
       <c r="F372" t="n">
-        <v>973582.2476</v>
+        <v>50000</v>
       </c>
       <c r="G372" t="n">
-        <v>19.58166666666668</v>
+        <v>19.58000000000002</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -13460,16 +13946,16 @@
         <v>19.6</v>
       </c>
       <c r="D373" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E373" t="n">
         <v>19.6</v>
       </c>
       <c r="F373" t="n">
-        <v>458.9162</v>
+        <v>973582.2476</v>
       </c>
       <c r="G373" t="n">
-        <v>19.58500000000001</v>
+        <v>19.58166666666668</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -13492,19 +13978,19 @@
         <v>19.6</v>
       </c>
       <c r="C374" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D374" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E374" t="n">
         <v>19.6</v>
       </c>
       <c r="F374" t="n">
-        <v>275482.4683</v>
+        <v>458.9162</v>
       </c>
       <c r="G374" t="n">
-        <v>19.58833333333335</v>
+        <v>19.58500000000001</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -13524,7 +14010,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C375" t="n">
         <v>19.7</v>
@@ -13533,13 +14019,13 @@
         <v>19.7</v>
       </c>
       <c r="E375" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F375" t="n">
-        <v>55068.8324</v>
+        <v>275482.4683</v>
       </c>
       <c r="G375" t="n">
-        <v>19.59166666666668</v>
+        <v>19.58833333333335</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -13559,22 +14045,22 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C376" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D376" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E376" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F376" t="n">
-        <v>158206.9041</v>
+        <v>55068.8324</v>
       </c>
       <c r="G376" t="n">
-        <v>19.59333333333334</v>
+        <v>19.59166666666668</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -13606,10 +14092,10 @@
         <v>19.6</v>
       </c>
       <c r="F377" t="n">
-        <v>131130.7785</v>
+        <v>158206.9041</v>
       </c>
       <c r="G377" t="n">
-        <v>19.59500000000001</v>
+        <v>19.59333333333334</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -13629,19 +14115,19 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C378" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D378" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E378" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F378" t="n">
-        <v>189.247</v>
+        <v>131130.7785</v>
       </c>
       <c r="G378" t="n">
         <v>19.59500000000001</v>
@@ -13667,19 +14153,19 @@
         <v>19.5</v>
       </c>
       <c r="C379" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D379" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E379" t="n">
         <v>19.5</v>
       </c>
       <c r="F379" t="n">
-        <v>33609.3395</v>
+        <v>189.247</v>
       </c>
       <c r="G379" t="n">
-        <v>19.59666666666667</v>
+        <v>19.59500000000001</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -13702,7 +14188,7 @@
         <v>19.5</v>
       </c>
       <c r="C380" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D380" t="n">
         <v>19.6</v>
@@ -13711,7 +14197,7 @@
         <v>19.5</v>
       </c>
       <c r="F380" t="n">
-        <v>5122663.8907</v>
+        <v>33609.3395</v>
       </c>
       <c r="G380" t="n">
         <v>19.59666666666667</v>
@@ -13734,22 +14220,22 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C381" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D381" t="n">
         <v>19.6</v>
       </c>
       <c r="E381" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F381" t="n">
-        <v>15</v>
+        <v>5122663.8907</v>
       </c>
       <c r="G381" t="n">
-        <v>19.59833333333334</v>
+        <v>19.59666666666667</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -13781,10 +14267,10 @@
         <v>19.6</v>
       </c>
       <c r="F382" t="n">
-        <v>257325.2949</v>
+        <v>15</v>
       </c>
       <c r="G382" t="n">
-        <v>19.6</v>
+        <v>19.59833333333334</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -13816,10 +14302,10 @@
         <v>19.6</v>
       </c>
       <c r="F383" t="n">
-        <v>87363.10390204001</v>
+        <v>257325.2949</v>
       </c>
       <c r="G383" t="n">
-        <v>19.60166666666667</v>
+        <v>19.6</v>
       </c>
       <c r="H383" t="n">
         <v>0</v>
@@ -13839,7 +14325,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C384" t="n">
         <v>19.6</v>
@@ -13848,13 +14334,13 @@
         <v>19.6</v>
       </c>
       <c r="E384" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F384" t="n">
-        <v>20</v>
+        <v>87363.10390204001</v>
       </c>
       <c r="G384" t="n">
-        <v>19.60333333333334</v>
+        <v>19.60166666666667</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -13874,7 +14360,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C385" t="n">
         <v>19.6</v>
@@ -13883,13 +14369,13 @@
         <v>19.6</v>
       </c>
       <c r="E385" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F385" t="n">
-        <v>157394.7193</v>
+        <v>20</v>
       </c>
       <c r="G385" t="n">
-        <v>19.605</v>
+        <v>19.60333333333334</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -13921,10 +14407,10 @@
         <v>19.6</v>
       </c>
       <c r="F386" t="n">
-        <v>51041.25</v>
+        <v>157394.7193</v>
       </c>
       <c r="G386" t="n">
-        <v>19.60666666666667</v>
+        <v>19.605</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -13956,10 +14442,10 @@
         <v>19.6</v>
       </c>
       <c r="F387" t="n">
-        <v>268690.7018</v>
+        <v>51041.25</v>
       </c>
       <c r="G387" t="n">
-        <v>19.60833333333333</v>
+        <v>19.60666666666667</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -13991,10 +14477,10 @@
         <v>19.6</v>
       </c>
       <c r="F388" t="n">
-        <v>324308.2755</v>
+        <v>268690.7018</v>
       </c>
       <c r="G388" t="n">
-        <v>19.61</v>
+        <v>19.60833333333333</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -14026,10 +14512,10 @@
         <v>19.6</v>
       </c>
       <c r="F389" t="n">
-        <v>71428.5714</v>
+        <v>324308.2755</v>
       </c>
       <c r="G389" t="n">
-        <v>19.61166666666666</v>
+        <v>19.61</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -14049,19 +14535,19 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C390" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="D390" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="E390" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F390" t="n">
-        <v>54.5411</v>
+        <v>71428.5714</v>
       </c>
       <c r="G390" t="n">
         <v>19.61166666666666</v>
@@ -14096,7 +14582,7 @@
         <v>19.5</v>
       </c>
       <c r="F391" t="n">
-        <v>15650.8283</v>
+        <v>54.5411</v>
       </c>
       <c r="G391" t="n">
         <v>19.61166666666666</v>
@@ -14131,7 +14617,7 @@
         <v>19.5</v>
       </c>
       <c r="F392" t="n">
-        <v>850</v>
+        <v>15650.8283</v>
       </c>
       <c r="G392" t="n">
         <v>19.61166666666666</v>
@@ -14154,22 +14640,22 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C393" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D393" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="E393" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F393" t="n">
-        <v>30709</v>
+        <v>850</v>
       </c>
       <c r="G393" t="n">
-        <v>19.61333333333333</v>
+        <v>19.61166666666666</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -14189,7 +14675,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="C394" t="n">
         <v>19.6</v>
@@ -14198,13 +14684,13 @@
         <v>19.6</v>
       </c>
       <c r="E394" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F394" t="n">
-        <v>166464.6261</v>
+        <v>30709</v>
       </c>
       <c r="G394" t="n">
-        <v>19.61499999999999</v>
+        <v>19.61333333333333</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -14224,7 +14710,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="C395" t="n">
         <v>19.6</v>
@@ -14233,13 +14719,13 @@
         <v>19.6</v>
       </c>
       <c r="E395" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="F395" t="n">
-        <v>22302.0408</v>
+        <v>166464.6261</v>
       </c>
       <c r="G395" t="n">
-        <v>19.61666666666666</v>
+        <v>19.61499999999999</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -14271,7 +14757,7 @@
         <v>19.6</v>
       </c>
       <c r="F396" t="n">
-        <v>73352</v>
+        <v>22302.0408</v>
       </c>
       <c r="G396" t="n">
         <v>19.61666666666666</v>
@@ -14306,7 +14792,7 @@
         <v>19.6</v>
       </c>
       <c r="F397" t="n">
-        <v>7777</v>
+        <v>73352</v>
       </c>
       <c r="G397" t="n">
         <v>19.61666666666666</v>
@@ -14341,7 +14827,7 @@
         <v>19.6</v>
       </c>
       <c r="F398" t="n">
-        <v>28950.4081</v>
+        <v>7777</v>
       </c>
       <c r="G398" t="n">
         <v>19.61666666666666</v>
@@ -14376,7 +14862,7 @@
         <v>19.6</v>
       </c>
       <c r="F399" t="n">
-        <v>430086.5306</v>
+        <v>28950.4081</v>
       </c>
       <c r="G399" t="n">
         <v>19.61666666666666</v>
@@ -14411,7 +14897,7 @@
         <v>19.6</v>
       </c>
       <c r="F400" t="n">
-        <v>56586.5407</v>
+        <v>430086.5306</v>
       </c>
       <c r="G400" t="n">
         <v>19.61666666666666</v>
@@ -14446,10 +14932,10 @@
         <v>19.6</v>
       </c>
       <c r="F401" t="n">
-        <v>1680</v>
+        <v>56586.5407</v>
       </c>
       <c r="G401" t="n">
-        <v>19.61499999999999</v>
+        <v>19.61666666666666</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -14469,22 +14955,22 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C402" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D402" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E402" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F402" t="n">
-        <v>15608.6802</v>
+        <v>1680</v>
       </c>
       <c r="G402" t="n">
-        <v>19.61666666666666</v>
+        <v>19.61499999999999</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -14516,10 +15002,10 @@
         <v>19.7</v>
       </c>
       <c r="F403" t="n">
-        <v>50761.4213</v>
+        <v>15608.6802</v>
       </c>
       <c r="G403" t="n">
-        <v>19.61833333333333</v>
+        <v>19.61666666666666</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -14539,22 +15025,22 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C404" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D404" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E404" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F404" t="n">
-        <v>69095.71550000001</v>
+        <v>50761.4213</v>
       </c>
       <c r="G404" t="n">
-        <v>19.61999999999999</v>
+        <v>19.61833333333333</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -14574,19 +15060,19 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C405" t="n">
         <v>19.6</v>
       </c>
       <c r="D405" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E405" t="n">
         <v>19.6</v>
       </c>
       <c r="F405" t="n">
-        <v>20972.5</v>
+        <v>69095.71550000001</v>
       </c>
       <c r="G405" t="n">
         <v>19.61999999999999</v>
@@ -14609,19 +15095,19 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C406" t="n">
         <v>19.6</v>
       </c>
       <c r="D406" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E406" t="n">
         <v>19.6</v>
       </c>
       <c r="F406" t="n">
-        <v>169800</v>
+        <v>20972.5</v>
       </c>
       <c r="G406" t="n">
         <v>19.61999999999999</v>
@@ -14656,7 +15142,7 @@
         <v>19.6</v>
       </c>
       <c r="F407" t="n">
-        <v>31139.9764</v>
+        <v>169800</v>
       </c>
       <c r="G407" t="n">
         <v>19.61999999999999</v>
@@ -14691,7 +15177,7 @@
         <v>19.6</v>
       </c>
       <c r="F408" t="n">
-        <v>4911.1056</v>
+        <v>31139.9764</v>
       </c>
       <c r="G408" t="n">
         <v>19.61999999999999</v>
@@ -14726,7 +15212,7 @@
         <v>19.6</v>
       </c>
       <c r="F409" t="n">
-        <v>6714.832</v>
+        <v>4911.1056</v>
       </c>
       <c r="G409" t="n">
         <v>19.61999999999999</v>
@@ -14749,22 +15235,22 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C410" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D410" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E410" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F410" t="n">
-        <v>111.01522842</v>
+        <v>6714.832</v>
       </c>
       <c r="G410" t="n">
-        <v>19.62166666666666</v>
+        <v>19.61999999999999</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -14796,10 +15282,10 @@
         <v>19.7</v>
       </c>
       <c r="F411" t="n">
-        <v>375700.1015</v>
+        <v>111.01522842</v>
       </c>
       <c r="G411" t="n">
-        <v>19.62333333333333</v>
+        <v>19.62166666666666</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -14831,7 +15317,7 @@
         <v>19.7</v>
       </c>
       <c r="F412" t="n">
-        <v>3116.7765</v>
+        <v>375700.1015</v>
       </c>
       <c r="G412" t="n">
         <v>19.62333333333333</v>
@@ -14866,7 +15352,7 @@
         <v>19.7</v>
       </c>
       <c r="F413" t="n">
-        <v>120724.6673</v>
+        <v>3116.7765</v>
       </c>
       <c r="G413" t="n">
         <v>19.62333333333333</v>
@@ -14901,7 +15387,7 @@
         <v>19.7</v>
       </c>
       <c r="F414" t="n">
-        <v>100000</v>
+        <v>120724.6673</v>
       </c>
       <c r="G414" t="n">
         <v>19.62333333333333</v>
@@ -14936,7 +15422,7 @@
         <v>19.7</v>
       </c>
       <c r="F415" t="n">
-        <v>66369.39079999999</v>
+        <v>100000</v>
       </c>
       <c r="G415" t="n">
         <v>19.62333333333333</v>
@@ -14971,7 +15457,7 @@
         <v>19.7</v>
       </c>
       <c r="F416" t="n">
-        <v>10</v>
+        <v>66369.39079999999</v>
       </c>
       <c r="G416" t="n">
         <v>19.62333333333333</v>
@@ -14994,22 +15480,22 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C417" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D417" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E417" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F417" t="n">
-        <v>16585.235</v>
+        <v>10</v>
       </c>
       <c r="G417" t="n">
-        <v>19.62166666666666</v>
+        <v>19.62333333333333</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -15041,10 +15527,10 @@
         <v>19.6</v>
       </c>
       <c r="F418" t="n">
-        <v>59601.4152</v>
+        <v>16585.235</v>
       </c>
       <c r="G418" t="n">
-        <v>19.61999999999999</v>
+        <v>19.62166666666666</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -15064,22 +15550,22 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="C419" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D419" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E419" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="F419" t="n">
-        <v>3580.3553</v>
+        <v>59601.4152</v>
       </c>
       <c r="G419" t="n">
-        <v>19.62166666666666</v>
+        <v>19.61999999999999</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -15099,22 +15585,22 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="C420" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="D420" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="E420" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="F420" t="n">
-        <v>19487.9108</v>
+        <v>3580.3553</v>
       </c>
       <c r="G420" t="n">
-        <v>19.61999999999999</v>
+        <v>19.62166666666666</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -15146,10 +15632,10 @@
         <v>19.6</v>
       </c>
       <c r="F421" t="n">
-        <v>163699.6292</v>
+        <v>19487.9108</v>
       </c>
       <c r="G421" t="n">
-        <v>19.61833333333332</v>
+        <v>19.61999999999999</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -15164,6 +15650,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C422" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D422" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E422" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F422" t="n">
+        <v>163699.6292</v>
+      </c>
+      <c r="G422" t="n">
+        <v>19.61833333333332</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-14 BackTest TRX.xlsx
+++ b/BackTest/2019-10-14 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>294066.3435</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>354066.3435</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>19.1</v>
@@ -521,7 +521,7 @@
         <v>354066.3435</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>19.2</v>
@@ -562,9 +562,11 @@
         <v>354066.3435</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J5" t="n">
         <v>19.1</v>
       </c>
@@ -601,7 +603,7 @@
         <v>354066.3435</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>19.2</v>
@@ -642,9 +644,11 @@
         <v>350788.1453</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J7" t="n">
         <v>19.1</v>
       </c>
@@ -681,9 +685,11 @@
         <v>1814124.2601</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19.1</v>
+      </c>
       <c r="J8" t="n">
         <v>19.1</v>
       </c>
@@ -720,9 +726,11 @@
         <v>1814124.2601</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.3</v>
+      </c>
       <c r="J9" t="n">
         <v>19.1</v>
       </c>
@@ -7584,11 +7592,9 @@
         <v>1662771.900127471</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>19.1</v>
       </c>
@@ -8054,11 +8060,9 @@
         <v>1703474.736292911</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>19.1</v>
       </c>
@@ -8212,11 +8216,9 @@
         <v>1614312.808892911</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>19.1</v>
       </c>
@@ -8994,11 +8996,9 @@
         <v>1715717.962375631</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>19.1</v>
       </c>
@@ -9035,11 +9035,9 @@
         <v>1715717.962375631</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
         <v>19.1</v>
       </c>
@@ -9115,11 +9113,9 @@
         <v>1819901.225475631</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>19.1</v>
       </c>
@@ -9156,11 +9152,9 @@
         <v>1819901.225475631</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>19.1</v>
       </c>
@@ -9197,11 +9191,9 @@
         <v>1819901.225475631</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>19.1</v>
       </c>
@@ -9238,11 +9230,9 @@
         <v>2252551.988175632</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>19.1</v>
       </c>
@@ -9279,11 +9269,9 @@
         <v>2252551.988175632</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>19.1</v>
       </c>
@@ -9320,11 +9308,9 @@
         <v>2252551.988175632</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>19.1</v>
       </c>
@@ -9361,11 +9347,9 @@
         <v>2252551.988175632</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
         <v>19.1</v>
       </c>
@@ -9480,11 +9464,9 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>19.1</v>
       </c>
@@ -9521,11 +9503,9 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>19.1</v>
       </c>
@@ -9601,11 +9581,9 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>19.1</v>
       </c>
@@ -9681,11 +9659,9 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>19.1</v>
       </c>
@@ -9761,11 +9737,9 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
         <v>19.1</v>
       </c>
@@ -9802,11 +9776,9 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
         <v>19.1</v>
       </c>
@@ -9843,11 +9815,9 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>19.1</v>
       </c>
@@ -9884,11 +9854,9 @@
         <v>1906870.033575631</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
         <v>19.1</v>
       </c>
@@ -9925,11 +9893,9 @@
         <v>1908165.223075631</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>19.1</v>
       </c>
@@ -9966,11 +9932,9 @@
         <v>1437689.065275631</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
         <v>19.1</v>
       </c>
@@ -10007,11 +9971,9 @@
         <v>1437689.065275631</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>19.1</v>
       </c>
@@ -10087,11 +10049,9 @@
         <v>1449415.160375631</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
         <v>19.1</v>
       </c>
@@ -10401,11 +10361,9 @@
         <v>1531576.094396682</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
         <v>19.1</v>
       </c>
@@ -10442,11 +10400,9 @@
         <v>1531576.094396682</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
         <v>19.1</v>
       </c>
@@ -10483,11 +10439,9 @@
         <v>1532099.654606102</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
         <v>19.1</v>
       </c>
@@ -10524,11 +10478,9 @@
         <v>1532099.654606102</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
         <v>19.1</v>
       </c>
@@ -12437,7 +12389,7 @@
         <v>1521362.023806101</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
@@ -12445,11 +12397,11 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L308" t="n">
-        <v>1</v>
+        <v>1.031649214659686</v>
       </c>
       <c r="M308" t="inlineStr"/>
     </row>
@@ -12476,17 +12428,11 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12515,17 +12461,11 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12554,17 +12494,11 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12593,17 +12527,11 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12632,17 +12560,11 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12671,17 +12593,11 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12710,17 +12626,11 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12749,17 +12659,11 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12788,17 +12692,11 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12827,17 +12725,11 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12866,17 +12758,11 @@
         <v>1033585.987706101</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12905,17 +12791,11 @@
         <v>848728.6291061008</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12944,17 +12824,11 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12983,17 +12857,11 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13022,17 +12890,11 @@
         <v>1723052.321706101</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13061,17 +12923,11 @@
         <v>1621915.381206101</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13100,17 +12956,11 @@
         <v>1641915.381206101</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13139,17 +12989,11 @@
         <v>1606268.888106101</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13181,14 +13025,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13220,14 +13058,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13259,14 +13091,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13298,14 +13124,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13337,14 +13157,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13376,14 +13190,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13415,14 +13223,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13454,14 +13256,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13493,14 +13289,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13532,14 +13322,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13571,14 +13355,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13610,14 +13388,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13646,17 +13418,11 @@
         <v>1085745.373579561</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13685,17 +13451,11 @@
         <v>1085745.373579561</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13724,17 +13484,11 @@
         <v>1085745.373579561</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13763,17 +13517,11 @@
         <v>1085745.373579561</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13802,17 +13550,11 @@
         <v>1085755.373579561</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13841,17 +13583,11 @@
         <v>1053142.553079561</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13880,17 +13616,11 @@
         <v>1053142.553079561</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13919,17 +13649,11 @@
         <v>1053142.553079561</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13958,17 +13682,11 @@
         <v>1053142.553079561</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13997,17 +13715,11 @@
         <v>1048782.112879561</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14036,17 +13748,11 @@
         <v>1048834.051579561</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14075,17 +13781,11 @@
         <v>1048207.576879561</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14114,17 +13814,11 @@
         <v>1079872.592061191</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14153,17 +13847,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14192,17 +13880,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14231,17 +13913,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14270,17 +13946,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14309,17 +13979,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14348,17 +14012,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14390,14 +14048,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14426,17 +14078,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14465,17 +14111,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14504,17 +14144,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14543,17 +14177,11 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14582,17 +14210,11 @@
         <v>1079591.089661191</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14624,14 +14246,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14663,14 +14279,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14702,14 +14312,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14741,14 +14345,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14780,14 +14378,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14819,14 +14411,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14858,14 +14444,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14894,17 +14474,11 @@
         <v>761316.7510611907</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14936,14 +14510,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14975,14 +14543,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15014,14 +14576,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15053,14 +14609,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15092,14 +14642,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15131,14 +14675,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15170,14 +14708,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15209,14 +14741,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15248,14 +14774,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15287,14 +14807,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15326,14 +14840,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15365,14 +14873,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15404,14 +14906,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15443,14 +14939,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15482,14 +14972,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15521,14 +15005,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15560,14 +15038,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15599,14 +15071,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15638,14 +15104,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15677,14 +15137,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15716,14 +15170,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15755,14 +15203,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15794,14 +15236,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15833,14 +15269,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15872,14 +15302,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15911,14 +15335,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15950,14 +15368,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15989,14 +15401,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16028,14 +15434,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16067,14 +15467,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16106,14 +15500,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16145,14 +15533,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16184,14 +15566,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16223,14 +15599,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16262,14 +15632,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16301,14 +15665,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16337,17 +15695,11 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16376,17 +15728,11 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16415,17 +15761,11 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16454,17 +15794,11 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16493,17 +15827,11 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16532,19 +15860,13 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
-        <v>1.026413612565445</v>
+        <v>1</v>
       </c>
       <c r="M413" t="inlineStr"/>
     </row>
@@ -16571,7 +15893,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16604,7 +15926,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16637,7 +15959,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16670,7 +15992,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16703,7 +16025,7 @@
         <v>684189.0271881806</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16736,7 +16058,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16769,7 +16091,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16802,7 +16124,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16835,7 +16157,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16868,7 +16190,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16901,7 +16223,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16934,7 +16256,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16967,7 +16289,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -17000,7 +16322,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -17033,7 +16355,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -17066,7 +16388,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -17099,7 +16421,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17132,7 +16454,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -17165,7 +16487,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17198,7 +16520,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17231,7 +16553,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17264,7 +16586,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17297,7 +16619,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17330,7 +16652,7 @@
         <v>288074.5105881806</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17363,7 +16685,7 @@
         <v>321683.8500881806</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17396,7 +16718,7 @@
         <v>-4800980.040611819</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17429,7 +16751,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17462,7 +16784,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17495,7 +16817,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17693,7 +17015,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17726,7 +17048,7 @@
         <v>-4801019.581711819</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17759,7 +17081,7 @@
         <v>-4801019.581711819</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17792,7 +17114,7 @@
         <v>-4801019.581711819</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17825,7 +17147,7 @@
         <v>-4770310.581711819</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -19090,6 +18412,6 @@
       <c r="M490" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest TRX.xlsx
+++ b/BackTest/2019-10-14 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -644,11 +644,9 @@
         <v>350788.1453</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>19.1</v>
       </c>
@@ -726,11 +724,9 @@
         <v>1814124.2601</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>19.1</v>
       </c>
@@ -923,7 +919,7 @@
         <v>1810605.846</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
@@ -1001,7 +997,7 @@
         <v>2626989.106</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -1009,11 +1005,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>1.005471204188482</v>
       </c>
       <c r="M16" t="inlineStr"/>
     </row>
@@ -1040,17 +1036,11 @@
         <v>2426989.106</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +1072,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1118,17 +1102,11 @@
         <v>2483187.7837</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1157,17 +1135,11 @@
         <v>2483187.7837</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1199,14 +1171,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1204,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1274,17 +1234,11 @@
         <v>2740021.94360721</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1270,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1355,14 +1303,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1394,14 +1336,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1433,14 +1369,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1511,14 +1435,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1550,14 +1468,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1589,14 +1501,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1628,14 +1534,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1667,14 +1567,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1706,14 +1600,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1745,14 +1633,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1784,14 +1666,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1823,14 +1699,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1732,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1901,14 +1765,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1940,14 +1798,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1979,14 +1831,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2018,14 +1864,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1897,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1930,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +1963,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +1996,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2213,14 +2029,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +2062,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2291,14 +2095,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2128,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2161,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +2194,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2447,14 +2227,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2486,14 +2260,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2525,14 +2293,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2564,14 +2326,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2603,14 +2359,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2642,14 +2392,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2681,14 +2425,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2720,14 +2458,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2759,14 +2491,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2798,14 +2524,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2837,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2590,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2915,14 +2623,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2954,14 +2656,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2689,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2722,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2755,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2788,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +2821,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3188,14 +2854,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3227,14 +2887,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3266,14 +2920,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3305,14 +2953,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3344,14 +2986,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3383,14 +3019,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3422,14 +3052,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +3085,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3500,14 +3118,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3539,14 +3151,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3578,14 +3184,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3617,14 +3217,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3656,14 +3250,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3695,14 +3283,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3316,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3773,14 +3349,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3812,14 +3382,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3448,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3481,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3514,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3547,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3580,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3613,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +3646,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3679,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4202,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4241,14 +3745,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4280,14 +3778,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4319,14 +3811,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +3844,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4397,14 +3877,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4436,14 +3910,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4475,14 +3943,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4514,14 +3976,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4553,14 +4009,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4592,14 +4042,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4631,14 +4075,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4670,14 +4108,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4709,14 +4141,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4748,14 +4174,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4787,14 +4207,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4826,14 +4240,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4865,14 +4273,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4904,14 +4306,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4943,14 +4339,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4982,14 +4372,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5021,14 +4405,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5060,14 +4438,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5099,14 +4471,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5138,14 +4504,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5177,14 +4537,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5255,14 +4603,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +4636,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5333,14 +4669,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5372,14 +4702,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5411,14 +4735,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +4768,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5489,14 +4801,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5528,14 +4834,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5567,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5606,14 +4900,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5645,14 +4933,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5684,14 +4966,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5723,14 +4999,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5762,14 +5032,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5801,14 +5065,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5840,14 +5098,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5879,14 +5131,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5918,14 +5164,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5957,14 +5197,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5996,14 +5230,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6035,14 +5263,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6074,14 +5296,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6113,14 +5329,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6152,14 +5362,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6191,14 +5395,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6230,14 +5428,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6269,14 +5461,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6308,14 +5494,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6347,14 +5527,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6386,14 +5560,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6425,14 +5593,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6464,14 +5626,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +5659,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6542,14 +5692,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6581,14 +5725,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6620,14 +5758,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6659,14 +5791,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +5824,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6737,14 +5857,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6776,14 +5890,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6815,14 +5923,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6854,14 +5956,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +5989,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6932,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6971,14 +6055,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7010,14 +6088,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7049,14 +6121,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7088,14 +6154,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7127,14 +6187,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7166,14 +6220,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7205,14 +6253,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +6286,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7283,14 +6319,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7322,14 +6352,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7361,14 +6385,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7400,14 +6418,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7439,14 +6451,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +6484,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7517,14 +6517,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7556,14 +6550,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7595,14 +6583,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7634,14 +6616,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7673,14 +6649,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7712,14 +6682,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7751,14 +6715,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7787,17 +6745,15 @@
         <v>1662771.900127471</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>19</v>
+      </c>
       <c r="J190" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7826,15 +6782,17 @@
         <v>1662846.900127471</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>19</v>
+      </c>
       <c r="J191" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -7869,11 +6827,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -7907,14 +6865,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7943,17 +6895,15 @@
         <v>1541151.123727471</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>19</v>
+      </c>
       <c r="J194" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +6936,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -8025,11 +6975,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -8063,14 +7013,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8102,14 +7046,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8141,14 +7079,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +7112,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8216,17 +7142,15 @@
         <v>1614312.808892911</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>18.9</v>
+      </c>
       <c r="J201" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>18.9</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8255,15 +7179,17 @@
         <v>1699212.808892911</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>19</v>
+      </c>
       <c r="J202" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
@@ -8298,11 +7224,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -8336,14 +7262,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8375,14 +7295,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8414,14 +7328,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8453,14 +7361,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8492,14 +7394,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8531,14 +7427,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8570,14 +7460,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8609,14 +7493,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8648,14 +7526,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8687,14 +7559,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8726,14 +7592,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8765,14 +7625,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8804,14 +7658,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8843,14 +7691,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8882,14 +7724,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8921,14 +7757,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8960,14 +7790,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8999,14 +7823,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9038,14 +7856,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9077,14 +7889,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9116,14 +7922,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9155,14 +7955,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9191,17 +7985,15 @@
         <v>1819901.225475631</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>19</v>
+      </c>
       <c r="J226" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +8026,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -9273,7 +8065,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9312,7 +8104,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9351,7 +8143,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9390,7 +8182,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9429,7 +8221,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9468,7 +8260,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9507,7 +8299,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9546,7 +8338,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9585,7 +8377,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9624,7 +8416,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9663,7 +8455,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9702,7 +8494,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9741,7 +8533,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9780,7 +8572,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9819,7 +8611,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9858,7 +8650,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9897,7 +8689,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9936,7 +8728,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9975,7 +8767,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10014,7 +8806,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10053,7 +8845,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10092,7 +8884,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10131,7 +8923,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10170,7 +8962,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10209,7 +9001,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10248,7 +9040,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10287,7 +9079,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10326,7 +9118,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10365,7 +9157,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10400,11 +9192,13 @@
         <v>1531576.094396682</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>19</v>
+      </c>
       <c r="J257" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10443,7 +9237,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10482,7 +9276,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10521,7 +9315,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10560,7 +9354,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10599,7 +9393,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10638,7 +9432,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10677,7 +9471,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10716,7 +9510,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10755,7 +9549,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10794,7 +9588,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10833,7 +9627,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10872,7 +9666,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10911,7 +9705,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10950,7 +9744,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10989,7 +9783,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11028,7 +9822,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11063,19 +9857,19 @@
         <v>1153869.436206102</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>1</v>
+        <v>1.010789473684211</v>
       </c>
       <c r="M274" t="inlineStr"/>
     </row>
@@ -11102,17 +9896,11 @@
         <v>1153869.436206102</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11144,14 +9932,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11183,14 +9965,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11222,14 +9998,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11261,14 +10031,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11300,14 +10064,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11336,17 +10094,11 @@
         <v>1123307.567806101</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11375,17 +10127,11 @@
         <v>1123307.567806101</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11414,17 +10160,11 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11453,17 +10193,11 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11492,17 +10226,11 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11531,17 +10259,11 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11570,17 +10292,11 @@
         <v>1431209.566206101</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11609,17 +10325,11 @@
         <v>1429678.403706101</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11648,17 +10358,11 @@
         <v>1430052.179206101</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11687,17 +10391,11 @@
         <v>1916265.946006101</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11729,14 +10427,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11765,17 +10457,11 @@
         <v>1638821.102006101</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11804,17 +10490,11 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11843,17 +10523,11 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11882,17 +10556,11 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11921,17 +10589,11 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11960,17 +10622,11 @@
         <v>1738837.326406101</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12002,14 +10658,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12041,14 +10691,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12080,14 +10724,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12119,14 +10757,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12158,14 +10790,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12197,14 +10823,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12236,14 +10856,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12275,14 +10889,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12314,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12353,14 +10955,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12389,19 +10985,13 @@
         <v>1521362.023806101</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
-        <v>1.031649214659686</v>
+        <v>1</v>
       </c>
       <c r="M308" t="inlineStr"/>
     </row>
@@ -12428,7 +11018,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12461,7 +11051,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12494,7 +11084,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12527,7 +11117,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12560,7 +11150,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12593,7 +11183,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12626,7 +11216,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12659,7 +11249,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12692,7 +11282,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12725,7 +11315,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12758,7 +11348,7 @@
         <v>1033585.987706101</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12791,7 +11381,7 @@
         <v>848728.6291061008</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12824,7 +11414,7 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12857,7 +11447,7 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12890,7 +11480,7 @@
         <v>1723052.321706101</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12923,7 +11513,7 @@
         <v>1621915.381206101</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12956,7 +11546,7 @@
         <v>1641915.381206101</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12989,7 +11579,7 @@
         <v>1606268.888106101</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -13451,7 +12041,7 @@
         <v>1085745.373579561</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13484,7 +12074,7 @@
         <v>1085745.373579561</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13517,7 +12107,7 @@
         <v>1085745.373579561</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13550,7 +12140,7 @@
         <v>1085755.373579561</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13583,7 +12173,7 @@
         <v>1053142.553079561</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13616,7 +12206,7 @@
         <v>1053142.553079561</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13649,7 +12239,7 @@
         <v>1053142.553079561</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13682,7 +12272,7 @@
         <v>1053142.553079561</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13715,7 +12305,7 @@
         <v>1048782.112879561</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13748,7 +12338,7 @@
         <v>1048834.051579561</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13781,7 +12371,7 @@
         <v>1048207.576879561</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13913,7 +12503,7 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13946,7 +12536,7 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13979,7 +12569,7 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14012,7 +12602,7 @@
         <v>1064591.089661191</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -15695,7 +14285,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15728,7 +14318,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15761,7 +14351,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15794,7 +14384,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15827,7 +14417,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15860,7 +14450,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15893,7 +14483,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15926,7 +14516,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15959,7 +14549,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15992,7 +14582,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16025,7 +14615,7 @@
         <v>684189.0271881806</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16058,7 +14648,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16091,7 +14681,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16124,7 +14714,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16157,7 +14747,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16190,7 +14780,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16223,7 +14813,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16256,7 +14846,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16289,7 +14879,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16322,7 +14912,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16355,7 +14945,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16388,7 +14978,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16421,7 +15011,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16454,7 +15044,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16487,7 +15077,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16520,7 +15110,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16553,7 +15143,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16586,7 +15176,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16619,7 +15209,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16652,7 +15242,7 @@
         <v>288074.5105881806</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16685,7 +15275,7 @@
         <v>321683.8500881806</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16718,7 +15308,7 @@
         <v>-4800980.040611819</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16751,7 +15341,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16784,7 +15374,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16817,7 +15407,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17015,7 +15605,7 @@
         <v>-4800965.040611819</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17048,7 +15638,7 @@
         <v>-4801019.581711819</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17081,7 +15671,7 @@
         <v>-4801019.581711819</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17114,7 +15704,7 @@
         <v>-4801019.581711819</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17147,7 +15737,7 @@
         <v>-4770310.581711819</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18412,6 +17002,6 @@
       <c r="M490" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest TRX.xlsx
+++ b/BackTest/2019-10-14 BackTest TRX.xlsx
@@ -484,14 +484,10 @@
         <v>354066.3435</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -526,9 +522,7 @@
       <c r="I4" t="n">
         <v>19.2</v>
       </c>
-      <c r="J4" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -562,14 +556,10 @@
         <v>354066.3435</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -603,14 +593,10 @@
         <v>354066.3435</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -647,9 +633,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -683,14 +667,10 @@
         <v>1814124.2601</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -727,9 +707,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -766,9 +744,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -805,9 +781,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -844,9 +818,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -883,9 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -919,12 +889,10 @@
         <v>1810605.846</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -961,9 +929,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -997,19 +963,17 @@
         <v>2626989.106</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.005471204188482</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
     </row>
@@ -1036,11 +1000,15 @@
         <v>2426989.106</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1073,7 +1041,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1102,11 +1074,15 @@
         <v>2483187.7837</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1135,11 +1111,15 @@
         <v>2483187.7837</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1172,7 +1152,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1205,7 +1189,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,11 +1222,15 @@
         <v>2740021.94360721</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,7 +1263,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,7 +1300,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1337,7 +1337,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1370,7 +1374,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1411,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1436,7 +1448,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1469,7 +1485,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1502,7 +1522,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1535,7 +1559,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1568,7 +1596,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1601,7 +1633,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1634,7 +1670,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1667,7 +1707,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1700,7 +1744,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1733,7 +1781,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1766,7 +1818,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1799,7 +1855,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1832,7 +1892,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1865,7 +1929,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1898,7 +1966,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1931,7 +2003,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1964,7 +2040,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1997,7 +2077,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2030,7 +2114,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2063,7 +2151,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2096,7 +2188,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2129,7 +2225,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2162,7 +2262,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2195,7 +2299,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2228,7 +2336,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2261,7 +2373,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2294,7 +2410,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2327,7 +2447,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2360,7 +2484,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2393,7 +2521,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2426,7 +2558,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2459,7 +2595,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2492,7 +2632,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2525,7 +2669,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2706,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2591,7 +2743,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2624,7 +2780,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2657,7 +2817,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2690,7 +2854,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2723,7 +2891,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2756,7 +2928,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2789,7 +2965,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2822,7 +3002,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2855,7 +3039,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2888,7 +3076,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2921,7 +3113,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2954,7 +3150,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2987,7 +3187,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3020,7 +3224,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3053,7 +3261,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3086,7 +3298,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3119,7 +3335,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3152,7 +3372,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3185,7 +3409,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3218,7 +3446,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3251,7 +3483,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3284,7 +3520,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3317,7 +3557,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3350,7 +3594,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3383,7 +3631,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3416,7 +3668,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3449,7 +3705,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3482,7 +3742,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3515,7 +3779,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3548,7 +3816,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3581,7 +3853,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3614,7 +3890,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3647,7 +3927,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3680,7 +3964,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +4001,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3746,7 +4038,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3779,7 +4075,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3812,7 +4112,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3845,7 +4149,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3878,7 +4186,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3911,7 +4223,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3944,7 +4260,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3977,7 +4297,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4010,7 +4334,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4043,7 +4371,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4076,7 +4408,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4109,7 +4445,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4142,7 +4482,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4175,7 +4519,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4208,7 +4556,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4241,7 +4593,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4274,7 +4630,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4307,7 +4667,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4340,7 +4704,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4373,7 +4741,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4406,7 +4778,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4439,7 +4815,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4472,7 +4852,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4505,7 +4889,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4538,7 +4926,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4571,7 +4963,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4604,7 +5000,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4637,7 +5037,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4670,7 +5074,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4703,7 +5111,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4736,7 +5148,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4769,7 +5185,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4802,7 +5222,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4835,7 +5259,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5296,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4901,7 +5333,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4934,7 +5370,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4967,7 +5407,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5000,7 +5444,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +5481,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5066,7 +5518,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5099,7 +5555,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5132,7 +5592,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5165,7 +5629,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5198,7 +5666,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5231,7 +5703,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5264,7 +5740,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5297,7 +5777,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5330,7 +5814,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5363,7 +5851,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5396,7 +5888,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5429,7 +5925,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5462,7 +5962,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5495,7 +5999,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5528,7 +6036,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5561,7 +6073,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5594,7 +6110,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5627,7 +6147,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5660,7 +6184,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5693,7 +6221,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5726,7 +6258,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5759,7 +6295,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5792,7 +6332,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5825,7 +6369,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5858,7 +6406,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5891,7 +6443,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5924,7 +6480,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5957,7 +6517,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5990,7 +6554,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6591,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6056,7 +6628,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6089,7 +6665,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6122,7 +6702,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6155,7 +6739,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6188,7 +6776,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6221,7 +6813,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6254,7 +6850,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6287,7 +6887,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6320,7 +6924,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6353,7 +6961,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6386,7 +6998,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6419,7 +7035,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6452,7 +7072,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6485,7 +7109,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6518,7 +7146,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6551,7 +7183,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6584,7 +7220,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6617,7 +7257,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6650,7 +7294,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6683,7 +7331,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6716,7 +7368,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6745,15 +7401,15 @@
         <v>1662771.900127471</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>19</v>
-      </c>
-      <c r="J190" t="n">
-        <v>19</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6782,17 +7438,13 @@
         <v>1662846.900127471</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>19</v>
-      </c>
-      <c r="J191" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6826,12 +7478,10 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>19</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6866,7 +7516,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6895,15 +7549,15 @@
         <v>1541151.123727471</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>19</v>
-      </c>
-      <c r="J194" t="n">
-        <v>19</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6935,12 +7589,10 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>19</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -6974,12 +7626,10 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>19</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -7014,7 +7664,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7047,7 +7701,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7080,7 +7738,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7113,7 +7775,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7142,15 +7808,15 @@
         <v>1614312.808892911</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J201" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7179,17 +7845,13 @@
         <v>1699212.808892911</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>19</v>
-      </c>
-      <c r="J202" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
@@ -7223,12 +7885,10 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>18.9</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7263,7 +7923,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7296,7 +7960,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7329,7 +7997,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7362,7 +8034,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7395,7 +8071,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7428,7 +8108,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7461,7 +8145,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7494,7 +8182,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7527,7 +8219,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7560,7 +8256,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7593,7 +8293,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7626,7 +8330,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7659,7 +8367,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7692,7 +8404,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7725,7 +8441,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7758,7 +8478,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7791,7 +8515,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7824,7 +8552,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7857,7 +8589,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7890,7 +8626,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7923,7 +8663,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7956,7 +8700,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7985,15 +8733,15 @@
         <v>1819901.225475631</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>19</v>
-      </c>
-      <c r="J226" t="n">
-        <v>19</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8025,12 +8773,10 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>19</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -8064,9 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>19</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,9 +8847,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>19</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,9 +8884,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>19</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,9 +8921,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>19</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,9 +8958,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>19</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,9 +8995,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>19</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8298,9 +9032,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>19</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,9 +9069,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>19</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,9 +9106,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>19</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +9143,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>19</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,9 +9180,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>19</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,9 +9217,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>19</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8532,9 +9254,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>19</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,9 +9291,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>19</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,9 +9328,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>19</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,9 +9365,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>19</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8688,9 +9402,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>19</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,9 +9439,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>19</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,9 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>19</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8805,9 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>19</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8844,9 +9550,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>19</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,9 +9587,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>19</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8922,9 +9624,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>19</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8961,9 +9661,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>19</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9000,9 +9698,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>19</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,9 +9735,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>19</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,9 +9772,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>19</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,9 +9809,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>19</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9156,9 +9846,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>19</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9192,14 +9880,10 @@
         <v>1531576.094396682</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>19</v>
-      </c>
-      <c r="J257" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9236,9 +9920,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>19</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9275,9 +9957,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>19</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9314,9 +9994,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>19</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9353,9 +10031,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>19</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9392,9 +10068,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>19</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9431,9 +10105,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>19</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9470,9 +10142,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>19</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9509,9 +10179,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>19</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9548,9 +10216,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>19</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9587,9 +10253,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>19</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9626,9 +10290,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>19</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9665,9 +10327,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>19</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9704,9 +10364,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>19</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9743,9 +10401,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>19</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9782,9 +10438,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>19</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9821,9 +10475,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>19</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9857,19 +10509,17 @@
         <v>1153869.436206102</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>19</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L274" t="n">
-        <v>1.010789473684211</v>
+        <v>1</v>
       </c>
       <c r="M274" t="inlineStr"/>
     </row>
@@ -9896,11 +10546,15 @@
         <v>1153869.436206102</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9933,7 +10587,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9966,7 +10624,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9999,7 +10661,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10032,7 +10698,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +10735,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10094,11 +10768,15 @@
         <v>1123307.567806101</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10127,11 +10805,15 @@
         <v>1123307.567806101</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10160,11 +10842,15 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10193,11 +10879,15 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10226,11 +10916,15 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10259,11 +10953,15 @@
         <v>1130223.764906101</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10292,11 +10990,15 @@
         <v>1431209.566206101</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10325,11 +11027,15 @@
         <v>1429678.403706101</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10358,11 +11064,15 @@
         <v>1430052.179206101</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10391,11 +11101,15 @@
         <v>1916265.946006101</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10428,7 +11142,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10457,11 +11175,15 @@
         <v>1638821.102006101</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10490,11 +11212,15 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10523,11 +11249,15 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10556,11 +11286,15 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10589,11 +11323,15 @@
         <v>1638837.326406101</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10622,11 +11360,15 @@
         <v>1738837.326406101</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10659,7 +11401,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10692,7 +11438,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10725,7 +11475,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10758,7 +11512,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10791,7 +11549,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10824,7 +11586,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10857,7 +11623,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10890,7 +11660,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10923,7 +11697,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10956,7 +11734,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10985,14 +11767,16 @@
         <v>1521362.023806101</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
@@ -11018,7 +11802,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11051,7 +11835,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11084,7 +11868,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11117,7 +11901,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11150,7 +11934,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11183,7 +11967,7 @@
         <v>1069838.078406101</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11216,7 +12000,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11249,7 +12033,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11282,7 +12066,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11315,7 +12099,7 @@
         <v>1033575.987706101</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11348,7 +12132,7 @@
         <v>1033585.987706101</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11381,7 +12165,7 @@
         <v>848728.6291061008</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11414,7 +12198,7 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11447,7 +12231,7 @@
         <v>848247.4982061008</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11480,7 +12264,7 @@
         <v>1723052.321706101</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11546,7 +12330,7 @@
         <v>1641915.381206101</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11612,7 +12396,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11645,7 +12429,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11678,7 +12462,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11711,7 +12495,7 @@
         <v>1606478.071779561</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11744,7 +12528,7 @@
         <v>2115977.213479561</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11777,7 +12561,7 @@
         <v>2037504.480879561</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11810,7 +12594,7 @@
         <v>1759022.654579561</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11843,7 +12627,7 @@
         <v>1779102.020679561</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11876,7 +12660,7 @@
         <v>1102374.546579561</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11909,7 +12693,7 @@
         <v>1102374.546579561</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13988,7 +14772,7 @@
         <v>1495198.636661191</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14021,7 +14805,7 @@
         <v>1495959.635088181</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14054,7 +14838,7 @@
         <v>1451716.099888181</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14186,7 +14970,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14219,7 +15003,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14252,7 +15036,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14285,7 +15069,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14318,7 +15102,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14351,7 +15135,7 @@
         <v>1351726.099888181</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14384,7 +15168,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14417,7 +15201,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14450,7 +15234,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14483,7 +15267,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14516,7 +15300,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14549,7 +15333,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14582,7 +15366,7 @@
         <v>1351736.099888181</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14615,7 +15399,7 @@
         <v>684189.0271881806</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14648,7 +15432,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14681,7 +15465,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14714,7 +15498,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14747,7 +15531,7 @@
         <v>684206.2352881806</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14780,7 +15564,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14813,7 +15597,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14846,7 +15630,7 @@
         <v>117696.6982881806</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14879,7 +15663,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14912,7 +15696,7 @@
         <v>181976.8251881806</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14945,7 +15729,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14978,7 +15762,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15011,7 +15795,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15044,7 +15828,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15077,7 +15861,7 @@
         <v>170988.1933881806</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15110,7 +15894,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15143,7 +15927,7 @@
         <v>446470.6616881806</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15176,7 +15960,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15209,7 +15993,7 @@
         <v>288263.7575881806</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16661,10 +17445,14 @@
         <v>-4856179.3922834</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J480" t="n">
+        <v>19.6</v>
+      </c>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
@@ -16694,11 +17482,19 @@
         <v>-4856179.3922834</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J481" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16727,11 +17523,19 @@
         <v>-4856179.3922834</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J482" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16793,10 +17597,14 @@
         <v>-4796183.9229834</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J484" t="n">
+        <v>19.7</v>
+      </c>
       <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
@@ -16829,8 +17637,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16859,11 +17673,19 @@
         <v>-4796183.9229834</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J486" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16892,11 +17714,19 @@
         <v>-4796183.9229834</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J487" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16925,11 +17755,19 @@
         <v>-4823199.94338544</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J488" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16958,11 +17796,19 @@
         <v>-4823199.94338544</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J489" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16991,11 +17837,19 @@
         <v>-3833982.53158544</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J490" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
